--- a/static/documents/Independent Delegation Registration Form.xlsx
+++ b/static/documents/Independent Delegation Registration Form.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Registration Form for HCCRI 2023 (INDEPENDENT)</t>
   </si>
@@ -212,16 +212,13 @@
     <t>3rd Council Choice</t>
   </si>
   <si>
-    <t>Name of Double Delegate (if UNSC is part of your top three council choices)</t>
-  </si>
-  <si>
     <t>Does the student have any dietary restrictions? (Y/N)</t>
   </si>
   <si>
     <t>Is the student fully vaccinated? [Yes/No (Scheduled)/No (Not going to be vaccinated)]</t>
   </si>
   <si>
-    <t>Reason for Signing Up (100 words) (Admission will be on a case by case basis)</t>
+    <t>Reason for Signing Up as Independent Delegates instead of School Delegates (100 words maximum) (Admission will be on a case by case basis)</t>
   </si>
   <si>
     <t>example</t>
@@ -258,9 +255,6 @@
   </si>
   <si>
     <t>UNHRC</t>
-  </si>
-  <si>
-    <t>NIL</t>
   </si>
   <si>
     <t>Y - Vegetarian</t>
@@ -28706,7 +28700,8 @@
     <col customWidth="1" min="13" max="13" width="27.63"/>
     <col customWidth="1" min="15" max="15" width="13.38"/>
     <col customWidth="1" min="16" max="16" width="13.5"/>
-    <col customWidth="1" min="19" max="19" width="15.63"/>
+    <col customWidth="1" min="18" max="18" width="15.63"/>
+    <col customWidth="1" min="19" max="19" width="28.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28767,9 +28762,7 @@
       <c r="S1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -28783,67 +28776,64 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="24">
         <v>18.0</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="24">
         <v>8.5562541E7</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="24">
         <v>9.1234567E7</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="24">
         <v>1.0</v>
       </c>
       <c r="M2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
@@ -28857,11 +28847,10 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -28881,7 +28870,7 @@
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -28895,7 +28884,6 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="26">
@@ -28919,7 +28907,7 @@
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -28933,7 +28921,6 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="26">
@@ -28957,7 +28944,7 @@
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -28971,7 +28958,6 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="26">
@@ -28995,7 +28981,7 @@
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -29009,7 +28995,6 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="26">
@@ -29033,7 +29018,7 @@
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -29047,7 +29032,6 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="26">
@@ -29071,7 +29055,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -29085,7 +29069,6 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="26">
@@ -29109,7 +29092,7 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -29123,7 +29106,6 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="26">
@@ -29147,7 +29129,7 @@
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -29161,7 +29143,6 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="26">
@@ -29185,7 +29166,7 @@
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -29199,7 +29180,6 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="26">
@@ -29223,7 +29203,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -29237,7 +29217,6 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="26">
@@ -29261,7 +29240,7 @@
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -29275,7 +29254,6 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="26">
@@ -29299,7 +29277,7 @@
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -29313,7 +29291,6 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="26">
@@ -29337,7 +29314,7 @@
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -29351,7 +29328,6 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="26">
@@ -29375,7 +29351,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -29389,7 +29365,6 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="26">
@@ -29413,7 +29388,7 @@
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
@@ -29427,7 +29402,6 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="26">
@@ -29451,7 +29425,7 @@
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
@@ -29465,7 +29439,6 @@
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="26">
@@ -29489,7 +29462,7 @@
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -29503,7 +29476,6 @@
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="26">
@@ -29527,7 +29499,7 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
@@ -29541,7 +29513,6 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="26">
@@ -29565,7 +29536,7 @@
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
@@ -29579,7 +29550,6 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="26">
@@ -29603,7 +29573,7 @@
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -29617,7 +29587,6 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="30"/>
@@ -29638,7 +29607,7 @@
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
       <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -29653,11 +29622,10 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -29676,7 +29644,7 @@
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
       <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -29691,7 +29659,6 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="32"/>
@@ -29725,13 +29692,12 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -29750,7 +29716,7 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
       <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -29765,11 +29731,10 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -29781,7 +29746,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
       <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -29796,11 +29761,10 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -29827,7 +29791,6 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
@@ -29863,7 +29826,6 @@
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
@@ -29899,7 +29861,6 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
@@ -29935,7 +29896,6 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -29971,7 +29931,6 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -30007,7 +29966,6 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -30043,7 +30001,6 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -30079,7 +30036,6 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -30115,7 +30071,6 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -30151,7 +30106,6 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -30187,7 +30141,6 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -30223,7 +30176,6 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -30259,7 +30211,6 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4"/>
@@ -30295,7 +30246,6 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
@@ -30331,7 +30281,6 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -30367,7 +30316,6 @@
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4"/>
@@ -30403,7 +30351,6 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -30439,7 +30386,6 @@
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -30475,7 +30421,6 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4"/>
@@ -30511,7 +30456,6 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
@@ -30547,7 +30491,6 @@
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -30583,7 +30526,6 @@
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -30619,7 +30561,6 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4"/>
@@ -30655,7 +30596,6 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -30691,7 +30631,6 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -30727,7 +30666,6 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -30763,7 +30701,6 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4"/>
@@ -30799,7 +30736,6 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
@@ -30835,7 +30771,6 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4"/>
@@ -30871,7 +30806,6 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4"/>
@@ -30907,7 +30841,6 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4"/>
@@ -30943,7 +30876,6 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4"/>
@@ -30979,7 +30911,6 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4"/>
@@ -31015,7 +30946,6 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4"/>
@@ -31051,7 +30981,6 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
-      <c r="AH62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4"/>
@@ -31087,7 +31016,6 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4"/>
@@ -31123,7 +31051,6 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4"/>
@@ -31159,7 +31086,6 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
-      <c r="AH65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4"/>
@@ -31195,7 +31121,6 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
-      <c r="AH66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4"/>
@@ -31231,7 +31156,6 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
-      <c r="AH67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4"/>
@@ -31267,7 +31191,6 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
-      <c r="AH68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -31303,7 +31226,6 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
-      <c r="AH69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -31339,7 +31261,6 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
-      <c r="AH70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -31375,7 +31296,6 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
-      <c r="AH71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -31411,7 +31331,6 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
-      <c r="AH72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -31447,7 +31366,6 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
-      <c r="AH73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -31483,7 +31401,6 @@
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
-      <c r="AH74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -31519,7 +31436,6 @@
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -31555,7 +31471,6 @@
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
       <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -31591,7 +31506,6 @@
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -31627,7 +31541,6 @@
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -31663,7 +31576,6 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -31699,7 +31611,6 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -31735,7 +31646,6 @@
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
       <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -31771,7 +31681,6 @@
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
-      <c r="AH82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -31807,7 +31716,6 @@
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
-      <c r="AH83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -31843,7 +31751,6 @@
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
-      <c r="AH84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -31879,7 +31786,6 @@
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
-      <c r="AH85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -31915,7 +31821,6 @@
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -31951,7 +31856,6 @@
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -31987,7 +31891,6 @@
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
       <c r="AG88" s="4"/>
-      <c r="AH88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -32023,7 +31926,6 @@
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
-      <c r="AH89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -32059,7 +31961,6 @@
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
-      <c r="AH90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -32095,7 +31996,6 @@
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
-      <c r="AH91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -32131,7 +32031,6 @@
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
-      <c r="AH92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -32167,7 +32066,6 @@
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
-      <c r="AH93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -32203,7 +32101,6 @@
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
-      <c r="AH94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -32239,7 +32136,6 @@
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
-      <c r="AH95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -32275,7 +32171,6 @@
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
-      <c r="AH96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -32311,7 +32206,6 @@
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
-      <c r="AH97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -32347,7 +32241,6 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
-      <c r="AH98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -32383,7 +32276,6 @@
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
-      <c r="AH99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -32419,7 +32311,6 @@
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -32455,7 +32346,6 @@
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -32491,7 +32381,6 @@
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
-      <c r="AH102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -32527,7 +32416,6 @@
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -32563,7 +32451,6 @@
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
-      <c r="AH104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -32599,7 +32486,6 @@
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
-      <c r="AH105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -32635,7 +32521,6 @@
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
-      <c r="AH106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -32671,7 +32556,6 @@
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -32707,7 +32591,6 @@
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
-      <c r="AH108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -32743,7 +32626,6 @@
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
       <c r="AG109" s="4"/>
-      <c r="AH109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -32779,7 +32661,6 @@
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
-      <c r="AH110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -32815,7 +32696,6 @@
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
-      <c r="AH111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -32851,7 +32731,6 @@
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
-      <c r="AH112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -32887,7 +32766,6 @@
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
       <c r="AG113" s="4"/>
-      <c r="AH113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -32923,7 +32801,6 @@
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
       <c r="AG114" s="4"/>
-      <c r="AH114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -32959,7 +32836,6 @@
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
       <c r="AG115" s="4"/>
-      <c r="AH115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -32995,7 +32871,6 @@
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
       <c r="AG116" s="4"/>
-      <c r="AH116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -33031,7 +32906,6 @@
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
       <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -33067,7 +32941,6 @@
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
       <c r="AG118" s="4"/>
-      <c r="AH118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -33103,7 +32976,6 @@
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
       <c r="AG119" s="4"/>
-      <c r="AH119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -33139,7 +33011,6 @@
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
       <c r="AG120" s="4"/>
-      <c r="AH120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -33175,7 +33046,6 @@
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
       <c r="AG121" s="4"/>
-      <c r="AH121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -33211,7 +33081,6 @@
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
       <c r="AG122" s="4"/>
-      <c r="AH122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -33247,7 +33116,6 @@
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
       <c r="AG123" s="4"/>
-      <c r="AH123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -33283,7 +33151,6 @@
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
       <c r="AG124" s="4"/>
-      <c r="AH124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -33319,7 +33186,6 @@
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
       <c r="AG125" s="4"/>
-      <c r="AH125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -33355,7 +33221,6 @@
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
       <c r="AG126" s="4"/>
-      <c r="AH126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -33391,7 +33256,6 @@
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
       <c r="AG127" s="4"/>
-      <c r="AH127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -33427,7 +33291,6 @@
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
       <c r="AG128" s="4"/>
-      <c r="AH128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -33463,7 +33326,6 @@
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
       <c r="AG129" s="4"/>
-      <c r="AH129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -33499,7 +33361,6 @@
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
       <c r="AG130" s="4"/>
-      <c r="AH130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -33535,7 +33396,6 @@
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
       <c r="AG131" s="4"/>
-      <c r="AH131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -33571,7 +33431,6 @@
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
       <c r="AG132" s="4"/>
-      <c r="AH132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -33607,7 +33466,6 @@
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
       <c r="AG133" s="4"/>
-      <c r="AH133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -33643,7 +33501,6 @@
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
       <c r="AG134" s="4"/>
-      <c r="AH134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -33679,7 +33536,6 @@
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
       <c r="AG135" s="4"/>
-      <c r="AH135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -33715,7 +33571,6 @@
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
       <c r="AG136" s="4"/>
-      <c r="AH136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -33751,7 +33606,6 @@
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
       <c r="AG137" s="4"/>
-      <c r="AH137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -33787,7 +33641,6 @@
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
       <c r="AG138" s="4"/>
-      <c r="AH138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -33823,7 +33676,6 @@
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
       <c r="AG139" s="4"/>
-      <c r="AH139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -33859,7 +33711,6 @@
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
       <c r="AG140" s="4"/>
-      <c r="AH140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -33895,7 +33746,6 @@
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
       <c r="AG141" s="4"/>
-      <c r="AH141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -33931,7 +33781,6 @@
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
       <c r="AG142" s="4"/>
-      <c r="AH142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -33967,7 +33816,6 @@
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
       <c r="AG143" s="4"/>
-      <c r="AH143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -34003,7 +33851,6 @@
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
       <c r="AG144" s="4"/>
-      <c r="AH144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -34039,7 +33886,6 @@
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
       <c r="AG145" s="4"/>
-      <c r="AH145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -34075,7 +33921,6 @@
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
       <c r="AG146" s="4"/>
-      <c r="AH146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -34111,7 +33956,6 @@
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
       <c r="AG147" s="4"/>
-      <c r="AH147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -34147,7 +33991,6 @@
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
       <c r="AG148" s="4"/>
-      <c r="AH148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -34183,7 +34026,6 @@
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
       <c r="AG149" s="4"/>
-      <c r="AH149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -34219,7 +34061,6 @@
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
       <c r="AG150" s="4"/>
-      <c r="AH150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -34255,7 +34096,6 @@
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
       <c r="AG151" s="4"/>
-      <c r="AH151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -34291,7 +34131,6 @@
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
       <c r="AG152" s="4"/>
-      <c r="AH152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -34327,7 +34166,6 @@
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
       <c r="AG153" s="4"/>
-      <c r="AH153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -34363,7 +34201,6 @@
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
       <c r="AG154" s="4"/>
-      <c r="AH154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -34399,7 +34236,6 @@
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
       <c r="AG155" s="4"/>
-      <c r="AH155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -34435,7 +34271,6 @@
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
       <c r="AG156" s="4"/>
-      <c r="AH156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -34471,7 +34306,6 @@
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
       <c r="AG157" s="4"/>
-      <c r="AH157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -34507,7 +34341,6 @@
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
       <c r="AG158" s="4"/>
-      <c r="AH158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -34543,7 +34376,6 @@
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
       <c r="AG159" s="4"/>
-      <c r="AH159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -34579,7 +34411,6 @@
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
       <c r="AG160" s="4"/>
-      <c r="AH160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -34615,7 +34446,6 @@
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
       <c r="AG161" s="4"/>
-      <c r="AH161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -34651,7 +34481,6 @@
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
       <c r="AG162" s="4"/>
-      <c r="AH162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -34687,7 +34516,6 @@
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
       <c r="AG163" s="4"/>
-      <c r="AH163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -34723,7 +34551,6 @@
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
       <c r="AG164" s="4"/>
-      <c r="AH164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -34759,7 +34586,6 @@
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
-      <c r="AH165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -34795,7 +34621,6 @@
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
       <c r="AG166" s="4"/>
-      <c r="AH166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -34831,7 +34656,6 @@
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
       <c r="AG167" s="4"/>
-      <c r="AH167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -34867,7 +34691,6 @@
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
       <c r="AG168" s="4"/>
-      <c r="AH168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -34903,7 +34726,6 @@
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
       <c r="AG169" s="4"/>
-      <c r="AH169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -34939,7 +34761,6 @@
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
       <c r="AG170" s="4"/>
-      <c r="AH170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -34975,7 +34796,6 @@
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
       <c r="AG171" s="4"/>
-      <c r="AH171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -35011,7 +34831,6 @@
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
       <c r="AG172" s="4"/>
-      <c r="AH172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -35047,7 +34866,6 @@
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
       <c r="AG173" s="4"/>
-      <c r="AH173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -35083,7 +34901,6 @@
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
       <c r="AG174" s="4"/>
-      <c r="AH174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -35119,7 +34936,6 @@
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
       <c r="AG175" s="4"/>
-      <c r="AH175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -35155,7 +34971,6 @@
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
       <c r="AG176" s="4"/>
-      <c r="AH176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -35191,7 +35006,6 @@
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
       <c r="AG177" s="4"/>
-      <c r="AH177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -35227,7 +35041,6 @@
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
       <c r="AG178" s="4"/>
-      <c r="AH178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -35263,7 +35076,6 @@
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
       <c r="AG179" s="4"/>
-      <c r="AH179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -35299,7 +35111,6 @@
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
       <c r="AG180" s="4"/>
-      <c r="AH180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -35335,7 +35146,6 @@
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
       <c r="AG181" s="4"/>
-      <c r="AH181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -35371,7 +35181,6 @@
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
       <c r="AG182" s="4"/>
-      <c r="AH182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -35407,7 +35216,6 @@
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
       <c r="AG183" s="4"/>
-      <c r="AH183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -35443,7 +35251,6 @@
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
       <c r="AG184" s="4"/>
-      <c r="AH184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -35479,7 +35286,6 @@
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
       <c r="AG185" s="4"/>
-      <c r="AH185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -35515,7 +35321,6 @@
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
       <c r="AG186" s="4"/>
-      <c r="AH186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -35551,7 +35356,6 @@
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
       <c r="AG187" s="4"/>
-      <c r="AH187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -35587,7 +35391,6 @@
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
       <c r="AG188" s="4"/>
-      <c r="AH188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -35623,7 +35426,6 @@
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
       <c r="AG189" s="4"/>
-      <c r="AH189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -35659,7 +35461,6 @@
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
       <c r="AG190" s="4"/>
-      <c r="AH190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -35695,7 +35496,6 @@
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
       <c r="AG191" s="4"/>
-      <c r="AH191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -35731,7 +35531,6 @@
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
       <c r="AG192" s="4"/>
-      <c r="AH192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -35767,7 +35566,6 @@
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
       <c r="AG193" s="4"/>
-      <c r="AH193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -35803,7 +35601,6 @@
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
       <c r="AG194" s="4"/>
-      <c r="AH194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -35839,7 +35636,6 @@
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
       <c r="AG195" s="4"/>
-      <c r="AH195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -35875,7 +35671,6 @@
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
       <c r="AG196" s="4"/>
-      <c r="AH196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -35911,7 +35706,6 @@
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
       <c r="AG197" s="4"/>
-      <c r="AH197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -35947,7 +35741,6 @@
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
       <c r="AG198" s="4"/>
-      <c r="AH198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -35983,7 +35776,6 @@
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
       <c r="AG199" s="4"/>
-      <c r="AH199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -36019,7 +35811,6 @@
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
       <c r="AG200" s="4"/>
-      <c r="AH200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -36055,7 +35846,6 @@
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
       <c r="AG201" s="4"/>
-      <c r="AH201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -36091,7 +35881,6 @@
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
       <c r="AG202" s="4"/>
-      <c r="AH202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -36127,7 +35916,6 @@
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
       <c r="AG203" s="4"/>
-      <c r="AH203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -36163,7 +35951,6 @@
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
       <c r="AG204" s="4"/>
-      <c r="AH204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -36199,7 +35986,6 @@
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
       <c r="AG205" s="4"/>
-      <c r="AH205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -36235,7 +36021,6 @@
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
       <c r="AG206" s="4"/>
-      <c r="AH206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -36271,7 +36056,6 @@
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
       <c r="AG207" s="4"/>
-      <c r="AH207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -36307,7 +36091,6 @@
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
       <c r="AG208" s="4"/>
-      <c r="AH208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -36343,7 +36126,6 @@
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
       <c r="AG209" s="4"/>
-      <c r="AH209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -36379,7 +36161,6 @@
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
       <c r="AG210" s="4"/>
-      <c r="AH210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -36415,7 +36196,6 @@
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
       <c r="AG211" s="4"/>
-      <c r="AH211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -36451,7 +36231,6 @@
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
       <c r="AG212" s="4"/>
-      <c r="AH212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -36487,7 +36266,6 @@
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
       <c r="AG213" s="4"/>
-      <c r="AH213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -36523,7 +36301,6 @@
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
       <c r="AG214" s="4"/>
-      <c r="AH214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -36559,7 +36336,6 @@
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
       <c r="AG215" s="4"/>
-      <c r="AH215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -36595,7 +36371,6 @@
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
       <c r="AG216" s="4"/>
-      <c r="AH216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -36631,7 +36406,6 @@
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
       <c r="AG217" s="4"/>
-      <c r="AH217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -36667,7 +36441,6 @@
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
       <c r="AG218" s="4"/>
-      <c r="AH218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -36703,7 +36476,6 @@
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
       <c r="AG219" s="4"/>
-      <c r="AH219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -36739,7 +36511,6 @@
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
       <c r="AG220" s="4"/>
-      <c r="AH220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -36775,7 +36546,6 @@
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
       <c r="AG221" s="4"/>
-      <c r="AH221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -36811,7 +36581,6 @@
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
       <c r="AG222" s="4"/>
-      <c r="AH222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -36847,7 +36616,6 @@
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
       <c r="AG223" s="4"/>
-      <c r="AH223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -36883,7 +36651,6 @@
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
       <c r="AG224" s="4"/>
-      <c r="AH224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -36919,7 +36686,6 @@
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
       <c r="AG225" s="4"/>
-      <c r="AH225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -36955,7 +36721,6 @@
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
       <c r="AG226" s="4"/>
-      <c r="AH226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -36991,7 +36756,6 @@
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
       <c r="AG227" s="4"/>
-      <c r="AH227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -37027,7 +36791,6 @@
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
       <c r="AG228" s="4"/>
-      <c r="AH228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -37063,7 +36826,6 @@
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
       <c r="AG229" s="4"/>
-      <c r="AH229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -37099,7 +36861,6 @@
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
       <c r="AG230" s="4"/>
-      <c r="AH230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -37135,7 +36896,6 @@
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
       <c r="AG231" s="4"/>
-      <c r="AH231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -37171,7 +36931,6 @@
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
       <c r="AG232" s="4"/>
-      <c r="AH232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -37207,7 +36966,6 @@
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
       <c r="AG233" s="4"/>
-      <c r="AH233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -37243,7 +37001,6 @@
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
       <c r="AG234" s="4"/>
-      <c r="AH234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -37279,7 +37036,6 @@
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
       <c r="AG235" s="4"/>
-      <c r="AH235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -37315,7 +37071,6 @@
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
       <c r="AG236" s="4"/>
-      <c r="AH236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -37351,7 +37106,6 @@
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
       <c r="AG237" s="4"/>
-      <c r="AH237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -37387,7 +37141,6 @@
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
       <c r="AG238" s="4"/>
-      <c r="AH238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -37423,7 +37176,6 @@
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
       <c r="AG239" s="4"/>
-      <c r="AH239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -37459,7 +37211,6 @@
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
       <c r="AG240" s="4"/>
-      <c r="AH240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -37495,7 +37246,6 @@
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
       <c r="AG241" s="4"/>
-      <c r="AH241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -37531,7 +37281,6 @@
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
       <c r="AG242" s="4"/>
-      <c r="AH242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -37567,7 +37316,6 @@
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
       <c r="AG243" s="4"/>
-      <c r="AH243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -37603,7 +37351,6 @@
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
       <c r="AG244" s="4"/>
-      <c r="AH244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -37639,7 +37386,6 @@
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
       <c r="AG245" s="4"/>
-      <c r="AH245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -37675,7 +37421,6 @@
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
       <c r="AG246" s="4"/>
-      <c r="AH246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -37711,7 +37456,6 @@
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
       <c r="AG247" s="4"/>
-      <c r="AH247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -37747,7 +37491,6 @@
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
       <c r="AG248" s="4"/>
-      <c r="AH248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -37783,7 +37526,6 @@
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
       <c r="AG249" s="4"/>
-      <c r="AH249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -37819,7 +37561,6 @@
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
       <c r="AG250" s="4"/>
-      <c r="AH250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -37855,7 +37596,6 @@
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
       <c r="AG251" s="4"/>
-      <c r="AH251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -37891,7 +37631,6 @@
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
       <c r="AG252" s="4"/>
-      <c r="AH252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -37927,7 +37666,6 @@
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
       <c r="AG253" s="4"/>
-      <c r="AH253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -37963,7 +37701,6 @@
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
       <c r="AG254" s="4"/>
-      <c r="AH254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -37999,7 +37736,6 @@
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
       <c r="AG255" s="4"/>
-      <c r="AH255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -38035,7 +37771,6 @@
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
       <c r="AG256" s="4"/>
-      <c r="AH256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -38071,7 +37806,6 @@
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
       <c r="AG257" s="4"/>
-      <c r="AH257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -38107,7 +37841,6 @@
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
       <c r="AG258" s="4"/>
-      <c r="AH258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -38143,7 +37876,6 @@
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
       <c r="AG259" s="4"/>
-      <c r="AH259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -38179,7 +37911,6 @@
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
       <c r="AG260" s="4"/>
-      <c r="AH260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -38215,7 +37946,6 @@
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
       <c r="AG261" s="4"/>
-      <c r="AH261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -38251,7 +37981,6 @@
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
       <c r="AG262" s="4"/>
-      <c r="AH262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -38287,7 +38016,6 @@
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
       <c r="AG263" s="4"/>
-      <c r="AH263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -38323,7 +38051,6 @@
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
       <c r="AG264" s="4"/>
-      <c r="AH264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -38359,7 +38086,6 @@
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
       <c r="AG265" s="4"/>
-      <c r="AH265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -38395,7 +38121,6 @@
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
       <c r="AG266" s="4"/>
-      <c r="AH266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -38431,7 +38156,6 @@
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
       <c r="AG267" s="4"/>
-      <c r="AH267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -38467,7 +38191,6 @@
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
       <c r="AG268" s="4"/>
-      <c r="AH268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -38503,7 +38226,6 @@
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
       <c r="AG269" s="4"/>
-      <c r="AH269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -38539,7 +38261,6 @@
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
       <c r="AG270" s="4"/>
-      <c r="AH270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -38575,7 +38296,6 @@
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
       <c r="AG271" s="4"/>
-      <c r="AH271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -38611,7 +38331,6 @@
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
       <c r="AG272" s="4"/>
-      <c r="AH272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -38647,7 +38366,6 @@
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
       <c r="AG273" s="4"/>
-      <c r="AH273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -38683,7 +38401,6 @@
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
       <c r="AG274" s="4"/>
-      <c r="AH274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -38719,7 +38436,6 @@
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
       <c r="AG275" s="4"/>
-      <c r="AH275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -38755,7 +38471,6 @@
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
       <c r="AG276" s="4"/>
-      <c r="AH276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -38791,7 +38506,6 @@
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
       <c r="AG277" s="4"/>
-      <c r="AH277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -38827,7 +38541,6 @@
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
       <c r="AG278" s="4"/>
-      <c r="AH278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -38863,7 +38576,6 @@
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
       <c r="AG279" s="4"/>
-      <c r="AH279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -38899,7 +38611,6 @@
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
       <c r="AG280" s="4"/>
-      <c r="AH280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -38935,7 +38646,6 @@
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
       <c r="AG281" s="4"/>
-      <c r="AH281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -38971,7 +38681,6 @@
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
       <c r="AG282" s="4"/>
-      <c r="AH282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -39007,7 +38716,6 @@
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
       <c r="AG283" s="4"/>
-      <c r="AH283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -39043,7 +38751,6 @@
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
       <c r="AG284" s="4"/>
-      <c r="AH284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -39079,7 +38786,6 @@
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
       <c r="AG285" s="4"/>
-      <c r="AH285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -39115,7 +38821,6 @@
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
       <c r="AG286" s="4"/>
-      <c r="AH286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -39151,7 +38856,6 @@
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
       <c r="AG287" s="4"/>
-      <c r="AH287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -39187,7 +38891,6 @@
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
       <c r="AG288" s="4"/>
-      <c r="AH288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -39223,7 +38926,6 @@
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
       <c r="AG289" s="4"/>
-      <c r="AH289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -39259,7 +38961,6 @@
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
       <c r="AG290" s="4"/>
-      <c r="AH290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -39295,7 +38996,6 @@
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
       <c r="AG291" s="4"/>
-      <c r="AH291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -39331,7 +39031,6 @@
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
       <c r="AG292" s="4"/>
-      <c r="AH292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -39367,7 +39066,6 @@
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
       <c r="AG293" s="4"/>
-      <c r="AH293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -39403,7 +39101,6 @@
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
       <c r="AG294" s="4"/>
-      <c r="AH294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -39439,7 +39136,6 @@
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
       <c r="AG295" s="4"/>
-      <c r="AH295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -39475,7 +39171,6 @@
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
       <c r="AG296" s="4"/>
-      <c r="AH296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -39511,7 +39206,6 @@
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
       <c r="AG297" s="4"/>
-      <c r="AH297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -39547,7 +39241,6 @@
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
       <c r="AG298" s="4"/>
-      <c r="AH298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -39583,7 +39276,6 @@
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
       <c r="AG299" s="4"/>
-      <c r="AH299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -39619,7 +39311,6 @@
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
       <c r="AG300" s="4"/>
-      <c r="AH300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -39655,7 +39346,6 @@
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
       <c r="AG301" s="4"/>
-      <c r="AH301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -39691,7 +39381,6 @@
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
       <c r="AG302" s="4"/>
-      <c r="AH302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -39727,7 +39416,6 @@
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
       <c r="AG303" s="4"/>
-      <c r="AH303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -39763,7 +39451,6 @@
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
       <c r="AG304" s="4"/>
-      <c r="AH304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -39799,7 +39486,6 @@
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
       <c r="AG305" s="4"/>
-      <c r="AH305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -39835,7 +39521,6 @@
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
       <c r="AG306" s="4"/>
-      <c r="AH306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -39871,7 +39556,6 @@
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
       <c r="AG307" s="4"/>
-      <c r="AH307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -39907,7 +39591,6 @@
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
       <c r="AG308" s="4"/>
-      <c r="AH308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -39943,7 +39626,6 @@
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
       <c r="AG309" s="4"/>
-      <c r="AH309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -39979,7 +39661,6 @@
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
       <c r="AG310" s="4"/>
-      <c r="AH310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -40015,7 +39696,6 @@
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
       <c r="AG311" s="4"/>
-      <c r="AH311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -40051,7 +39731,6 @@
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
       <c r="AG312" s="4"/>
-      <c r="AH312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -40087,7 +39766,6 @@
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
       <c r="AG313" s="4"/>
-      <c r="AH313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -40123,7 +39801,6 @@
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
       <c r="AG314" s="4"/>
-      <c r="AH314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -40159,7 +39836,6 @@
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
       <c r="AG315" s="4"/>
-      <c r="AH315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -40195,7 +39871,6 @@
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
       <c r="AG316" s="4"/>
-      <c r="AH316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -40231,7 +39906,6 @@
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
       <c r="AG317" s="4"/>
-      <c r="AH317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -40267,7 +39941,6 @@
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
       <c r="AG318" s="4"/>
-      <c r="AH318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -40303,7 +39976,6 @@
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
       <c r="AG319" s="4"/>
-      <c r="AH319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -40339,7 +40011,6 @@
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
       <c r="AG320" s="4"/>
-      <c r="AH320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -40375,7 +40046,6 @@
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
       <c r="AG321" s="4"/>
-      <c r="AH321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -40411,7 +40081,6 @@
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
       <c r="AG322" s="4"/>
-      <c r="AH322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -40447,7 +40116,6 @@
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
       <c r="AG323" s="4"/>
-      <c r="AH323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -40483,7 +40151,6 @@
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
       <c r="AG324" s="4"/>
-      <c r="AH324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -40519,7 +40186,6 @@
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
       <c r="AG325" s="4"/>
-      <c r="AH325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -40555,7 +40221,6 @@
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
       <c r="AG326" s="4"/>
-      <c r="AH326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -40591,7 +40256,6 @@
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
       <c r="AG327" s="4"/>
-      <c r="AH327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -40627,7 +40291,6 @@
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
       <c r="AG328" s="4"/>
-      <c r="AH328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -40663,7 +40326,6 @@
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
       <c r="AG329" s="4"/>
-      <c r="AH329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -40699,7 +40361,6 @@
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
       <c r="AG330" s="4"/>
-      <c r="AH330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -40735,7 +40396,6 @@
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
       <c r="AG331" s="4"/>
-      <c r="AH331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -40771,7 +40431,6 @@
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
       <c r="AG332" s="4"/>
-      <c r="AH332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -40807,7 +40466,6 @@
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
       <c r="AG333" s="4"/>
-      <c r="AH333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -40843,7 +40501,6 @@
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
       <c r="AG334" s="4"/>
-      <c r="AH334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -40879,7 +40536,6 @@
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
       <c r="AG335" s="4"/>
-      <c r="AH335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -40915,7 +40571,6 @@
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
       <c r="AG336" s="4"/>
-      <c r="AH336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -40951,7 +40606,6 @@
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
       <c r="AG337" s="4"/>
-      <c r="AH337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -40987,7 +40641,6 @@
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
       <c r="AG338" s="4"/>
-      <c r="AH338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -41023,7 +40676,6 @@
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
       <c r="AG339" s="4"/>
-      <c r="AH339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -41059,7 +40711,6 @@
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
       <c r="AG340" s="4"/>
-      <c r="AH340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -41095,7 +40746,6 @@
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
       <c r="AG341" s="4"/>
-      <c r="AH341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -41131,7 +40781,6 @@
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
       <c r="AG342" s="4"/>
-      <c r="AH342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -41167,7 +40816,6 @@
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
       <c r="AG343" s="4"/>
-      <c r="AH343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -41203,7 +40851,6 @@
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
       <c r="AG344" s="4"/>
-      <c r="AH344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -41239,7 +40886,6 @@
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
       <c r="AG345" s="4"/>
-      <c r="AH345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -41275,7 +40921,6 @@
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
       <c r="AG346" s="4"/>
-      <c r="AH346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -41311,7 +40956,6 @@
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
       <c r="AG347" s="4"/>
-      <c r="AH347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -41347,7 +40991,6 @@
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
       <c r="AG348" s="4"/>
-      <c r="AH348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -41383,7 +41026,6 @@
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
       <c r="AG349" s="4"/>
-      <c r="AH349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -41419,7 +41061,6 @@
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
       <c r="AG350" s="4"/>
-      <c r="AH350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -41455,7 +41096,6 @@
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
       <c r="AG351" s="4"/>
-      <c r="AH351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -41491,7 +41131,6 @@
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
       <c r="AG352" s="4"/>
-      <c r="AH352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -41527,7 +41166,6 @@
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
       <c r="AG353" s="4"/>
-      <c r="AH353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -41563,7 +41201,6 @@
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
       <c r="AG354" s="4"/>
-      <c r="AH354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -41599,7 +41236,6 @@
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
       <c r="AG355" s="4"/>
-      <c r="AH355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -41635,7 +41271,6 @@
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
       <c r="AG356" s="4"/>
-      <c r="AH356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -41671,7 +41306,6 @@
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
       <c r="AG357" s="4"/>
-      <c r="AH357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -41707,7 +41341,6 @@
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
       <c r="AG358" s="4"/>
-      <c r="AH358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -41743,7 +41376,6 @@
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
       <c r="AG359" s="4"/>
-      <c r="AH359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -41779,7 +41411,6 @@
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
       <c r="AG360" s="4"/>
-      <c r="AH360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -41815,7 +41446,6 @@
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
       <c r="AG361" s="4"/>
-      <c r="AH361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -41851,7 +41481,6 @@
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
       <c r="AG362" s="4"/>
-      <c r="AH362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -41887,7 +41516,6 @@
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
       <c r="AG363" s="4"/>
-      <c r="AH363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -41923,7 +41551,6 @@
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
       <c r="AG364" s="4"/>
-      <c r="AH364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -41959,7 +41586,6 @@
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
       <c r="AG365" s="4"/>
-      <c r="AH365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -41995,7 +41621,6 @@
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
       <c r="AG366" s="4"/>
-      <c r="AH366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -42031,7 +41656,6 @@
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
       <c r="AG367" s="4"/>
-      <c r="AH367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -42067,7 +41691,6 @@
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
       <c r="AG368" s="4"/>
-      <c r="AH368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -42103,7 +41726,6 @@
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
       <c r="AG369" s="4"/>
-      <c r="AH369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -42139,7 +41761,6 @@
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
       <c r="AG370" s="4"/>
-      <c r="AH370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -42175,7 +41796,6 @@
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
       <c r="AG371" s="4"/>
-      <c r="AH371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -42211,7 +41831,6 @@
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
       <c r="AG372" s="4"/>
-      <c r="AH372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -42247,7 +41866,6 @@
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
       <c r="AG373" s="4"/>
-      <c r="AH373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -42283,7 +41901,6 @@
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
       <c r="AG374" s="4"/>
-      <c r="AH374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -42319,7 +41936,6 @@
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
       <c r="AG375" s="4"/>
-      <c r="AH375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -42355,7 +41971,6 @@
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
       <c r="AG376" s="4"/>
-      <c r="AH376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -42391,7 +42006,6 @@
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
       <c r="AG377" s="4"/>
-      <c r="AH377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -42427,7 +42041,6 @@
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
       <c r="AG378" s="4"/>
-      <c r="AH378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -42463,7 +42076,6 @@
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
       <c r="AG379" s="4"/>
-      <c r="AH379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -42499,7 +42111,6 @@
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
       <c r="AG380" s="4"/>
-      <c r="AH380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -42535,7 +42146,6 @@
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
       <c r="AG381" s="4"/>
-      <c r="AH381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -42571,7 +42181,6 @@
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
       <c r="AG382" s="4"/>
-      <c r="AH382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -42607,7 +42216,6 @@
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
       <c r="AG383" s="4"/>
-      <c r="AH383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -42643,7 +42251,6 @@
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
       <c r="AG384" s="4"/>
-      <c r="AH384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -42679,7 +42286,6 @@
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
       <c r="AG385" s="4"/>
-      <c r="AH385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -42715,7 +42321,6 @@
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
       <c r="AG386" s="4"/>
-      <c r="AH386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -42751,7 +42356,6 @@
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
       <c r="AG387" s="4"/>
-      <c r="AH387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -42787,7 +42391,6 @@
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
       <c r="AG388" s="4"/>
-      <c r="AH388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -42823,7 +42426,6 @@
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
       <c r="AG389" s="4"/>
-      <c r="AH389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -42859,7 +42461,6 @@
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
       <c r="AG390" s="4"/>
-      <c r="AH390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -42895,7 +42496,6 @@
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
       <c r="AG391" s="4"/>
-      <c r="AH391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -42931,7 +42531,6 @@
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
       <c r="AG392" s="4"/>
-      <c r="AH392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -42967,7 +42566,6 @@
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
       <c r="AG393" s="4"/>
-      <c r="AH393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -43003,7 +42601,6 @@
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
       <c r="AG394" s="4"/>
-      <c r="AH394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -43039,7 +42636,6 @@
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
       <c r="AG395" s="4"/>
-      <c r="AH395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -43075,7 +42671,6 @@
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
       <c r="AG396" s="4"/>
-      <c r="AH396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -43111,7 +42706,6 @@
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
       <c r="AG397" s="4"/>
-      <c r="AH397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -43147,7 +42741,6 @@
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
       <c r="AG398" s="4"/>
-      <c r="AH398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -43183,7 +42776,6 @@
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
       <c r="AG399" s="4"/>
-      <c r="AH399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -43219,7 +42811,6 @@
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
       <c r="AG400" s="4"/>
-      <c r="AH400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -43255,7 +42846,6 @@
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
       <c r="AG401" s="4"/>
-      <c r="AH401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -43291,7 +42881,6 @@
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
       <c r="AG402" s="4"/>
-      <c r="AH402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -43327,7 +42916,6 @@
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
       <c r="AG403" s="4"/>
-      <c r="AH403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -43363,7 +42951,6 @@
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
       <c r="AG404" s="4"/>
-      <c r="AH404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -43399,7 +42986,6 @@
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
       <c r="AG405" s="4"/>
-      <c r="AH405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -43435,7 +43021,6 @@
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
       <c r="AG406" s="4"/>
-      <c r="AH406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -43471,7 +43056,6 @@
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
       <c r="AG407" s="4"/>
-      <c r="AH407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -43507,7 +43091,6 @@
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
       <c r="AG408" s="4"/>
-      <c r="AH408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -43543,7 +43126,6 @@
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
       <c r="AG409" s="4"/>
-      <c r="AH409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -43579,7 +43161,6 @@
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
       <c r="AG410" s="4"/>
-      <c r="AH410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -43615,7 +43196,6 @@
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
       <c r="AG411" s="4"/>
-      <c r="AH411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -43651,7 +43231,6 @@
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
       <c r="AG412" s="4"/>
-      <c r="AH412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -43687,7 +43266,6 @@
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
       <c r="AG413" s="4"/>
-      <c r="AH413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -43723,7 +43301,6 @@
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
       <c r="AG414" s="4"/>
-      <c r="AH414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -43759,7 +43336,6 @@
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
       <c r="AG415" s="4"/>
-      <c r="AH415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -43795,7 +43371,6 @@
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
       <c r="AG416" s="4"/>
-      <c r="AH416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -43831,7 +43406,6 @@
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
       <c r="AG417" s="4"/>
-      <c r="AH417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -43867,7 +43441,6 @@
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
       <c r="AG418" s="4"/>
-      <c r="AH418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -43903,7 +43476,6 @@
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
       <c r="AG419" s="4"/>
-      <c r="AH419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -43939,7 +43511,6 @@
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
       <c r="AG420" s="4"/>
-      <c r="AH420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -43975,7 +43546,6 @@
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
       <c r="AG421" s="4"/>
-      <c r="AH421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -44011,7 +43581,6 @@
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
       <c r="AG422" s="4"/>
-      <c r="AH422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -44047,7 +43616,6 @@
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
       <c r="AG423" s="4"/>
-      <c r="AH423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -44083,7 +43651,6 @@
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
       <c r="AG424" s="4"/>
-      <c r="AH424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -44119,7 +43686,6 @@
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
       <c r="AG425" s="4"/>
-      <c r="AH425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -44155,7 +43721,6 @@
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
       <c r="AG426" s="4"/>
-      <c r="AH426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -44191,7 +43756,6 @@
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
       <c r="AG427" s="4"/>
-      <c r="AH427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -44227,7 +43791,6 @@
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
       <c r="AG428" s="4"/>
-      <c r="AH428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -44263,7 +43826,6 @@
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
       <c r="AG429" s="4"/>
-      <c r="AH429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -44299,7 +43861,6 @@
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
       <c r="AG430" s="4"/>
-      <c r="AH430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -44335,7 +43896,6 @@
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
       <c r="AG431" s="4"/>
-      <c r="AH431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -44371,7 +43931,6 @@
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
       <c r="AG432" s="4"/>
-      <c r="AH432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -44407,7 +43966,6 @@
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
       <c r="AG433" s="4"/>
-      <c r="AH433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -44443,7 +44001,6 @@
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
       <c r="AG434" s="4"/>
-      <c r="AH434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -44479,7 +44036,6 @@
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
       <c r="AG435" s="4"/>
-      <c r="AH435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -44515,7 +44071,6 @@
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
       <c r="AG436" s="4"/>
-      <c r="AH436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -44551,7 +44106,6 @@
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
       <c r="AG437" s="4"/>
-      <c r="AH437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -44587,7 +44141,6 @@
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
       <c r="AG438" s="4"/>
-      <c r="AH438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -44623,7 +44176,6 @@
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
       <c r="AG439" s="4"/>
-      <c r="AH439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -44659,7 +44211,6 @@
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
       <c r="AG440" s="4"/>
-      <c r="AH440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -44695,7 +44246,6 @@
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
       <c r="AG441" s="4"/>
-      <c r="AH441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -44731,7 +44281,6 @@
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
       <c r="AG442" s="4"/>
-      <c r="AH442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -44767,7 +44316,6 @@
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
       <c r="AG443" s="4"/>
-      <c r="AH443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -44803,7 +44351,6 @@
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
       <c r="AG444" s="4"/>
-      <c r="AH444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -44839,7 +44386,6 @@
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
       <c r="AG445" s="4"/>
-      <c r="AH445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -44875,7 +44421,6 @@
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
       <c r="AG446" s="4"/>
-      <c r="AH446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -44911,7 +44456,6 @@
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
       <c r="AG447" s="4"/>
-      <c r="AH447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -44947,7 +44491,6 @@
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
       <c r="AG448" s="4"/>
-      <c r="AH448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -44983,7 +44526,6 @@
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
       <c r="AG449" s="4"/>
-      <c r="AH449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -45019,7 +44561,6 @@
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
       <c r="AG450" s="4"/>
-      <c r="AH450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -45055,7 +44596,6 @@
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
       <c r="AG451" s="4"/>
-      <c r="AH451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -45091,7 +44631,6 @@
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
       <c r="AG452" s="4"/>
-      <c r="AH452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -45127,7 +44666,6 @@
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
       <c r="AG453" s="4"/>
-      <c r="AH453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -45163,7 +44701,6 @@
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
       <c r="AG454" s="4"/>
-      <c r="AH454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -45199,7 +44736,6 @@
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
       <c r="AG455" s="4"/>
-      <c r="AH455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -45235,7 +44771,6 @@
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
       <c r="AG456" s="4"/>
-      <c r="AH456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -45271,7 +44806,6 @@
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
       <c r="AG457" s="4"/>
-      <c r="AH457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -45307,7 +44841,6 @@
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
       <c r="AG458" s="4"/>
-      <c r="AH458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -45343,7 +44876,6 @@
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
       <c r="AG459" s="4"/>
-      <c r="AH459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -45379,7 +44911,6 @@
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
       <c r="AG460" s="4"/>
-      <c r="AH460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -45415,7 +44946,6 @@
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
       <c r="AG461" s="4"/>
-      <c r="AH461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -45451,7 +44981,6 @@
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
       <c r="AG462" s="4"/>
-      <c r="AH462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -45487,7 +45016,6 @@
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
       <c r="AG463" s="4"/>
-      <c r="AH463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -45523,7 +45051,6 @@
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
       <c r="AG464" s="4"/>
-      <c r="AH464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -45559,7 +45086,6 @@
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
       <c r="AG465" s="4"/>
-      <c r="AH465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -45595,7 +45121,6 @@
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
       <c r="AG466" s="4"/>
-      <c r="AH466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -45631,7 +45156,6 @@
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>
       <c r="AG467" s="4"/>
-      <c r="AH467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -45667,7 +45191,6 @@
       <c r="AE468" s="4"/>
       <c r="AF468" s="4"/>
       <c r="AG468" s="4"/>
-      <c r="AH468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -45703,7 +45226,6 @@
       <c r="AE469" s="4"/>
       <c r="AF469" s="4"/>
       <c r="AG469" s="4"/>
-      <c r="AH469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -45739,7 +45261,6 @@
       <c r="AE470" s="4"/>
       <c r="AF470" s="4"/>
       <c r="AG470" s="4"/>
-      <c r="AH470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -45775,7 +45296,6 @@
       <c r="AE471" s="4"/>
       <c r="AF471" s="4"/>
       <c r="AG471" s="4"/>
-      <c r="AH471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -45811,7 +45331,6 @@
       <c r="AE472" s="4"/>
       <c r="AF472" s="4"/>
       <c r="AG472" s="4"/>
-      <c r="AH472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -45847,7 +45366,6 @@
       <c r="AE473" s="4"/>
       <c r="AF473" s="4"/>
       <c r="AG473" s="4"/>
-      <c r="AH473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -45883,7 +45401,6 @@
       <c r="AE474" s="4"/>
       <c r="AF474" s="4"/>
       <c r="AG474" s="4"/>
-      <c r="AH474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -45919,7 +45436,6 @@
       <c r="AE475" s="4"/>
       <c r="AF475" s="4"/>
       <c r="AG475" s="4"/>
-      <c r="AH475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -45955,7 +45471,6 @@
       <c r="AE476" s="4"/>
       <c r="AF476" s="4"/>
       <c r="AG476" s="4"/>
-      <c r="AH476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -45991,7 +45506,6 @@
       <c r="AE477" s="4"/>
       <c r="AF477" s="4"/>
       <c r="AG477" s="4"/>
-      <c r="AH477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -46027,7 +45541,6 @@
       <c r="AE478" s="4"/>
       <c r="AF478" s="4"/>
       <c r="AG478" s="4"/>
-      <c r="AH478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -46063,7 +45576,6 @@
       <c r="AE479" s="4"/>
       <c r="AF479" s="4"/>
       <c r="AG479" s="4"/>
-      <c r="AH479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -46099,7 +45611,6 @@
       <c r="AE480" s="4"/>
       <c r="AF480" s="4"/>
       <c r="AG480" s="4"/>
-      <c r="AH480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -46135,7 +45646,6 @@
       <c r="AE481" s="4"/>
       <c r="AF481" s="4"/>
       <c r="AG481" s="4"/>
-      <c r="AH481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -46171,7 +45681,6 @@
       <c r="AE482" s="4"/>
       <c r="AF482" s="4"/>
       <c r="AG482" s="4"/>
-      <c r="AH482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -46207,7 +45716,6 @@
       <c r="AE483" s="4"/>
       <c r="AF483" s="4"/>
       <c r="AG483" s="4"/>
-      <c r="AH483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -46243,7 +45751,6 @@
       <c r="AE484" s="4"/>
       <c r="AF484" s="4"/>
       <c r="AG484" s="4"/>
-      <c r="AH484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -46279,7 +45786,6 @@
       <c r="AE485" s="4"/>
       <c r="AF485" s="4"/>
       <c r="AG485" s="4"/>
-      <c r="AH485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -46315,7 +45821,6 @@
       <c r="AE486" s="4"/>
       <c r="AF486" s="4"/>
       <c r="AG486" s="4"/>
-      <c r="AH486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -46351,7 +45856,6 @@
       <c r="AE487" s="4"/>
       <c r="AF487" s="4"/>
       <c r="AG487" s="4"/>
-      <c r="AH487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -46387,7 +45891,6 @@
       <c r="AE488" s="4"/>
       <c r="AF488" s="4"/>
       <c r="AG488" s="4"/>
-      <c r="AH488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -46423,7 +45926,6 @@
       <c r="AE489" s="4"/>
       <c r="AF489" s="4"/>
       <c r="AG489" s="4"/>
-      <c r="AH489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -46459,7 +45961,6 @@
       <c r="AE490" s="4"/>
       <c r="AF490" s="4"/>
       <c r="AG490" s="4"/>
-      <c r="AH490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -46495,7 +45996,6 @@
       <c r="AE491" s="4"/>
       <c r="AF491" s="4"/>
       <c r="AG491" s="4"/>
-      <c r="AH491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -46531,7 +46031,6 @@
       <c r="AE492" s="4"/>
       <c r="AF492" s="4"/>
       <c r="AG492" s="4"/>
-      <c r="AH492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -46567,7 +46066,6 @@
       <c r="AE493" s="4"/>
       <c r="AF493" s="4"/>
       <c r="AG493" s="4"/>
-      <c r="AH493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -46603,7 +46101,6 @@
       <c r="AE494" s="4"/>
       <c r="AF494" s="4"/>
       <c r="AG494" s="4"/>
-      <c r="AH494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -46639,7 +46136,6 @@
       <c r="AE495" s="4"/>
       <c r="AF495" s="4"/>
       <c r="AG495" s="4"/>
-      <c r="AH495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -46675,7 +46171,6 @@
       <c r="AE496" s="4"/>
       <c r="AF496" s="4"/>
       <c r="AG496" s="4"/>
-      <c r="AH496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -46711,7 +46206,6 @@
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
       <c r="AG497" s="4"/>
-      <c r="AH497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -46747,7 +46241,6 @@
       <c r="AE498" s="4"/>
       <c r="AF498" s="4"/>
       <c r="AG498" s="4"/>
-      <c r="AH498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -46783,7 +46276,6 @@
       <c r="AE499" s="4"/>
       <c r="AF499" s="4"/>
       <c r="AG499" s="4"/>
-      <c r="AH499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -46819,7 +46311,6 @@
       <c r="AE500" s="4"/>
       <c r="AF500" s="4"/>
       <c r="AG500" s="4"/>
-      <c r="AH500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -46855,7 +46346,6 @@
       <c r="AE501" s="4"/>
       <c r="AF501" s="4"/>
       <c r="AG501" s="4"/>
-      <c r="AH501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -46891,7 +46381,6 @@
       <c r="AE502" s="4"/>
       <c r="AF502" s="4"/>
       <c r="AG502" s="4"/>
-      <c r="AH502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -46927,7 +46416,6 @@
       <c r="AE503" s="4"/>
       <c r="AF503" s="4"/>
       <c r="AG503" s="4"/>
-      <c r="AH503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -46963,7 +46451,6 @@
       <c r="AE504" s="4"/>
       <c r="AF504" s="4"/>
       <c r="AG504" s="4"/>
-      <c r="AH504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -46999,7 +46486,6 @@
       <c r="AE505" s="4"/>
       <c r="AF505" s="4"/>
       <c r="AG505" s="4"/>
-      <c r="AH505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -47035,7 +46521,6 @@
       <c r="AE506" s="4"/>
       <c r="AF506" s="4"/>
       <c r="AG506" s="4"/>
-      <c r="AH506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -47071,7 +46556,6 @@
       <c r="AE507" s="4"/>
       <c r="AF507" s="4"/>
       <c r="AG507" s="4"/>
-      <c r="AH507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -47107,7 +46591,6 @@
       <c r="AE508" s="4"/>
       <c r="AF508" s="4"/>
       <c r="AG508" s="4"/>
-      <c r="AH508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -47143,7 +46626,6 @@
       <c r="AE509" s="4"/>
       <c r="AF509" s="4"/>
       <c r="AG509" s="4"/>
-      <c r="AH509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -47179,7 +46661,6 @@
       <c r="AE510" s="4"/>
       <c r="AF510" s="4"/>
       <c r="AG510" s="4"/>
-      <c r="AH510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -47215,7 +46696,6 @@
       <c r="AE511" s="4"/>
       <c r="AF511" s="4"/>
       <c r="AG511" s="4"/>
-      <c r="AH511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -47251,7 +46731,6 @@
       <c r="AE512" s="4"/>
       <c r="AF512" s="4"/>
       <c r="AG512" s="4"/>
-      <c r="AH512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -47287,7 +46766,6 @@
       <c r="AE513" s="4"/>
       <c r="AF513" s="4"/>
       <c r="AG513" s="4"/>
-      <c r="AH513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -47323,7 +46801,6 @@
       <c r="AE514" s="4"/>
       <c r="AF514" s="4"/>
       <c r="AG514" s="4"/>
-      <c r="AH514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -47359,7 +46836,6 @@
       <c r="AE515" s="4"/>
       <c r="AF515" s="4"/>
       <c r="AG515" s="4"/>
-      <c r="AH515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -47395,7 +46871,6 @@
       <c r="AE516" s="4"/>
       <c r="AF516" s="4"/>
       <c r="AG516" s="4"/>
-      <c r="AH516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -47431,7 +46906,6 @@
       <c r="AE517" s="4"/>
       <c r="AF517" s="4"/>
       <c r="AG517" s="4"/>
-      <c r="AH517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -47467,7 +46941,6 @@
       <c r="AE518" s="4"/>
       <c r="AF518" s="4"/>
       <c r="AG518" s="4"/>
-      <c r="AH518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -47503,7 +46976,6 @@
       <c r="AE519" s="4"/>
       <c r="AF519" s="4"/>
       <c r="AG519" s="4"/>
-      <c r="AH519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -47539,7 +47011,6 @@
       <c r="AE520" s="4"/>
       <c r="AF520" s="4"/>
       <c r="AG520" s="4"/>
-      <c r="AH520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -47575,7 +47046,6 @@
       <c r="AE521" s="4"/>
       <c r="AF521" s="4"/>
       <c r="AG521" s="4"/>
-      <c r="AH521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -47611,7 +47081,6 @@
       <c r="AE522" s="4"/>
       <c r="AF522" s="4"/>
       <c r="AG522" s="4"/>
-      <c r="AH522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -47647,7 +47116,6 @@
       <c r="AE523" s="4"/>
       <c r="AF523" s="4"/>
       <c r="AG523" s="4"/>
-      <c r="AH523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -47683,7 +47151,6 @@
       <c r="AE524" s="4"/>
       <c r="AF524" s="4"/>
       <c r="AG524" s="4"/>
-      <c r="AH524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -47719,7 +47186,6 @@
       <c r="AE525" s="4"/>
       <c r="AF525" s="4"/>
       <c r="AG525" s="4"/>
-      <c r="AH525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -47755,7 +47221,6 @@
       <c r="AE526" s="4"/>
       <c r="AF526" s="4"/>
       <c r="AG526" s="4"/>
-      <c r="AH526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -47791,7 +47256,6 @@
       <c r="AE527" s="4"/>
       <c r="AF527" s="4"/>
       <c r="AG527" s="4"/>
-      <c r="AH527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -47827,7 +47291,6 @@
       <c r="AE528" s="4"/>
       <c r="AF528" s="4"/>
       <c r="AG528" s="4"/>
-      <c r="AH528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -47863,7 +47326,6 @@
       <c r="AE529" s="4"/>
       <c r="AF529" s="4"/>
       <c r="AG529" s="4"/>
-      <c r="AH529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -47899,7 +47361,6 @@
       <c r="AE530" s="4"/>
       <c r="AF530" s="4"/>
       <c r="AG530" s="4"/>
-      <c r="AH530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -47935,7 +47396,6 @@
       <c r="AE531" s="4"/>
       <c r="AF531" s="4"/>
       <c r="AG531" s="4"/>
-      <c r="AH531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -47971,7 +47431,6 @@
       <c r="AE532" s="4"/>
       <c r="AF532" s="4"/>
       <c r="AG532" s="4"/>
-      <c r="AH532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -48007,7 +47466,6 @@
       <c r="AE533" s="4"/>
       <c r="AF533" s="4"/>
       <c r="AG533" s="4"/>
-      <c r="AH533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -48043,7 +47501,6 @@
       <c r="AE534" s="4"/>
       <c r="AF534" s="4"/>
       <c r="AG534" s="4"/>
-      <c r="AH534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -48079,7 +47536,6 @@
       <c r="AE535" s="4"/>
       <c r="AF535" s="4"/>
       <c r="AG535" s="4"/>
-      <c r="AH535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -48115,7 +47571,6 @@
       <c r="AE536" s="4"/>
       <c r="AF536" s="4"/>
       <c r="AG536" s="4"/>
-      <c r="AH536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -48151,7 +47606,6 @@
       <c r="AE537" s="4"/>
       <c r="AF537" s="4"/>
       <c r="AG537" s="4"/>
-      <c r="AH537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -48187,7 +47641,6 @@
       <c r="AE538" s="4"/>
       <c r="AF538" s="4"/>
       <c r="AG538" s="4"/>
-      <c r="AH538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -48223,7 +47676,6 @@
       <c r="AE539" s="4"/>
       <c r="AF539" s="4"/>
       <c r="AG539" s="4"/>
-      <c r="AH539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -48259,7 +47711,6 @@
       <c r="AE540" s="4"/>
       <c r="AF540" s="4"/>
       <c r="AG540" s="4"/>
-      <c r="AH540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -48295,7 +47746,6 @@
       <c r="AE541" s="4"/>
       <c r="AF541" s="4"/>
       <c r="AG541" s="4"/>
-      <c r="AH541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -48331,7 +47781,6 @@
       <c r="AE542" s="4"/>
       <c r="AF542" s="4"/>
       <c r="AG542" s="4"/>
-      <c r="AH542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -48367,7 +47816,6 @@
       <c r="AE543" s="4"/>
       <c r="AF543" s="4"/>
       <c r="AG543" s="4"/>
-      <c r="AH543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -48403,7 +47851,6 @@
       <c r="AE544" s="4"/>
       <c r="AF544" s="4"/>
       <c r="AG544" s="4"/>
-      <c r="AH544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -48439,7 +47886,6 @@
       <c r="AE545" s="4"/>
       <c r="AF545" s="4"/>
       <c r="AG545" s="4"/>
-      <c r="AH545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -48475,7 +47921,6 @@
       <c r="AE546" s="4"/>
       <c r="AF546" s="4"/>
       <c r="AG546" s="4"/>
-      <c r="AH546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -48511,7 +47956,6 @@
       <c r="AE547" s="4"/>
       <c r="AF547" s="4"/>
       <c r="AG547" s="4"/>
-      <c r="AH547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -48547,7 +47991,6 @@
       <c r="AE548" s="4"/>
       <c r="AF548" s="4"/>
       <c r="AG548" s="4"/>
-      <c r="AH548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -48583,7 +48026,6 @@
       <c r="AE549" s="4"/>
       <c r="AF549" s="4"/>
       <c r="AG549" s="4"/>
-      <c r="AH549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -48619,7 +48061,6 @@
       <c r="AE550" s="4"/>
       <c r="AF550" s="4"/>
       <c r="AG550" s="4"/>
-      <c r="AH550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -48655,7 +48096,6 @@
       <c r="AE551" s="4"/>
       <c r="AF551" s="4"/>
       <c r="AG551" s="4"/>
-      <c r="AH551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -48691,7 +48131,6 @@
       <c r="AE552" s="4"/>
       <c r="AF552" s="4"/>
       <c r="AG552" s="4"/>
-      <c r="AH552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -48727,7 +48166,6 @@
       <c r="AE553" s="4"/>
       <c r="AF553" s="4"/>
       <c r="AG553" s="4"/>
-      <c r="AH553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -48763,7 +48201,6 @@
       <c r="AE554" s="4"/>
       <c r="AF554" s="4"/>
       <c r="AG554" s="4"/>
-      <c r="AH554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -48799,7 +48236,6 @@
       <c r="AE555" s="4"/>
       <c r="AF555" s="4"/>
       <c r="AG555" s="4"/>
-      <c r="AH555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -48835,7 +48271,6 @@
       <c r="AE556" s="4"/>
       <c r="AF556" s="4"/>
       <c r="AG556" s="4"/>
-      <c r="AH556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -48871,7 +48306,6 @@
       <c r="AE557" s="4"/>
       <c r="AF557" s="4"/>
       <c r="AG557" s="4"/>
-      <c r="AH557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -48907,7 +48341,6 @@
       <c r="AE558" s="4"/>
       <c r="AF558" s="4"/>
       <c r="AG558" s="4"/>
-      <c r="AH558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -48943,7 +48376,6 @@
       <c r="AE559" s="4"/>
       <c r="AF559" s="4"/>
       <c r="AG559" s="4"/>
-      <c r="AH559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -48979,7 +48411,6 @@
       <c r="AE560" s="4"/>
       <c r="AF560" s="4"/>
       <c r="AG560" s="4"/>
-      <c r="AH560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -49015,7 +48446,6 @@
       <c r="AE561" s="4"/>
       <c r="AF561" s="4"/>
       <c r="AG561" s="4"/>
-      <c r="AH561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -49051,7 +48481,6 @@
       <c r="AE562" s="4"/>
       <c r="AF562" s="4"/>
       <c r="AG562" s="4"/>
-      <c r="AH562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -49087,7 +48516,6 @@
       <c r="AE563" s="4"/>
       <c r="AF563" s="4"/>
       <c r="AG563" s="4"/>
-      <c r="AH563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -49123,7 +48551,6 @@
       <c r="AE564" s="4"/>
       <c r="AF564" s="4"/>
       <c r="AG564" s="4"/>
-      <c r="AH564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -49159,7 +48586,6 @@
       <c r="AE565" s="4"/>
       <c r="AF565" s="4"/>
       <c r="AG565" s="4"/>
-      <c r="AH565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -49195,7 +48621,6 @@
       <c r="AE566" s="4"/>
       <c r="AF566" s="4"/>
       <c r="AG566" s="4"/>
-      <c r="AH566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -49231,7 +48656,6 @@
       <c r="AE567" s="4"/>
       <c r="AF567" s="4"/>
       <c r="AG567" s="4"/>
-      <c r="AH567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -49267,7 +48691,6 @@
       <c r="AE568" s="4"/>
       <c r="AF568" s="4"/>
       <c r="AG568" s="4"/>
-      <c r="AH568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -49303,7 +48726,6 @@
       <c r="AE569" s="4"/>
       <c r="AF569" s="4"/>
       <c r="AG569" s="4"/>
-      <c r="AH569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -49339,7 +48761,6 @@
       <c r="AE570" s="4"/>
       <c r="AF570" s="4"/>
       <c r="AG570" s="4"/>
-      <c r="AH570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -49375,7 +48796,6 @@
       <c r="AE571" s="4"/>
       <c r="AF571" s="4"/>
       <c r="AG571" s="4"/>
-      <c r="AH571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -49411,7 +48831,6 @@
       <c r="AE572" s="4"/>
       <c r="AF572" s="4"/>
       <c r="AG572" s="4"/>
-      <c r="AH572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -49447,7 +48866,6 @@
       <c r="AE573" s="4"/>
       <c r="AF573" s="4"/>
       <c r="AG573" s="4"/>
-      <c r="AH573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -49483,7 +48901,6 @@
       <c r="AE574" s="4"/>
       <c r="AF574" s="4"/>
       <c r="AG574" s="4"/>
-      <c r="AH574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -49519,7 +48936,6 @@
       <c r="AE575" s="4"/>
       <c r="AF575" s="4"/>
       <c r="AG575" s="4"/>
-      <c r="AH575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -49555,7 +48971,6 @@
       <c r="AE576" s="4"/>
       <c r="AF576" s="4"/>
       <c r="AG576" s="4"/>
-      <c r="AH576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -49591,7 +49006,6 @@
       <c r="AE577" s="4"/>
       <c r="AF577" s="4"/>
       <c r="AG577" s="4"/>
-      <c r="AH577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -49627,7 +49041,6 @@
       <c r="AE578" s="4"/>
       <c r="AF578" s="4"/>
       <c r="AG578" s="4"/>
-      <c r="AH578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -49663,7 +49076,6 @@
       <c r="AE579" s="4"/>
       <c r="AF579" s="4"/>
       <c r="AG579" s="4"/>
-      <c r="AH579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -49699,7 +49111,6 @@
       <c r="AE580" s="4"/>
       <c r="AF580" s="4"/>
       <c r="AG580" s="4"/>
-      <c r="AH580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -49735,7 +49146,6 @@
       <c r="AE581" s="4"/>
       <c r="AF581" s="4"/>
       <c r="AG581" s="4"/>
-      <c r="AH581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -49771,7 +49181,6 @@
       <c r="AE582" s="4"/>
       <c r="AF582" s="4"/>
       <c r="AG582" s="4"/>
-      <c r="AH582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -49807,7 +49216,6 @@
       <c r="AE583" s="4"/>
       <c r="AF583" s="4"/>
       <c r="AG583" s="4"/>
-      <c r="AH583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -49843,7 +49251,6 @@
       <c r="AE584" s="4"/>
       <c r="AF584" s="4"/>
       <c r="AG584" s="4"/>
-      <c r="AH584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -49879,7 +49286,6 @@
       <c r="AE585" s="4"/>
       <c r="AF585" s="4"/>
       <c r="AG585" s="4"/>
-      <c r="AH585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -49915,7 +49321,6 @@
       <c r="AE586" s="4"/>
       <c r="AF586" s="4"/>
       <c r="AG586" s="4"/>
-      <c r="AH586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -49951,7 +49356,6 @@
       <c r="AE587" s="4"/>
       <c r="AF587" s="4"/>
       <c r="AG587" s="4"/>
-      <c r="AH587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -49987,7 +49391,6 @@
       <c r="AE588" s="4"/>
       <c r="AF588" s="4"/>
       <c r="AG588" s="4"/>
-      <c r="AH588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -50023,7 +49426,6 @@
       <c r="AE589" s="4"/>
       <c r="AF589" s="4"/>
       <c r="AG589" s="4"/>
-      <c r="AH589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -50059,7 +49461,6 @@
       <c r="AE590" s="4"/>
       <c r="AF590" s="4"/>
       <c r="AG590" s="4"/>
-      <c r="AH590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -50095,7 +49496,6 @@
       <c r="AE591" s="4"/>
       <c r="AF591" s="4"/>
       <c r="AG591" s="4"/>
-      <c r="AH591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -50131,7 +49531,6 @@
       <c r="AE592" s="4"/>
       <c r="AF592" s="4"/>
       <c r="AG592" s="4"/>
-      <c r="AH592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -50167,7 +49566,6 @@
       <c r="AE593" s="4"/>
       <c r="AF593" s="4"/>
       <c r="AG593" s="4"/>
-      <c r="AH593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -50203,7 +49601,6 @@
       <c r="AE594" s="4"/>
       <c r="AF594" s="4"/>
       <c r="AG594" s="4"/>
-      <c r="AH594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -50239,7 +49636,6 @@
       <c r="AE595" s="4"/>
       <c r="AF595" s="4"/>
       <c r="AG595" s="4"/>
-      <c r="AH595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -50275,7 +49671,6 @@
       <c r="AE596" s="4"/>
       <c r="AF596" s="4"/>
       <c r="AG596" s="4"/>
-      <c r="AH596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -50311,7 +49706,6 @@
       <c r="AE597" s="4"/>
       <c r="AF597" s="4"/>
       <c r="AG597" s="4"/>
-      <c r="AH597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -50347,7 +49741,6 @@
       <c r="AE598" s="4"/>
       <c r="AF598" s="4"/>
       <c r="AG598" s="4"/>
-      <c r="AH598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -50383,7 +49776,6 @@
       <c r="AE599" s="4"/>
       <c r="AF599" s="4"/>
       <c r="AG599" s="4"/>
-      <c r="AH599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -50419,7 +49811,6 @@
       <c r="AE600" s="4"/>
       <c r="AF600" s="4"/>
       <c r="AG600" s="4"/>
-      <c r="AH600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -50455,7 +49846,6 @@
       <c r="AE601" s="4"/>
       <c r="AF601" s="4"/>
       <c r="AG601" s="4"/>
-      <c r="AH601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -50491,7 +49881,6 @@
       <c r="AE602" s="4"/>
       <c r="AF602" s="4"/>
       <c r="AG602" s="4"/>
-      <c r="AH602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -50527,7 +49916,6 @@
       <c r="AE603" s="4"/>
       <c r="AF603" s="4"/>
       <c r="AG603" s="4"/>
-      <c r="AH603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -50563,7 +49951,6 @@
       <c r="AE604" s="4"/>
       <c r="AF604" s="4"/>
       <c r="AG604" s="4"/>
-      <c r="AH604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -50599,7 +49986,6 @@
       <c r="AE605" s="4"/>
       <c r="AF605" s="4"/>
       <c r="AG605" s="4"/>
-      <c r="AH605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -50635,7 +50021,6 @@
       <c r="AE606" s="4"/>
       <c r="AF606" s="4"/>
       <c r="AG606" s="4"/>
-      <c r="AH606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -50671,7 +50056,6 @@
       <c r="AE607" s="4"/>
       <c r="AF607" s="4"/>
       <c r="AG607" s="4"/>
-      <c r="AH607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -50707,7 +50091,6 @@
       <c r="AE608" s="4"/>
       <c r="AF608" s="4"/>
       <c r="AG608" s="4"/>
-      <c r="AH608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -50743,7 +50126,6 @@
       <c r="AE609" s="4"/>
       <c r="AF609" s="4"/>
       <c r="AG609" s="4"/>
-      <c r="AH609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -50779,7 +50161,6 @@
       <c r="AE610" s="4"/>
       <c r="AF610" s="4"/>
       <c r="AG610" s="4"/>
-      <c r="AH610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -50815,7 +50196,6 @@
       <c r="AE611" s="4"/>
       <c r="AF611" s="4"/>
       <c r="AG611" s="4"/>
-      <c r="AH611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -50851,7 +50231,6 @@
       <c r="AE612" s="4"/>
       <c r="AF612" s="4"/>
       <c r="AG612" s="4"/>
-      <c r="AH612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -50887,7 +50266,6 @@
       <c r="AE613" s="4"/>
       <c r="AF613" s="4"/>
       <c r="AG613" s="4"/>
-      <c r="AH613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -50923,7 +50301,6 @@
       <c r="AE614" s="4"/>
       <c r="AF614" s="4"/>
       <c r="AG614" s="4"/>
-      <c r="AH614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -50959,7 +50336,6 @@
       <c r="AE615" s="4"/>
       <c r="AF615" s="4"/>
       <c r="AG615" s="4"/>
-      <c r="AH615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -50995,7 +50371,6 @@
       <c r="AE616" s="4"/>
       <c r="AF616" s="4"/>
       <c r="AG616" s="4"/>
-      <c r="AH616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -51031,7 +50406,6 @@
       <c r="AE617" s="4"/>
       <c r="AF617" s="4"/>
       <c r="AG617" s="4"/>
-      <c r="AH617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -51067,7 +50441,6 @@
       <c r="AE618" s="4"/>
       <c r="AF618" s="4"/>
       <c r="AG618" s="4"/>
-      <c r="AH618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -51103,7 +50476,6 @@
       <c r="AE619" s="4"/>
       <c r="AF619" s="4"/>
       <c r="AG619" s="4"/>
-      <c r="AH619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -51139,7 +50511,6 @@
       <c r="AE620" s="4"/>
       <c r="AF620" s="4"/>
       <c r="AG620" s="4"/>
-      <c r="AH620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -51175,7 +50546,6 @@
       <c r="AE621" s="4"/>
       <c r="AF621" s="4"/>
       <c r="AG621" s="4"/>
-      <c r="AH621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -51211,7 +50581,6 @@
       <c r="AE622" s="4"/>
       <c r="AF622" s="4"/>
       <c r="AG622" s="4"/>
-      <c r="AH622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -51247,7 +50616,6 @@
       <c r="AE623" s="4"/>
       <c r="AF623" s="4"/>
       <c r="AG623" s="4"/>
-      <c r="AH623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -51283,7 +50651,6 @@
       <c r="AE624" s="4"/>
       <c r="AF624" s="4"/>
       <c r="AG624" s="4"/>
-      <c r="AH624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -51319,7 +50686,6 @@
       <c r="AE625" s="4"/>
       <c r="AF625" s="4"/>
       <c r="AG625" s="4"/>
-      <c r="AH625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -51355,7 +50721,6 @@
       <c r="AE626" s="4"/>
       <c r="AF626" s="4"/>
       <c r="AG626" s="4"/>
-      <c r="AH626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -51391,7 +50756,6 @@
       <c r="AE627" s="4"/>
       <c r="AF627" s="4"/>
       <c r="AG627" s="4"/>
-      <c r="AH627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -51427,7 +50791,6 @@
       <c r="AE628" s="4"/>
       <c r="AF628" s="4"/>
       <c r="AG628" s="4"/>
-      <c r="AH628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -51463,7 +50826,6 @@
       <c r="AE629" s="4"/>
       <c r="AF629" s="4"/>
       <c r="AG629" s="4"/>
-      <c r="AH629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -51499,7 +50861,6 @@
       <c r="AE630" s="4"/>
       <c r="AF630" s="4"/>
       <c r="AG630" s="4"/>
-      <c r="AH630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -51535,7 +50896,6 @@
       <c r="AE631" s="4"/>
       <c r="AF631" s="4"/>
       <c r="AG631" s="4"/>
-      <c r="AH631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -51571,7 +50931,6 @@
       <c r="AE632" s="4"/>
       <c r="AF632" s="4"/>
       <c r="AG632" s="4"/>
-      <c r="AH632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -51607,7 +50966,6 @@
       <c r="AE633" s="4"/>
       <c r="AF633" s="4"/>
       <c r="AG633" s="4"/>
-      <c r="AH633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -51643,7 +51001,6 @@
       <c r="AE634" s="4"/>
       <c r="AF634" s="4"/>
       <c r="AG634" s="4"/>
-      <c r="AH634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -51679,7 +51036,6 @@
       <c r="AE635" s="4"/>
       <c r="AF635" s="4"/>
       <c r="AG635" s="4"/>
-      <c r="AH635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -51715,7 +51071,6 @@
       <c r="AE636" s="4"/>
       <c r="AF636" s="4"/>
       <c r="AG636" s="4"/>
-      <c r="AH636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -51751,7 +51106,6 @@
       <c r="AE637" s="4"/>
       <c r="AF637" s="4"/>
       <c r="AG637" s="4"/>
-      <c r="AH637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -51787,7 +51141,6 @@
       <c r="AE638" s="4"/>
       <c r="AF638" s="4"/>
       <c r="AG638" s="4"/>
-      <c r="AH638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -51823,7 +51176,6 @@
       <c r="AE639" s="4"/>
       <c r="AF639" s="4"/>
       <c r="AG639" s="4"/>
-      <c r="AH639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -51859,7 +51211,6 @@
       <c r="AE640" s="4"/>
       <c r="AF640" s="4"/>
       <c r="AG640" s="4"/>
-      <c r="AH640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -51895,7 +51246,6 @@
       <c r="AE641" s="4"/>
       <c r="AF641" s="4"/>
       <c r="AG641" s="4"/>
-      <c r="AH641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -51931,7 +51281,6 @@
       <c r="AE642" s="4"/>
       <c r="AF642" s="4"/>
       <c r="AG642" s="4"/>
-      <c r="AH642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -51967,7 +51316,6 @@
       <c r="AE643" s="4"/>
       <c r="AF643" s="4"/>
       <c r="AG643" s="4"/>
-      <c r="AH643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -52003,7 +51351,6 @@
       <c r="AE644" s="4"/>
       <c r="AF644" s="4"/>
       <c r="AG644" s="4"/>
-      <c r="AH644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -52039,7 +51386,6 @@
       <c r="AE645" s="4"/>
       <c r="AF645" s="4"/>
       <c r="AG645" s="4"/>
-      <c r="AH645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -52075,7 +51421,6 @@
       <c r="AE646" s="4"/>
       <c r="AF646" s="4"/>
       <c r="AG646" s="4"/>
-      <c r="AH646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -52111,7 +51456,6 @@
       <c r="AE647" s="4"/>
       <c r="AF647" s="4"/>
       <c r="AG647" s="4"/>
-      <c r="AH647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -52147,7 +51491,6 @@
       <c r="AE648" s="4"/>
       <c r="AF648" s="4"/>
       <c r="AG648" s="4"/>
-      <c r="AH648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -52183,7 +51526,6 @@
       <c r="AE649" s="4"/>
       <c r="AF649" s="4"/>
       <c r="AG649" s="4"/>
-      <c r="AH649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -52219,7 +51561,6 @@
       <c r="AE650" s="4"/>
       <c r="AF650" s="4"/>
       <c r="AG650" s="4"/>
-      <c r="AH650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -52255,7 +51596,6 @@
       <c r="AE651" s="4"/>
       <c r="AF651" s="4"/>
       <c r="AG651" s="4"/>
-      <c r="AH651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -52291,7 +51631,6 @@
       <c r="AE652" s="4"/>
       <c r="AF652" s="4"/>
       <c r="AG652" s="4"/>
-      <c r="AH652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -52327,7 +51666,6 @@
       <c r="AE653" s="4"/>
       <c r="AF653" s="4"/>
       <c r="AG653" s="4"/>
-      <c r="AH653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -52363,7 +51701,6 @@
       <c r="AE654" s="4"/>
       <c r="AF654" s="4"/>
       <c r="AG654" s="4"/>
-      <c r="AH654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -52399,7 +51736,6 @@
       <c r="AE655" s="4"/>
       <c r="AF655" s="4"/>
       <c r="AG655" s="4"/>
-      <c r="AH655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -52435,7 +51771,6 @@
       <c r="AE656" s="4"/>
       <c r="AF656" s="4"/>
       <c r="AG656" s="4"/>
-      <c r="AH656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -52471,7 +51806,6 @@
       <c r="AE657" s="4"/>
       <c r="AF657" s="4"/>
       <c r="AG657" s="4"/>
-      <c r="AH657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -52507,7 +51841,6 @@
       <c r="AE658" s="4"/>
       <c r="AF658" s="4"/>
       <c r="AG658" s="4"/>
-      <c r="AH658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -52543,7 +51876,6 @@
       <c r="AE659" s="4"/>
       <c r="AF659" s="4"/>
       <c r="AG659" s="4"/>
-      <c r="AH659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -52579,7 +51911,6 @@
       <c r="AE660" s="4"/>
       <c r="AF660" s="4"/>
       <c r="AG660" s="4"/>
-      <c r="AH660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -52615,7 +51946,6 @@
       <c r="AE661" s="4"/>
       <c r="AF661" s="4"/>
       <c r="AG661" s="4"/>
-      <c r="AH661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -52651,7 +51981,6 @@
       <c r="AE662" s="4"/>
       <c r="AF662" s="4"/>
       <c r="AG662" s="4"/>
-      <c r="AH662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -52687,7 +52016,6 @@
       <c r="AE663" s="4"/>
       <c r="AF663" s="4"/>
       <c r="AG663" s="4"/>
-      <c r="AH663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -52723,7 +52051,6 @@
       <c r="AE664" s="4"/>
       <c r="AF664" s="4"/>
       <c r="AG664" s="4"/>
-      <c r="AH664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -52759,7 +52086,6 @@
       <c r="AE665" s="4"/>
       <c r="AF665" s="4"/>
       <c r="AG665" s="4"/>
-      <c r="AH665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -52795,7 +52121,6 @@
       <c r="AE666" s="4"/>
       <c r="AF666" s="4"/>
       <c r="AG666" s="4"/>
-      <c r="AH666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -52831,7 +52156,6 @@
       <c r="AE667" s="4"/>
       <c r="AF667" s="4"/>
       <c r="AG667" s="4"/>
-      <c r="AH667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -52867,7 +52191,6 @@
       <c r="AE668" s="4"/>
       <c r="AF668" s="4"/>
       <c r="AG668" s="4"/>
-      <c r="AH668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -52903,7 +52226,6 @@
       <c r="AE669" s="4"/>
       <c r="AF669" s="4"/>
       <c r="AG669" s="4"/>
-      <c r="AH669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -52939,7 +52261,6 @@
       <c r="AE670" s="4"/>
       <c r="AF670" s="4"/>
       <c r="AG670" s="4"/>
-      <c r="AH670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -52975,7 +52296,6 @@
       <c r="AE671" s="4"/>
       <c r="AF671" s="4"/>
       <c r="AG671" s="4"/>
-      <c r="AH671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -53011,7 +52331,6 @@
       <c r="AE672" s="4"/>
       <c r="AF672" s="4"/>
       <c r="AG672" s="4"/>
-      <c r="AH672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -53047,7 +52366,6 @@
       <c r="AE673" s="4"/>
       <c r="AF673" s="4"/>
       <c r="AG673" s="4"/>
-      <c r="AH673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -53083,7 +52401,6 @@
       <c r="AE674" s="4"/>
       <c r="AF674" s="4"/>
       <c r="AG674" s="4"/>
-      <c r="AH674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -53119,7 +52436,6 @@
       <c r="AE675" s="4"/>
       <c r="AF675" s="4"/>
       <c r="AG675" s="4"/>
-      <c r="AH675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -53155,7 +52471,6 @@
       <c r="AE676" s="4"/>
       <c r="AF676" s="4"/>
       <c r="AG676" s="4"/>
-      <c r="AH676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -53191,7 +52506,6 @@
       <c r="AE677" s="4"/>
       <c r="AF677" s="4"/>
       <c r="AG677" s="4"/>
-      <c r="AH677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -53227,7 +52541,6 @@
       <c r="AE678" s="4"/>
       <c r="AF678" s="4"/>
       <c r="AG678" s="4"/>
-      <c r="AH678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -53263,7 +52576,6 @@
       <c r="AE679" s="4"/>
       <c r="AF679" s="4"/>
       <c r="AG679" s="4"/>
-      <c r="AH679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -53299,7 +52611,6 @@
       <c r="AE680" s="4"/>
       <c r="AF680" s="4"/>
       <c r="AG680" s="4"/>
-      <c r="AH680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -53335,7 +52646,6 @@
       <c r="AE681" s="4"/>
       <c r="AF681" s="4"/>
       <c r="AG681" s="4"/>
-      <c r="AH681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -53371,7 +52681,6 @@
       <c r="AE682" s="4"/>
       <c r="AF682" s="4"/>
       <c r="AG682" s="4"/>
-      <c r="AH682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -53407,7 +52716,6 @@
       <c r="AE683" s="4"/>
       <c r="AF683" s="4"/>
       <c r="AG683" s="4"/>
-      <c r="AH683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -53443,7 +52751,6 @@
       <c r="AE684" s="4"/>
       <c r="AF684" s="4"/>
       <c r="AG684" s="4"/>
-      <c r="AH684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -53479,7 +52786,6 @@
       <c r="AE685" s="4"/>
       <c r="AF685" s="4"/>
       <c r="AG685" s="4"/>
-      <c r="AH685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -53515,7 +52821,6 @@
       <c r="AE686" s="4"/>
       <c r="AF686" s="4"/>
       <c r="AG686" s="4"/>
-      <c r="AH686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -53551,7 +52856,6 @@
       <c r="AE687" s="4"/>
       <c r="AF687" s="4"/>
       <c r="AG687" s="4"/>
-      <c r="AH687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -53587,7 +52891,6 @@
       <c r="AE688" s="4"/>
       <c r="AF688" s="4"/>
       <c r="AG688" s="4"/>
-      <c r="AH688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -53623,7 +52926,6 @@
       <c r="AE689" s="4"/>
       <c r="AF689" s="4"/>
       <c r="AG689" s="4"/>
-      <c r="AH689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -53659,7 +52961,6 @@
       <c r="AE690" s="4"/>
       <c r="AF690" s="4"/>
       <c r="AG690" s="4"/>
-      <c r="AH690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -53695,7 +52996,6 @@
       <c r="AE691" s="4"/>
       <c r="AF691" s="4"/>
       <c r="AG691" s="4"/>
-      <c r="AH691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -53731,7 +53031,6 @@
       <c r="AE692" s="4"/>
       <c r="AF692" s="4"/>
       <c r="AG692" s="4"/>
-      <c r="AH692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -53767,7 +53066,6 @@
       <c r="AE693" s="4"/>
       <c r="AF693" s="4"/>
       <c r="AG693" s="4"/>
-      <c r="AH693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -53803,7 +53101,6 @@
       <c r="AE694" s="4"/>
       <c r="AF694" s="4"/>
       <c r="AG694" s="4"/>
-      <c r="AH694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -53839,7 +53136,6 @@
       <c r="AE695" s="4"/>
       <c r="AF695" s="4"/>
       <c r="AG695" s="4"/>
-      <c r="AH695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -53875,7 +53171,6 @@
       <c r="AE696" s="4"/>
       <c r="AF696" s="4"/>
       <c r="AG696" s="4"/>
-      <c r="AH696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -53911,7 +53206,6 @@
       <c r="AE697" s="4"/>
       <c r="AF697" s="4"/>
       <c r="AG697" s="4"/>
-      <c r="AH697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -53947,7 +53241,6 @@
       <c r="AE698" s="4"/>
       <c r="AF698" s="4"/>
       <c r="AG698" s="4"/>
-      <c r="AH698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -53983,7 +53276,6 @@
       <c r="AE699" s="4"/>
       <c r="AF699" s="4"/>
       <c r="AG699" s="4"/>
-      <c r="AH699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -54019,7 +53311,6 @@
       <c r="AE700" s="4"/>
       <c r="AF700" s="4"/>
       <c r="AG700" s="4"/>
-      <c r="AH700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -54055,7 +53346,6 @@
       <c r="AE701" s="4"/>
       <c r="AF701" s="4"/>
       <c r="AG701" s="4"/>
-      <c r="AH701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -54091,7 +53381,6 @@
       <c r="AE702" s="4"/>
       <c r="AF702" s="4"/>
       <c r="AG702" s="4"/>
-      <c r="AH702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -54127,7 +53416,6 @@
       <c r="AE703" s="4"/>
       <c r="AF703" s="4"/>
       <c r="AG703" s="4"/>
-      <c r="AH703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -54163,7 +53451,6 @@
       <c r="AE704" s="4"/>
       <c r="AF704" s="4"/>
       <c r="AG704" s="4"/>
-      <c r="AH704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -54199,7 +53486,6 @@
       <c r="AE705" s="4"/>
       <c r="AF705" s="4"/>
       <c r="AG705" s="4"/>
-      <c r="AH705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -54235,7 +53521,6 @@
       <c r="AE706" s="4"/>
       <c r="AF706" s="4"/>
       <c r="AG706" s="4"/>
-      <c r="AH706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -54271,7 +53556,6 @@
       <c r="AE707" s="4"/>
       <c r="AF707" s="4"/>
       <c r="AG707" s="4"/>
-      <c r="AH707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -54307,7 +53591,6 @@
       <c r="AE708" s="4"/>
       <c r="AF708" s="4"/>
       <c r="AG708" s="4"/>
-      <c r="AH708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -54343,7 +53626,6 @@
       <c r="AE709" s="4"/>
       <c r="AF709" s="4"/>
       <c r="AG709" s="4"/>
-      <c r="AH709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -54379,7 +53661,6 @@
       <c r="AE710" s="4"/>
       <c r="AF710" s="4"/>
       <c r="AG710" s="4"/>
-      <c r="AH710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -54415,7 +53696,6 @@
       <c r="AE711" s="4"/>
       <c r="AF711" s="4"/>
       <c r="AG711" s="4"/>
-      <c r="AH711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -54451,7 +53731,6 @@
       <c r="AE712" s="4"/>
       <c r="AF712" s="4"/>
       <c r="AG712" s="4"/>
-      <c r="AH712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -54487,7 +53766,6 @@
       <c r="AE713" s="4"/>
       <c r="AF713" s="4"/>
       <c r="AG713" s="4"/>
-      <c r="AH713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -54523,7 +53801,6 @@
       <c r="AE714" s="4"/>
       <c r="AF714" s="4"/>
       <c r="AG714" s="4"/>
-      <c r="AH714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -54559,7 +53836,6 @@
       <c r="AE715" s="4"/>
       <c r="AF715" s="4"/>
       <c r="AG715" s="4"/>
-      <c r="AH715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -54595,7 +53871,6 @@
       <c r="AE716" s="4"/>
       <c r="AF716" s="4"/>
       <c r="AG716" s="4"/>
-      <c r="AH716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -54631,7 +53906,6 @@
       <c r="AE717" s="4"/>
       <c r="AF717" s="4"/>
       <c r="AG717" s="4"/>
-      <c r="AH717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -54667,7 +53941,6 @@
       <c r="AE718" s="4"/>
       <c r="AF718" s="4"/>
       <c r="AG718" s="4"/>
-      <c r="AH718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -54703,7 +53976,6 @@
       <c r="AE719" s="4"/>
       <c r="AF719" s="4"/>
       <c r="AG719" s="4"/>
-      <c r="AH719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -54739,7 +54011,6 @@
       <c r="AE720" s="4"/>
       <c r="AF720" s="4"/>
       <c r="AG720" s="4"/>
-      <c r="AH720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -54775,7 +54046,6 @@
       <c r="AE721" s="4"/>
       <c r="AF721" s="4"/>
       <c r="AG721" s="4"/>
-      <c r="AH721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -54811,7 +54081,6 @@
       <c r="AE722" s="4"/>
       <c r="AF722" s="4"/>
       <c r="AG722" s="4"/>
-      <c r="AH722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -54847,7 +54116,6 @@
       <c r="AE723" s="4"/>
       <c r="AF723" s="4"/>
       <c r="AG723" s="4"/>
-      <c r="AH723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -54883,7 +54151,6 @@
       <c r="AE724" s="4"/>
       <c r="AF724" s="4"/>
       <c r="AG724" s="4"/>
-      <c r="AH724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -54919,7 +54186,6 @@
       <c r="AE725" s="4"/>
       <c r="AF725" s="4"/>
       <c r="AG725" s="4"/>
-      <c r="AH725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -54955,7 +54221,6 @@
       <c r="AE726" s="4"/>
       <c r="AF726" s="4"/>
       <c r="AG726" s="4"/>
-      <c r="AH726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -54991,7 +54256,6 @@
       <c r="AE727" s="4"/>
       <c r="AF727" s="4"/>
       <c r="AG727" s="4"/>
-      <c r="AH727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -55027,7 +54291,6 @@
       <c r="AE728" s="4"/>
       <c r="AF728" s="4"/>
       <c r="AG728" s="4"/>
-      <c r="AH728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -55063,7 +54326,6 @@
       <c r="AE729" s="4"/>
       <c r="AF729" s="4"/>
       <c r="AG729" s="4"/>
-      <c r="AH729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -55099,7 +54361,6 @@
       <c r="AE730" s="4"/>
       <c r="AF730" s="4"/>
       <c r="AG730" s="4"/>
-      <c r="AH730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -55135,7 +54396,6 @@
       <c r="AE731" s="4"/>
       <c r="AF731" s="4"/>
       <c r="AG731" s="4"/>
-      <c r="AH731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -55171,7 +54431,6 @@
       <c r="AE732" s="4"/>
       <c r="AF732" s="4"/>
       <c r="AG732" s="4"/>
-      <c r="AH732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -55207,7 +54466,6 @@
       <c r="AE733" s="4"/>
       <c r="AF733" s="4"/>
       <c r="AG733" s="4"/>
-      <c r="AH733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -55243,7 +54501,6 @@
       <c r="AE734" s="4"/>
       <c r="AF734" s="4"/>
       <c r="AG734" s="4"/>
-      <c r="AH734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -55279,7 +54536,6 @@
       <c r="AE735" s="4"/>
       <c r="AF735" s="4"/>
       <c r="AG735" s="4"/>
-      <c r="AH735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -55315,7 +54571,6 @@
       <c r="AE736" s="4"/>
       <c r="AF736" s="4"/>
       <c r="AG736" s="4"/>
-      <c r="AH736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -55351,7 +54606,6 @@
       <c r="AE737" s="4"/>
       <c r="AF737" s="4"/>
       <c r="AG737" s="4"/>
-      <c r="AH737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -55387,7 +54641,6 @@
       <c r="AE738" s="4"/>
       <c r="AF738" s="4"/>
       <c r="AG738" s="4"/>
-      <c r="AH738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -55423,7 +54676,6 @@
       <c r="AE739" s="4"/>
       <c r="AF739" s="4"/>
       <c r="AG739" s="4"/>
-      <c r="AH739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -55459,7 +54711,6 @@
       <c r="AE740" s="4"/>
       <c r="AF740" s="4"/>
       <c r="AG740" s="4"/>
-      <c r="AH740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -55495,7 +54746,6 @@
       <c r="AE741" s="4"/>
       <c r="AF741" s="4"/>
       <c r="AG741" s="4"/>
-      <c r="AH741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -55531,7 +54781,6 @@
       <c r="AE742" s="4"/>
       <c r="AF742" s="4"/>
       <c r="AG742" s="4"/>
-      <c r="AH742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -55567,7 +54816,6 @@
       <c r="AE743" s="4"/>
       <c r="AF743" s="4"/>
       <c r="AG743" s="4"/>
-      <c r="AH743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -55603,7 +54851,6 @@
       <c r="AE744" s="4"/>
       <c r="AF744" s="4"/>
       <c r="AG744" s="4"/>
-      <c r="AH744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -55639,7 +54886,6 @@
       <c r="AE745" s="4"/>
       <c r="AF745" s="4"/>
       <c r="AG745" s="4"/>
-      <c r="AH745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -55675,7 +54921,6 @@
       <c r="AE746" s="4"/>
       <c r="AF746" s="4"/>
       <c r="AG746" s="4"/>
-      <c r="AH746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -55711,7 +54956,6 @@
       <c r="AE747" s="4"/>
       <c r="AF747" s="4"/>
       <c r="AG747" s="4"/>
-      <c r="AH747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -55747,7 +54991,6 @@
       <c r="AE748" s="4"/>
       <c r="AF748" s="4"/>
       <c r="AG748" s="4"/>
-      <c r="AH748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -55783,7 +55026,6 @@
       <c r="AE749" s="4"/>
       <c r="AF749" s="4"/>
       <c r="AG749" s="4"/>
-      <c r="AH749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -55819,7 +55061,6 @@
       <c r="AE750" s="4"/>
       <c r="AF750" s="4"/>
       <c r="AG750" s="4"/>
-      <c r="AH750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -55855,7 +55096,6 @@
       <c r="AE751" s="4"/>
       <c r="AF751" s="4"/>
       <c r="AG751" s="4"/>
-      <c r="AH751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -55891,7 +55131,6 @@
       <c r="AE752" s="4"/>
       <c r="AF752" s="4"/>
       <c r="AG752" s="4"/>
-      <c r="AH752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -55927,7 +55166,6 @@
       <c r="AE753" s="4"/>
       <c r="AF753" s="4"/>
       <c r="AG753" s="4"/>
-      <c r="AH753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -55963,7 +55201,6 @@
       <c r="AE754" s="4"/>
       <c r="AF754" s="4"/>
       <c r="AG754" s="4"/>
-      <c r="AH754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -55999,7 +55236,6 @@
       <c r="AE755" s="4"/>
       <c r="AF755" s="4"/>
       <c r="AG755" s="4"/>
-      <c r="AH755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -56035,7 +55271,6 @@
       <c r="AE756" s="4"/>
       <c r="AF756" s="4"/>
       <c r="AG756" s="4"/>
-      <c r="AH756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -56071,7 +55306,6 @@
       <c r="AE757" s="4"/>
       <c r="AF757" s="4"/>
       <c r="AG757" s="4"/>
-      <c r="AH757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -56107,7 +55341,6 @@
       <c r="AE758" s="4"/>
       <c r="AF758" s="4"/>
       <c r="AG758" s="4"/>
-      <c r="AH758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -56143,7 +55376,6 @@
       <c r="AE759" s="4"/>
       <c r="AF759" s="4"/>
       <c r="AG759" s="4"/>
-      <c r="AH759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -56179,7 +55411,6 @@
       <c r="AE760" s="4"/>
       <c r="AF760" s="4"/>
       <c r="AG760" s="4"/>
-      <c r="AH760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -56215,7 +55446,6 @@
       <c r="AE761" s="4"/>
       <c r="AF761" s="4"/>
       <c r="AG761" s="4"/>
-      <c r="AH761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -56251,7 +55481,6 @@
       <c r="AE762" s="4"/>
       <c r="AF762" s="4"/>
       <c r="AG762" s="4"/>
-      <c r="AH762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -56287,7 +55516,6 @@
       <c r="AE763" s="4"/>
       <c r="AF763" s="4"/>
       <c r="AG763" s="4"/>
-      <c r="AH763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -56323,7 +55551,6 @@
       <c r="AE764" s="4"/>
       <c r="AF764" s="4"/>
       <c r="AG764" s="4"/>
-      <c r="AH764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -56359,7 +55586,6 @@
       <c r="AE765" s="4"/>
       <c r="AF765" s="4"/>
       <c r="AG765" s="4"/>
-      <c r="AH765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -56395,7 +55621,6 @@
       <c r="AE766" s="4"/>
       <c r="AF766" s="4"/>
       <c r="AG766" s="4"/>
-      <c r="AH766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -56431,7 +55656,6 @@
       <c r="AE767" s="4"/>
       <c r="AF767" s="4"/>
       <c r="AG767" s="4"/>
-      <c r="AH767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -56467,7 +55691,6 @@
       <c r="AE768" s="4"/>
       <c r="AF768" s="4"/>
       <c r="AG768" s="4"/>
-      <c r="AH768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -56503,7 +55726,6 @@
       <c r="AE769" s="4"/>
       <c r="AF769" s="4"/>
       <c r="AG769" s="4"/>
-      <c r="AH769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -56539,7 +55761,6 @@
       <c r="AE770" s="4"/>
       <c r="AF770" s="4"/>
       <c r="AG770" s="4"/>
-      <c r="AH770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -56575,7 +55796,6 @@
       <c r="AE771" s="4"/>
       <c r="AF771" s="4"/>
       <c r="AG771" s="4"/>
-      <c r="AH771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -56611,7 +55831,6 @@
       <c r="AE772" s="4"/>
       <c r="AF772" s="4"/>
       <c r="AG772" s="4"/>
-      <c r="AH772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -56647,7 +55866,6 @@
       <c r="AE773" s="4"/>
       <c r="AF773" s="4"/>
       <c r="AG773" s="4"/>
-      <c r="AH773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -56683,7 +55901,6 @@
       <c r="AE774" s="4"/>
       <c r="AF774" s="4"/>
       <c r="AG774" s="4"/>
-      <c r="AH774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -56719,7 +55936,6 @@
       <c r="AE775" s="4"/>
       <c r="AF775" s="4"/>
       <c r="AG775" s="4"/>
-      <c r="AH775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -56755,7 +55971,6 @@
       <c r="AE776" s="4"/>
       <c r="AF776" s="4"/>
       <c r="AG776" s="4"/>
-      <c r="AH776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -56791,7 +56006,6 @@
       <c r="AE777" s="4"/>
       <c r="AF777" s="4"/>
       <c r="AG777" s="4"/>
-      <c r="AH777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -56827,7 +56041,6 @@
       <c r="AE778" s="4"/>
       <c r="AF778" s="4"/>
       <c r="AG778" s="4"/>
-      <c r="AH778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -56863,7 +56076,6 @@
       <c r="AE779" s="4"/>
       <c r="AF779" s="4"/>
       <c r="AG779" s="4"/>
-      <c r="AH779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -56899,7 +56111,6 @@
       <c r="AE780" s="4"/>
       <c r="AF780" s="4"/>
       <c r="AG780" s="4"/>
-      <c r="AH780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -56935,7 +56146,6 @@
       <c r="AE781" s="4"/>
       <c r="AF781" s="4"/>
       <c r="AG781" s="4"/>
-      <c r="AH781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -56971,7 +56181,6 @@
       <c r="AE782" s="4"/>
       <c r="AF782" s="4"/>
       <c r="AG782" s="4"/>
-      <c r="AH782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -57007,7 +56216,6 @@
       <c r="AE783" s="4"/>
       <c r="AF783" s="4"/>
       <c r="AG783" s="4"/>
-      <c r="AH783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -57043,7 +56251,6 @@
       <c r="AE784" s="4"/>
       <c r="AF784" s="4"/>
       <c r="AG784" s="4"/>
-      <c r="AH784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -57079,7 +56286,6 @@
       <c r="AE785" s="4"/>
       <c r="AF785" s="4"/>
       <c r="AG785" s="4"/>
-      <c r="AH785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -57115,7 +56321,6 @@
       <c r="AE786" s="4"/>
       <c r="AF786" s="4"/>
       <c r="AG786" s="4"/>
-      <c r="AH786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -57151,7 +56356,6 @@
       <c r="AE787" s="4"/>
       <c r="AF787" s="4"/>
       <c r="AG787" s="4"/>
-      <c r="AH787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -57187,7 +56391,6 @@
       <c r="AE788" s="4"/>
       <c r="AF788" s="4"/>
       <c r="AG788" s="4"/>
-      <c r="AH788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -57223,7 +56426,6 @@
       <c r="AE789" s="4"/>
       <c r="AF789" s="4"/>
       <c r="AG789" s="4"/>
-      <c r="AH789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -57259,7 +56461,6 @@
       <c r="AE790" s="4"/>
       <c r="AF790" s="4"/>
       <c r="AG790" s="4"/>
-      <c r="AH790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -57295,7 +56496,6 @@
       <c r="AE791" s="4"/>
       <c r="AF791" s="4"/>
       <c r="AG791" s="4"/>
-      <c r="AH791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -57331,7 +56531,6 @@
       <c r="AE792" s="4"/>
       <c r="AF792" s="4"/>
       <c r="AG792" s="4"/>
-      <c r="AH792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -57367,7 +56566,6 @@
       <c r="AE793" s="4"/>
       <c r="AF793" s="4"/>
       <c r="AG793" s="4"/>
-      <c r="AH793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -57403,7 +56601,6 @@
       <c r="AE794" s="4"/>
       <c r="AF794" s="4"/>
       <c r="AG794" s="4"/>
-      <c r="AH794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -57439,7 +56636,6 @@
       <c r="AE795" s="4"/>
       <c r="AF795" s="4"/>
       <c r="AG795" s="4"/>
-      <c r="AH795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -57475,7 +56671,6 @@
       <c r="AE796" s="4"/>
       <c r="AF796" s="4"/>
       <c r="AG796" s="4"/>
-      <c r="AH796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -57511,7 +56706,6 @@
       <c r="AE797" s="4"/>
       <c r="AF797" s="4"/>
       <c r="AG797" s="4"/>
-      <c r="AH797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -57547,7 +56741,6 @@
       <c r="AE798" s="4"/>
       <c r="AF798" s="4"/>
       <c r="AG798" s="4"/>
-      <c r="AH798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -57583,7 +56776,6 @@
       <c r="AE799" s="4"/>
       <c r="AF799" s="4"/>
       <c r="AG799" s="4"/>
-      <c r="AH799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -57619,7 +56811,6 @@
       <c r="AE800" s="4"/>
       <c r="AF800" s="4"/>
       <c r="AG800" s="4"/>
-      <c r="AH800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -57655,7 +56846,6 @@
       <c r="AE801" s="4"/>
       <c r="AF801" s="4"/>
       <c r="AG801" s="4"/>
-      <c r="AH801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -57691,7 +56881,6 @@
       <c r="AE802" s="4"/>
       <c r="AF802" s="4"/>
       <c r="AG802" s="4"/>
-      <c r="AH802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -57727,7 +56916,6 @@
       <c r="AE803" s="4"/>
       <c r="AF803" s="4"/>
       <c r="AG803" s="4"/>
-      <c r="AH803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -57763,7 +56951,6 @@
       <c r="AE804" s="4"/>
       <c r="AF804" s="4"/>
       <c r="AG804" s="4"/>
-      <c r="AH804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -57799,7 +56986,6 @@
       <c r="AE805" s="4"/>
       <c r="AF805" s="4"/>
       <c r="AG805" s="4"/>
-      <c r="AH805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -57835,7 +57021,6 @@
       <c r="AE806" s="4"/>
       <c r="AF806" s="4"/>
       <c r="AG806" s="4"/>
-      <c r="AH806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -57871,7 +57056,6 @@
       <c r="AE807" s="4"/>
       <c r="AF807" s="4"/>
       <c r="AG807" s="4"/>
-      <c r="AH807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -57907,7 +57091,6 @@
       <c r="AE808" s="4"/>
       <c r="AF808" s="4"/>
       <c r="AG808" s="4"/>
-      <c r="AH808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -57943,7 +57126,6 @@
       <c r="AE809" s="4"/>
       <c r="AF809" s="4"/>
       <c r="AG809" s="4"/>
-      <c r="AH809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -57979,7 +57161,6 @@
       <c r="AE810" s="4"/>
       <c r="AF810" s="4"/>
       <c r="AG810" s="4"/>
-      <c r="AH810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -58015,7 +57196,6 @@
       <c r="AE811" s="4"/>
       <c r="AF811" s="4"/>
       <c r="AG811" s="4"/>
-      <c r="AH811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -58051,7 +57231,6 @@
       <c r="AE812" s="4"/>
       <c r="AF812" s="4"/>
       <c r="AG812" s="4"/>
-      <c r="AH812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -58087,7 +57266,6 @@
       <c r="AE813" s="4"/>
       <c r="AF813" s="4"/>
       <c r="AG813" s="4"/>
-      <c r="AH813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -58123,7 +57301,6 @@
       <c r="AE814" s="4"/>
       <c r="AF814" s="4"/>
       <c r="AG814" s="4"/>
-      <c r="AH814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -58159,7 +57336,6 @@
       <c r="AE815" s="4"/>
       <c r="AF815" s="4"/>
       <c r="AG815" s="4"/>
-      <c r="AH815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -58195,7 +57371,6 @@
       <c r="AE816" s="4"/>
       <c r="AF816" s="4"/>
       <c r="AG816" s="4"/>
-      <c r="AH816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -58231,7 +57406,6 @@
       <c r="AE817" s="4"/>
       <c r="AF817" s="4"/>
       <c r="AG817" s="4"/>
-      <c r="AH817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -58267,7 +57441,6 @@
       <c r="AE818" s="4"/>
       <c r="AF818" s="4"/>
       <c r="AG818" s="4"/>
-      <c r="AH818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -58303,7 +57476,6 @@
       <c r="AE819" s="4"/>
       <c r="AF819" s="4"/>
       <c r="AG819" s="4"/>
-      <c r="AH819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -58339,7 +57511,6 @@
       <c r="AE820" s="4"/>
       <c r="AF820" s="4"/>
       <c r="AG820" s="4"/>
-      <c r="AH820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -58375,7 +57546,6 @@
       <c r="AE821" s="4"/>
       <c r="AF821" s="4"/>
       <c r="AG821" s="4"/>
-      <c r="AH821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -58411,7 +57581,6 @@
       <c r="AE822" s="4"/>
       <c r="AF822" s="4"/>
       <c r="AG822" s="4"/>
-      <c r="AH822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -58447,7 +57616,6 @@
       <c r="AE823" s="4"/>
       <c r="AF823" s="4"/>
       <c r="AG823" s="4"/>
-      <c r="AH823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -58483,7 +57651,6 @@
       <c r="AE824" s="4"/>
       <c r="AF824" s="4"/>
       <c r="AG824" s="4"/>
-      <c r="AH824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -58519,7 +57686,6 @@
       <c r="AE825" s="4"/>
       <c r="AF825" s="4"/>
       <c r="AG825" s="4"/>
-      <c r="AH825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -58555,7 +57721,6 @@
       <c r="AE826" s="4"/>
       <c r="AF826" s="4"/>
       <c r="AG826" s="4"/>
-      <c r="AH826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -58591,7 +57756,6 @@
       <c r="AE827" s="4"/>
       <c r="AF827" s="4"/>
       <c r="AG827" s="4"/>
-      <c r="AH827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -58627,7 +57791,6 @@
       <c r="AE828" s="4"/>
       <c r="AF828" s="4"/>
       <c r="AG828" s="4"/>
-      <c r="AH828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -58663,7 +57826,6 @@
       <c r="AE829" s="4"/>
       <c r="AF829" s="4"/>
       <c r="AG829" s="4"/>
-      <c r="AH829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -58699,7 +57861,6 @@
       <c r="AE830" s="4"/>
       <c r="AF830" s="4"/>
       <c r="AG830" s="4"/>
-      <c r="AH830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -58735,7 +57896,6 @@
       <c r="AE831" s="4"/>
       <c r="AF831" s="4"/>
       <c r="AG831" s="4"/>
-      <c r="AH831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -58771,7 +57931,6 @@
       <c r="AE832" s="4"/>
       <c r="AF832" s="4"/>
       <c r="AG832" s="4"/>
-      <c r="AH832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -58807,7 +57966,6 @@
       <c r="AE833" s="4"/>
       <c r="AF833" s="4"/>
       <c r="AG833" s="4"/>
-      <c r="AH833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -58843,7 +58001,6 @@
       <c r="AE834" s="4"/>
       <c r="AF834" s="4"/>
       <c r="AG834" s="4"/>
-      <c r="AH834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -58879,7 +58036,6 @@
       <c r="AE835" s="4"/>
       <c r="AF835" s="4"/>
       <c r="AG835" s="4"/>
-      <c r="AH835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -58915,7 +58071,6 @@
       <c r="AE836" s="4"/>
       <c r="AF836" s="4"/>
       <c r="AG836" s="4"/>
-      <c r="AH836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -58951,7 +58106,6 @@
       <c r="AE837" s="4"/>
       <c r="AF837" s="4"/>
       <c r="AG837" s="4"/>
-      <c r="AH837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -58987,7 +58141,6 @@
       <c r="AE838" s="4"/>
       <c r="AF838" s="4"/>
       <c r="AG838" s="4"/>
-      <c r="AH838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -59023,7 +58176,6 @@
       <c r="AE839" s="4"/>
       <c r="AF839" s="4"/>
       <c r="AG839" s="4"/>
-      <c r="AH839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -59059,7 +58211,6 @@
       <c r="AE840" s="4"/>
       <c r="AF840" s="4"/>
       <c r="AG840" s="4"/>
-      <c r="AH840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -59095,7 +58246,6 @@
       <c r="AE841" s="4"/>
       <c r="AF841" s="4"/>
       <c r="AG841" s="4"/>
-      <c r="AH841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -59131,7 +58281,6 @@
       <c r="AE842" s="4"/>
       <c r="AF842" s="4"/>
       <c r="AG842" s="4"/>
-      <c r="AH842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -59167,7 +58316,6 @@
       <c r="AE843" s="4"/>
       <c r="AF843" s="4"/>
       <c r="AG843" s="4"/>
-      <c r="AH843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -59203,7 +58351,6 @@
       <c r="AE844" s="4"/>
       <c r="AF844" s="4"/>
       <c r="AG844" s="4"/>
-      <c r="AH844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -59239,7 +58386,6 @@
       <c r="AE845" s="4"/>
       <c r="AF845" s="4"/>
       <c r="AG845" s="4"/>
-      <c r="AH845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -59275,7 +58421,6 @@
       <c r="AE846" s="4"/>
       <c r="AF846" s="4"/>
       <c r="AG846" s="4"/>
-      <c r="AH846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -59311,7 +58456,6 @@
       <c r="AE847" s="4"/>
       <c r="AF847" s="4"/>
       <c r="AG847" s="4"/>
-      <c r="AH847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -59347,7 +58491,6 @@
       <c r="AE848" s="4"/>
       <c r="AF848" s="4"/>
       <c r="AG848" s="4"/>
-      <c r="AH848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -59383,7 +58526,6 @@
       <c r="AE849" s="4"/>
       <c r="AF849" s="4"/>
       <c r="AG849" s="4"/>
-      <c r="AH849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -59419,7 +58561,6 @@
       <c r="AE850" s="4"/>
       <c r="AF850" s="4"/>
       <c r="AG850" s="4"/>
-      <c r="AH850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -59455,7 +58596,6 @@
       <c r="AE851" s="4"/>
       <c r="AF851" s="4"/>
       <c r="AG851" s="4"/>
-      <c r="AH851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -59491,7 +58631,6 @@
       <c r="AE852" s="4"/>
       <c r="AF852" s="4"/>
       <c r="AG852" s="4"/>
-      <c r="AH852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -59527,7 +58666,6 @@
       <c r="AE853" s="4"/>
       <c r="AF853" s="4"/>
       <c r="AG853" s="4"/>
-      <c r="AH853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -59563,7 +58701,6 @@
       <c r="AE854" s="4"/>
       <c r="AF854" s="4"/>
       <c r="AG854" s="4"/>
-      <c r="AH854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -59599,7 +58736,6 @@
       <c r="AE855" s="4"/>
       <c r="AF855" s="4"/>
       <c r="AG855" s="4"/>
-      <c r="AH855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -59635,7 +58771,6 @@
       <c r="AE856" s="4"/>
       <c r="AF856" s="4"/>
       <c r="AG856" s="4"/>
-      <c r="AH856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -59671,7 +58806,6 @@
       <c r="AE857" s="4"/>
       <c r="AF857" s="4"/>
       <c r="AG857" s="4"/>
-      <c r="AH857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -59707,7 +58841,6 @@
       <c r="AE858" s="4"/>
       <c r="AF858" s="4"/>
       <c r="AG858" s="4"/>
-      <c r="AH858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -59743,7 +58876,6 @@
       <c r="AE859" s="4"/>
       <c r="AF859" s="4"/>
       <c r="AG859" s="4"/>
-      <c r="AH859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -59779,7 +58911,6 @@
       <c r="AE860" s="4"/>
       <c r="AF860" s="4"/>
       <c r="AG860" s="4"/>
-      <c r="AH860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -59815,7 +58946,6 @@
       <c r="AE861" s="4"/>
       <c r="AF861" s="4"/>
       <c r="AG861" s="4"/>
-      <c r="AH861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -59851,7 +58981,6 @@
       <c r="AE862" s="4"/>
       <c r="AF862" s="4"/>
       <c r="AG862" s="4"/>
-      <c r="AH862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -59887,7 +59016,6 @@
       <c r="AE863" s="4"/>
       <c r="AF863" s="4"/>
       <c r="AG863" s="4"/>
-      <c r="AH863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -59923,7 +59051,6 @@
       <c r="AE864" s="4"/>
       <c r="AF864" s="4"/>
       <c r="AG864" s="4"/>
-      <c r="AH864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -59959,7 +59086,6 @@
       <c r="AE865" s="4"/>
       <c r="AF865" s="4"/>
       <c r="AG865" s="4"/>
-      <c r="AH865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -59995,7 +59121,6 @@
       <c r="AE866" s="4"/>
       <c r="AF866" s="4"/>
       <c r="AG866" s="4"/>
-      <c r="AH866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -60031,7 +59156,6 @@
       <c r="AE867" s="4"/>
       <c r="AF867" s="4"/>
       <c r="AG867" s="4"/>
-      <c r="AH867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -60067,7 +59191,6 @@
       <c r="AE868" s="4"/>
       <c r="AF868" s="4"/>
       <c r="AG868" s="4"/>
-      <c r="AH868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -60103,7 +59226,6 @@
       <c r="AE869" s="4"/>
       <c r="AF869" s="4"/>
       <c r="AG869" s="4"/>
-      <c r="AH869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -60139,7 +59261,6 @@
       <c r="AE870" s="4"/>
       <c r="AF870" s="4"/>
       <c r="AG870" s="4"/>
-      <c r="AH870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -60175,7 +59296,6 @@
       <c r="AE871" s="4"/>
       <c r="AF871" s="4"/>
       <c r="AG871" s="4"/>
-      <c r="AH871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -60211,7 +59331,6 @@
       <c r="AE872" s="4"/>
       <c r="AF872" s="4"/>
       <c r="AG872" s="4"/>
-      <c r="AH872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -60247,7 +59366,6 @@
       <c r="AE873" s="4"/>
       <c r="AF873" s="4"/>
       <c r="AG873" s="4"/>
-      <c r="AH873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -60283,7 +59401,6 @@
       <c r="AE874" s="4"/>
       <c r="AF874" s="4"/>
       <c r="AG874" s="4"/>
-      <c r="AH874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -60319,7 +59436,6 @@
       <c r="AE875" s="4"/>
       <c r="AF875" s="4"/>
       <c r="AG875" s="4"/>
-      <c r="AH875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -60355,7 +59471,6 @@
       <c r="AE876" s="4"/>
       <c r="AF876" s="4"/>
       <c r="AG876" s="4"/>
-      <c r="AH876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -60391,7 +59506,6 @@
       <c r="AE877" s="4"/>
       <c r="AF877" s="4"/>
       <c r="AG877" s="4"/>
-      <c r="AH877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -60427,7 +59541,6 @@
       <c r="AE878" s="4"/>
       <c r="AF878" s="4"/>
       <c r="AG878" s="4"/>
-      <c r="AH878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -60463,7 +59576,6 @@
       <c r="AE879" s="4"/>
       <c r="AF879" s="4"/>
       <c r="AG879" s="4"/>
-      <c r="AH879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -60499,7 +59611,6 @@
       <c r="AE880" s="4"/>
       <c r="AF880" s="4"/>
       <c r="AG880" s="4"/>
-      <c r="AH880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -60535,7 +59646,6 @@
       <c r="AE881" s="4"/>
       <c r="AF881" s="4"/>
       <c r="AG881" s="4"/>
-      <c r="AH881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -60571,7 +59681,6 @@
       <c r="AE882" s="4"/>
       <c r="AF882" s="4"/>
       <c r="AG882" s="4"/>
-      <c r="AH882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -60607,7 +59716,6 @@
       <c r="AE883" s="4"/>
       <c r="AF883" s="4"/>
       <c r="AG883" s="4"/>
-      <c r="AH883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -60643,7 +59751,6 @@
       <c r="AE884" s="4"/>
       <c r="AF884" s="4"/>
       <c r="AG884" s="4"/>
-      <c r="AH884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -60679,7 +59786,6 @@
       <c r="AE885" s="4"/>
       <c r="AF885" s="4"/>
       <c r="AG885" s="4"/>
-      <c r="AH885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -60715,7 +59821,6 @@
       <c r="AE886" s="4"/>
       <c r="AF886" s="4"/>
       <c r="AG886" s="4"/>
-      <c r="AH886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -60751,7 +59856,6 @@
       <c r="AE887" s="4"/>
       <c r="AF887" s="4"/>
       <c r="AG887" s="4"/>
-      <c r="AH887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -60787,7 +59891,6 @@
       <c r="AE888" s="4"/>
       <c r="AF888" s="4"/>
       <c r="AG888" s="4"/>
-      <c r="AH888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -60823,7 +59926,6 @@
       <c r="AE889" s="4"/>
       <c r="AF889" s="4"/>
       <c r="AG889" s="4"/>
-      <c r="AH889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -60859,7 +59961,6 @@
       <c r="AE890" s="4"/>
       <c r="AF890" s="4"/>
       <c r="AG890" s="4"/>
-      <c r="AH890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -60895,7 +59996,6 @@
       <c r="AE891" s="4"/>
       <c r="AF891" s="4"/>
       <c r="AG891" s="4"/>
-      <c r="AH891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -60931,7 +60031,6 @@
       <c r="AE892" s="4"/>
       <c r="AF892" s="4"/>
       <c r="AG892" s="4"/>
-      <c r="AH892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -60967,7 +60066,6 @@
       <c r="AE893" s="4"/>
       <c r="AF893" s="4"/>
       <c r="AG893" s="4"/>
-      <c r="AH893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -61003,7 +60101,6 @@
       <c r="AE894" s="4"/>
       <c r="AF894" s="4"/>
       <c r="AG894" s="4"/>
-      <c r="AH894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -61039,7 +60136,6 @@
       <c r="AE895" s="4"/>
       <c r="AF895" s="4"/>
       <c r="AG895" s="4"/>
-      <c r="AH895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -61075,7 +60171,6 @@
       <c r="AE896" s="4"/>
       <c r="AF896" s="4"/>
       <c r="AG896" s="4"/>
-      <c r="AH896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -61111,7 +60206,6 @@
       <c r="AE897" s="4"/>
       <c r="AF897" s="4"/>
       <c r="AG897" s="4"/>
-      <c r="AH897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -61147,7 +60241,6 @@
       <c r="AE898" s="4"/>
       <c r="AF898" s="4"/>
       <c r="AG898" s="4"/>
-      <c r="AH898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -61183,7 +60276,6 @@
       <c r="AE899" s="4"/>
       <c r="AF899" s="4"/>
       <c r="AG899" s="4"/>
-      <c r="AH899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -61219,7 +60311,6 @@
       <c r="AE900" s="4"/>
       <c r="AF900" s="4"/>
       <c r="AG900" s="4"/>
-      <c r="AH900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -61255,7 +60346,6 @@
       <c r="AE901" s="4"/>
       <c r="AF901" s="4"/>
       <c r="AG901" s="4"/>
-      <c r="AH901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -61291,7 +60381,6 @@
       <c r="AE902" s="4"/>
       <c r="AF902" s="4"/>
       <c r="AG902" s="4"/>
-      <c r="AH902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -61327,7 +60416,6 @@
       <c r="AE903" s="4"/>
       <c r="AF903" s="4"/>
       <c r="AG903" s="4"/>
-      <c r="AH903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -61363,7 +60451,6 @@
       <c r="AE904" s="4"/>
       <c r="AF904" s="4"/>
       <c r="AG904" s="4"/>
-      <c r="AH904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -61399,7 +60486,6 @@
       <c r="AE905" s="4"/>
       <c r="AF905" s="4"/>
       <c r="AG905" s="4"/>
-      <c r="AH905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -61435,7 +60521,6 @@
       <c r="AE906" s="4"/>
       <c r="AF906" s="4"/>
       <c r="AG906" s="4"/>
-      <c r="AH906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -61471,7 +60556,6 @@
       <c r="AE907" s="4"/>
       <c r="AF907" s="4"/>
       <c r="AG907" s="4"/>
-      <c r="AH907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -61507,7 +60591,6 @@
       <c r="AE908" s="4"/>
       <c r="AF908" s="4"/>
       <c r="AG908" s="4"/>
-      <c r="AH908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -61543,7 +60626,6 @@
       <c r="AE909" s="4"/>
       <c r="AF909" s="4"/>
       <c r="AG909" s="4"/>
-      <c r="AH909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -61579,7 +60661,6 @@
       <c r="AE910" s="4"/>
       <c r="AF910" s="4"/>
       <c r="AG910" s="4"/>
-      <c r="AH910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -61615,7 +60696,6 @@
       <c r="AE911" s="4"/>
       <c r="AF911" s="4"/>
       <c r="AG911" s="4"/>
-      <c r="AH911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -61651,7 +60731,6 @@
       <c r="AE912" s="4"/>
       <c r="AF912" s="4"/>
       <c r="AG912" s="4"/>
-      <c r="AH912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -61687,7 +60766,6 @@
       <c r="AE913" s="4"/>
       <c r="AF913" s="4"/>
       <c r="AG913" s="4"/>
-      <c r="AH913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -61723,7 +60801,6 @@
       <c r="AE914" s="4"/>
       <c r="AF914" s="4"/>
       <c r="AG914" s="4"/>
-      <c r="AH914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -61759,7 +60836,6 @@
       <c r="AE915" s="4"/>
       <c r="AF915" s="4"/>
       <c r="AG915" s="4"/>
-      <c r="AH915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -61795,7 +60871,6 @@
       <c r="AE916" s="4"/>
       <c r="AF916" s="4"/>
       <c r="AG916" s="4"/>
-      <c r="AH916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -61831,7 +60906,6 @@
       <c r="AE917" s="4"/>
       <c r="AF917" s="4"/>
       <c r="AG917" s="4"/>
-      <c r="AH917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -61867,7 +60941,6 @@
       <c r="AE918" s="4"/>
       <c r="AF918" s="4"/>
       <c r="AG918" s="4"/>
-      <c r="AH918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -61903,7 +60976,6 @@
       <c r="AE919" s="4"/>
       <c r="AF919" s="4"/>
       <c r="AG919" s="4"/>
-      <c r="AH919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -61939,7 +61011,6 @@
       <c r="AE920" s="4"/>
       <c r="AF920" s="4"/>
       <c r="AG920" s="4"/>
-      <c r="AH920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -61975,7 +61046,6 @@
       <c r="AE921" s="4"/>
       <c r="AF921" s="4"/>
       <c r="AG921" s="4"/>
-      <c r="AH921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -62011,7 +61081,6 @@
       <c r="AE922" s="4"/>
       <c r="AF922" s="4"/>
       <c r="AG922" s="4"/>
-      <c r="AH922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -62047,7 +61116,6 @@
       <c r="AE923" s="4"/>
       <c r="AF923" s="4"/>
       <c r="AG923" s="4"/>
-      <c r="AH923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -62083,7 +61151,6 @@
       <c r="AE924" s="4"/>
       <c r="AF924" s="4"/>
       <c r="AG924" s="4"/>
-      <c r="AH924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -62119,7 +61186,6 @@
       <c r="AE925" s="4"/>
       <c r="AF925" s="4"/>
       <c r="AG925" s="4"/>
-      <c r="AH925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -62155,7 +61221,6 @@
       <c r="AE926" s="4"/>
       <c r="AF926" s="4"/>
       <c r="AG926" s="4"/>
-      <c r="AH926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -62191,7 +61256,6 @@
       <c r="AE927" s="4"/>
       <c r="AF927" s="4"/>
       <c r="AG927" s="4"/>
-      <c r="AH927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -62227,7 +61291,6 @@
       <c r="AE928" s="4"/>
       <c r="AF928" s="4"/>
       <c r="AG928" s="4"/>
-      <c r="AH928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -62263,7 +61326,6 @@
       <c r="AE929" s="4"/>
       <c r="AF929" s="4"/>
       <c r="AG929" s="4"/>
-      <c r="AH929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -62299,7 +61361,6 @@
       <c r="AE930" s="4"/>
       <c r="AF930" s="4"/>
       <c r="AG930" s="4"/>
-      <c r="AH930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -62335,7 +61396,6 @@
       <c r="AE931" s="4"/>
       <c r="AF931" s="4"/>
       <c r="AG931" s="4"/>
-      <c r="AH931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -62371,7 +61431,6 @@
       <c r="AE932" s="4"/>
       <c r="AF932" s="4"/>
       <c r="AG932" s="4"/>
-      <c r="AH932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -62407,7 +61466,6 @@
       <c r="AE933" s="4"/>
       <c r="AF933" s="4"/>
       <c r="AG933" s="4"/>
-      <c r="AH933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -62443,7 +61501,6 @@
       <c r="AE934" s="4"/>
       <c r="AF934" s="4"/>
       <c r="AG934" s="4"/>
-      <c r="AH934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -62479,7 +61536,6 @@
       <c r="AE935" s="4"/>
       <c r="AF935" s="4"/>
       <c r="AG935" s="4"/>
-      <c r="AH935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -62515,7 +61571,6 @@
       <c r="AE936" s="4"/>
       <c r="AF936" s="4"/>
       <c r="AG936" s="4"/>
-      <c r="AH936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -62551,7 +61606,6 @@
       <c r="AE937" s="4"/>
       <c r="AF937" s="4"/>
       <c r="AG937" s="4"/>
-      <c r="AH937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -62587,7 +61641,6 @@
       <c r="AE938" s="4"/>
       <c r="AF938" s="4"/>
       <c r="AG938" s="4"/>
-      <c r="AH938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -62623,7 +61676,6 @@
       <c r="AE939" s="4"/>
       <c r="AF939" s="4"/>
       <c r="AG939" s="4"/>
-      <c r="AH939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -62659,7 +61711,6 @@
       <c r="AE940" s="4"/>
       <c r="AF940" s="4"/>
       <c r="AG940" s="4"/>
-      <c r="AH940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -62695,7 +61746,6 @@
       <c r="AE941" s="4"/>
       <c r="AF941" s="4"/>
       <c r="AG941" s="4"/>
-      <c r="AH941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -62731,7 +61781,6 @@
       <c r="AE942" s="4"/>
       <c r="AF942" s="4"/>
       <c r="AG942" s="4"/>
-      <c r="AH942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -62767,7 +61816,6 @@
       <c r="AE943" s="4"/>
       <c r="AF943" s="4"/>
       <c r="AG943" s="4"/>
-      <c r="AH943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -62803,7 +61851,6 @@
       <c r="AE944" s="4"/>
       <c r="AF944" s="4"/>
       <c r="AG944" s="4"/>
-      <c r="AH944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -62839,7 +61886,6 @@
       <c r="AE945" s="4"/>
       <c r="AF945" s="4"/>
       <c r="AG945" s="4"/>
-      <c r="AH945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -62875,7 +61921,6 @@
       <c r="AE946" s="4"/>
       <c r="AF946" s="4"/>
       <c r="AG946" s="4"/>
-      <c r="AH946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -62911,7 +61956,6 @@
       <c r="AE947" s="4"/>
       <c r="AF947" s="4"/>
       <c r="AG947" s="4"/>
-      <c r="AH947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -62947,7 +61991,6 @@
       <c r="AE948" s="4"/>
       <c r="AF948" s="4"/>
       <c r="AG948" s="4"/>
-      <c r="AH948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -62983,7 +62026,6 @@
       <c r="AE949" s="4"/>
       <c r="AF949" s="4"/>
       <c r="AG949" s="4"/>
-      <c r="AH949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -63019,7 +62061,6 @@
       <c r="AE950" s="4"/>
       <c r="AF950" s="4"/>
       <c r="AG950" s="4"/>
-      <c r="AH950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -63055,7 +62096,6 @@
       <c r="AE951" s="4"/>
       <c r="AF951" s="4"/>
       <c r="AG951" s="4"/>
-      <c r="AH951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -63091,7 +62131,6 @@
       <c r="AE952" s="4"/>
       <c r="AF952" s="4"/>
       <c r="AG952" s="4"/>
-      <c r="AH952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -63127,7 +62166,6 @@
       <c r="AE953" s="4"/>
       <c r="AF953" s="4"/>
       <c r="AG953" s="4"/>
-      <c r="AH953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -63163,7 +62201,6 @@
       <c r="AE954" s="4"/>
       <c r="AF954" s="4"/>
       <c r="AG954" s="4"/>
-      <c r="AH954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -63199,7 +62236,6 @@
       <c r="AE955" s="4"/>
       <c r="AF955" s="4"/>
       <c r="AG955" s="4"/>
-      <c r="AH955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -63235,7 +62271,6 @@
       <c r="AE956" s="4"/>
       <c r="AF956" s="4"/>
       <c r="AG956" s="4"/>
-      <c r="AH956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -63271,7 +62306,6 @@
       <c r="AE957" s="4"/>
       <c r="AF957" s="4"/>
       <c r="AG957" s="4"/>
-      <c r="AH957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -63307,7 +62341,6 @@
       <c r="AE958" s="4"/>
       <c r="AF958" s="4"/>
       <c r="AG958" s="4"/>
-      <c r="AH958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -63343,7 +62376,6 @@
       <c r="AE959" s="4"/>
       <c r="AF959" s="4"/>
       <c r="AG959" s="4"/>
-      <c r="AH959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -63379,7 +62411,6 @@
       <c r="AE960" s="4"/>
       <c r="AF960" s="4"/>
       <c r="AG960" s="4"/>
-      <c r="AH960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -63415,7 +62446,6 @@
       <c r="AE961" s="4"/>
       <c r="AF961" s="4"/>
       <c r="AG961" s="4"/>
-      <c r="AH961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -63451,7 +62481,6 @@
       <c r="AE962" s="4"/>
       <c r="AF962" s="4"/>
       <c r="AG962" s="4"/>
-      <c r="AH962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -63487,7 +62516,6 @@
       <c r="AE963" s="4"/>
       <c r="AF963" s="4"/>
       <c r="AG963" s="4"/>
-      <c r="AH963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -63523,7 +62551,6 @@
       <c r="AE964" s="4"/>
       <c r="AF964" s="4"/>
       <c r="AG964" s="4"/>
-      <c r="AH964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -63559,7 +62586,6 @@
       <c r="AE965" s="4"/>
       <c r="AF965" s="4"/>
       <c r="AG965" s="4"/>
-      <c r="AH965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -63595,7 +62621,6 @@
       <c r="AE966" s="4"/>
       <c r="AF966" s="4"/>
       <c r="AG966" s="4"/>
-      <c r="AH966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -63631,7 +62656,6 @@
       <c r="AE967" s="4"/>
       <c r="AF967" s="4"/>
       <c r="AG967" s="4"/>
-      <c r="AH967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -63667,7 +62691,6 @@
       <c r="AE968" s="4"/>
       <c r="AF968" s="4"/>
       <c r="AG968" s="4"/>
-      <c r="AH968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -63703,7 +62726,6 @@
       <c r="AE969" s="4"/>
       <c r="AF969" s="4"/>
       <c r="AG969" s="4"/>
-      <c r="AH969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -63739,7 +62761,6 @@
       <c r="AE970" s="4"/>
       <c r="AF970" s="4"/>
       <c r="AG970" s="4"/>
-      <c r="AH970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="4"/>
@@ -63775,7 +62796,6 @@
       <c r="AE971" s="4"/>
       <c r="AF971" s="4"/>
       <c r="AG971" s="4"/>
-      <c r="AH971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="4"/>
@@ -63811,7 +62831,6 @@
       <c r="AE972" s="4"/>
       <c r="AF972" s="4"/>
       <c r="AG972" s="4"/>
-      <c r="AH972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="4"/>
@@ -63847,7 +62866,6 @@
       <c r="AE973" s="4"/>
       <c r="AF973" s="4"/>
       <c r="AG973" s="4"/>
-      <c r="AH973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="4"/>
@@ -63883,7 +62901,6 @@
       <c r="AE974" s="4"/>
       <c r="AF974" s="4"/>
       <c r="AG974" s="4"/>
-      <c r="AH974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="4"/>
@@ -63919,7 +62936,6 @@
       <c r="AE975" s="4"/>
       <c r="AF975" s="4"/>
       <c r="AG975" s="4"/>
-      <c r="AH975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="4"/>
@@ -63955,7 +62971,6 @@
       <c r="AE976" s="4"/>
       <c r="AF976" s="4"/>
       <c r="AG976" s="4"/>
-      <c r="AH976" s="4"/>
     </row>
     <row r="977">
       <c r="A977" s="4"/>
@@ -63991,7 +63006,6 @@
       <c r="AE977" s="4"/>
       <c r="AF977" s="4"/>
       <c r="AG977" s="4"/>
-      <c r="AH977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="4"/>
@@ -64027,7 +63041,6 @@
       <c r="AE978" s="4"/>
       <c r="AF978" s="4"/>
       <c r="AG978" s="4"/>
-      <c r="AH978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="4"/>
@@ -64063,7 +63076,6 @@
       <c r="AE979" s="4"/>
       <c r="AF979" s="4"/>
       <c r="AG979" s="4"/>
-      <c r="AH979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="4"/>
@@ -64099,7 +63111,6 @@
       <c r="AE980" s="4"/>
       <c r="AF980" s="4"/>
       <c r="AG980" s="4"/>
-      <c r="AH980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="4"/>
@@ -64135,7 +63146,6 @@
       <c r="AE981" s="4"/>
       <c r="AF981" s="4"/>
       <c r="AG981" s="4"/>
-      <c r="AH981" s="4"/>
     </row>
     <row r="982">
       <c r="A982" s="4"/>
@@ -64171,7 +63181,6 @@
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
       <c r="AG982" s="4"/>
-      <c r="AH982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="4"/>
@@ -64207,7 +63216,6 @@
       <c r="AE983" s="4"/>
       <c r="AF983" s="4"/>
       <c r="AG983" s="4"/>
-      <c r="AH983" s="4"/>
     </row>
     <row r="984">
       <c r="A984" s="4"/>
@@ -64243,7 +63251,6 @@
       <c r="AE984" s="4"/>
       <c r="AF984" s="4"/>
       <c r="AG984" s="4"/>
-      <c r="AH984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="4"/>
@@ -64279,7 +63286,6 @@
       <c r="AE985" s="4"/>
       <c r="AF985" s="4"/>
       <c r="AG985" s="4"/>
-      <c r="AH985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="4"/>
@@ -64315,7 +63321,6 @@
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
       <c r="AG986" s="4"/>
-      <c r="AH986" s="4"/>
     </row>
     <row r="987">
       <c r="A987" s="4"/>
@@ -64351,7 +63356,6 @@
       <c r="AE987" s="4"/>
       <c r="AF987" s="4"/>
       <c r="AG987" s="4"/>
-      <c r="AH987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="4"/>
@@ -64387,7 +63391,6 @@
       <c r="AE988" s="4"/>
       <c r="AF988" s="4"/>
       <c r="AG988" s="4"/>
-      <c r="AH988" s="4"/>
     </row>
     <row r="989">
       <c r="A989" s="4"/>
@@ -64423,7 +63426,6 @@
       <c r="AE989" s="4"/>
       <c r="AF989" s="4"/>
       <c r="AG989" s="4"/>
-      <c r="AH989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="4"/>
@@ -64459,7 +63461,6 @@
       <c r="AE990" s="4"/>
       <c r="AF990" s="4"/>
       <c r="AG990" s="4"/>
-      <c r="AH990" s="4"/>
     </row>
     <row r="991">
       <c r="A991" s="4"/>
@@ -64495,7 +63496,6 @@
       <c r="AE991" s="4"/>
       <c r="AF991" s="4"/>
       <c r="AG991" s="4"/>
-      <c r="AH991" s="4"/>
     </row>
     <row r="992">
       <c r="A992" s="4"/>
@@ -64531,7 +63531,6 @@
       <c r="AE992" s="4"/>
       <c r="AF992" s="4"/>
       <c r="AG992" s="4"/>
-      <c r="AH992" s="4"/>
     </row>
     <row r="993">
       <c r="A993" s="4"/>
@@ -64567,7 +63566,6 @@
       <c r="AE993" s="4"/>
       <c r="AF993" s="4"/>
       <c r="AG993" s="4"/>
-      <c r="AH993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="4"/>
@@ -64603,7 +63601,6 @@
       <c r="AE994" s="4"/>
       <c r="AF994" s="4"/>
       <c r="AG994" s="4"/>
-      <c r="AH994" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/static/documents/Independent Delegation Registration Form.xlsx
+++ b/static/documents/Independent Delegation Registration Form.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Instructions" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Delegate Information" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Teacher Endorsement" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Delegate Information" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Registration Form for HCCRI 2023 (INDEPENDENT)</t>
   </si>
@@ -40,14 +41,14 @@
     <t>Registration is simple and straightforward. Just three steps:</t>
   </si>
   <si>
-    <t>1. Submit the Registration Form (by 5 April 2023)</t>
+    <t>1. Submit the Registration Form</t>
   </si>
   <si>
     <t>Interested participants must complete and submit the registration form by email.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">For early bird registrations, submit this form by </t>
+      <t xml:space="preserve">For regular registrations, submit this form by </t>
     </r>
     <r>
       <rPr>
@@ -55,29 +56,14 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>5 April</t>
+      <t>4 May</t>
     </r>
     <r>
       <rPr>
         <rFont val="Roboto,Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">. For regular registrations, submit this form by </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Roboto,Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>27 April</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Roboto,Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
@@ -87,29 +73,32 @@
     <t>Late submissions will only be entertained on a case-by-case basis.</t>
   </si>
   <si>
-    <t xml:space="preserve">As per school policy, delegates wishing to sign up independently will only be accepted on a case-by-case basis. They are to fill in an accompanying section on the next page, regarding reasons for signing up as an independent delegate and not a school delegate. </t>
+    <r>
+      <t xml:space="preserve">As per school policy, delegates wishing to sign up independently will need to provide a </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Roboto"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>teacher's endorsement</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Roboto"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> (refer to Teacher Endorsement sheet)</t>
+    </r>
   </si>
   <si>
     <t>2. Make Payment</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">For all independent delegates: the early bird registration fee is </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Roboto,Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>S$25.00</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Roboto,Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> per delegate. The regular registration fee is </t>
+      <t xml:space="preserve">The regular registration fee is </t>
     </r>
     <r>
       <rPr>
@@ -128,14 +117,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Full instructions for payment will be sent via email once your registration is successful. </t>
+    <t>Full instructions for payment will be sent via email once your registration is successful.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Roboto"/>
-        <color rgb="FF000000"/>
-      </rPr>
       <t xml:space="preserve">Delegates are encouraged to find a substitution if they are unable to attend the conference after registration has been approved. All delegate substitutions must be submitted via email by </t>
     </r>
     <r>
@@ -144,7 +129,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>28 April 2023</t>
+      <t>4 May 2023</t>
     </r>
     <r>
       <rPr>
@@ -162,6 +147,15 @@
   </si>
   <si>
     <t>You may refer to the Delegate Prospectus below, which contains a list of FAQs for delegate registration. You may direct any further queries via email to hccri.secretariat@gmail.com</t>
+  </si>
+  <si>
+    <t>Name of Teacher</t>
+  </si>
+  <si>
+    <t>Email of Teacher</t>
+  </si>
+  <si>
+    <t>Contact Number of Teacher</t>
   </si>
   <si>
     <t>S/N</t>
@@ -216,9 +210,6 @@
   </si>
   <si>
     <t>Is the student fully vaccinated? [Yes/No (Scheduled)/No (Not going to be vaccinated)]</t>
-  </si>
-  <si>
-    <t>Reason for Signing Up as Independent Delegates instead of School Delegates (100 words maximum) (Admission will be on a case by case basis)</t>
   </si>
   <si>
     <t>example</t>
@@ -282,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -339,6 +330,12 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -421,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -448,16 +445,13 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -480,11 +474,17 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -492,25 +492,25 @@
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -522,7 +522,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -541,6 +541,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1169,7 +1173,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
@@ -1259,7 +1263,7 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
@@ -1317,7 +1321,7 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="4"/>
@@ -1347,7 +1351,7 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
@@ -1405,7 +1409,7 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1433,7 +1437,7 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1461,7 +1465,7 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1489,7 +1493,7 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1545,7 +1549,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1573,7 +1577,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1601,7 +1605,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1629,7 +1633,7 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1657,7 +1661,7 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1685,7 +1689,7 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1713,7 +1717,7 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1741,7 +1745,7 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1769,7 +1773,7 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1797,7 +1801,7 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1825,7 +1829,7 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1853,7 +1857,7 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1881,7 +1885,7 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1909,7 +1913,7 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -28690,18 +28694,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="9.88"/>
-    <col customWidth="1" min="5" max="6" width="9.38"/>
-    <col customWidth="1" min="13" max="13" width="27.63"/>
-    <col customWidth="1" min="15" max="15" width="13.38"/>
-    <col customWidth="1" min="16" max="16" width="13.5"/>
-    <col customWidth="1" min="18" max="18" width="15.63"/>
-    <col customWidth="1" min="19" max="19" width="28.38"/>
+    <col customWidth="1" min="1" max="1" width="15.25"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
+    <col customWidth="1" min="3" max="3" width="23.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28714,54 +28716,87 @@
       <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="6" width="9.38"/>
+    <col customWidth="1" min="13" max="13" width="27.63"/>
+    <col customWidth="1" min="15" max="15" width="13.38"/>
+    <col customWidth="1" min="16" max="16" width="13.5"/>
+    <col customWidth="1" min="18" max="18" width="15.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>35</v>
       </c>
+      <c r="Q1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -28775,64 +28810,63 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="24">
+      <c r="B2" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="25">
         <v>18.0</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>39</v>
+      <c r="E2" s="25" t="s">
+        <v>41</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>40</v>
+      <c r="F2" s="25" t="s">
+        <v>42</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="25">
         <v>8.5562541E7</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>41</v>
+      <c r="H2" s="25" t="s">
+        <v>43</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>42</v>
+      <c r="I2" s="25" t="s">
+        <v>44</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="25">
         <v>9.1234567E7</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>43</v>
+      <c r="K2" s="25" t="s">
+        <v>45</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="25">
         <v>1.0</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="24"/>
+      <c r="Q2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -28846,30 +28880,29 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="s">
-        <v>50</v>
+      <c r="A3" s="27" t="s">
+        <v>52</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -28883,30 +28916,29 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <v>2.0</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -28920,30 +28952,29 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>3.0</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -28957,30 +28988,29 @@
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>4.0</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -28994,30 +29024,29 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <v>5.0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -29031,30 +29060,29 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <v>6.0</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -29068,30 +29096,29 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <v>7.0</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -29105,30 +29132,29 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <v>8.0</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -29142,30 +29168,29 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="27">
         <v>9.0</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -29179,30 +29204,29 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="26">
+      <c r="A12" s="27">
         <v>10.0</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -29216,30 +29240,29 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="26">
+      <c r="A13" s="27">
         <v>11.0</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -29253,30 +29276,29 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="26">
+      <c r="A14" s="27">
         <v>12.0</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -29290,30 +29312,29 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="26">
+      <c r="A15" s="27">
         <v>13.0</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -29327,30 +29348,29 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="26">
+      <c r="A16" s="27">
         <v>14.0</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -29364,30 +29384,29 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>15.0</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -29401,30 +29420,29 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="26">
+      <c r="A18" s="27">
         <v>16.0</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -29438,30 +29456,29 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="26">
+      <c r="A19" s="27">
         <v>17.0</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -29475,30 +29492,29 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="26">
+      <c r="A20" s="27">
         <v>18.0</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -29512,30 +29528,29 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="26">
+      <c r="A21" s="27">
         <v>19.0</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -29549,30 +29564,29 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="26">
+      <c r="A22" s="27">
         <v>20.0</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -29586,27 +29600,26 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -29621,29 +29634,28 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="31" t="s">
-        <v>51</v>
+      <c r="A24" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -29658,20 +29670,19 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -29691,31 +29702,30 @@
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
+      <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="34" t="s">
-        <v>52</v>
+      <c r="A26" s="35" t="s">
+        <v>54</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -29730,22 +29740,21 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="33" t="s">
-        <v>53</v>
+      <c r="A27" s="34" t="s">
+        <v>55</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -29760,11 +29769,10 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="35" t="s">
-        <v>54</v>
+      <c r="A28" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -29790,7 +29798,6 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
     </row>
     <row r="29">
       <c r="A29" s="4"/>
@@ -29825,7 +29832,6 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
     </row>
     <row r="30">
       <c r="A30" s="4"/>
@@ -29860,7 +29866,6 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
     </row>
     <row r="31">
       <c r="A31" s="4"/>
@@ -29895,7 +29900,6 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
     </row>
     <row r="32">
       <c r="A32" s="4"/>
@@ -29930,7 +29934,6 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -29965,7 +29968,6 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -30000,7 +30002,6 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -30035,7 +30036,6 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -30070,7 +30070,6 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -30105,7 +30104,6 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -30140,7 +30138,6 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -30175,7 +30172,6 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -30210,7 +30206,6 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="4"/>
@@ -30245,7 +30240,6 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
@@ -30280,7 +30274,6 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -30315,7 +30308,6 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
     </row>
     <row r="44">
       <c r="A44" s="4"/>
@@ -30350,7 +30342,6 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="4"/>
@@ -30385,7 +30376,6 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
     </row>
     <row r="46">
       <c r="A46" s="4"/>
@@ -30420,7 +30410,6 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
     </row>
     <row r="47">
       <c r="A47" s="4"/>
@@ -30455,7 +30444,6 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
@@ -30490,7 +30478,6 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -30525,7 +30512,6 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
     </row>
     <row r="50">
       <c r="A50" s="4"/>
@@ -30560,7 +30546,6 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
     </row>
     <row r="51">
       <c r="A51" s="4"/>
@@ -30595,7 +30580,6 @@
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
@@ -30630,7 +30614,6 @@
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -30665,7 +30648,6 @@
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="4"/>
@@ -30700,7 +30682,6 @@
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
     </row>
     <row r="55">
       <c r="A55" s="4"/>
@@ -30735,7 +30716,6 @@
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
     </row>
     <row r="56">
       <c r="A56" s="4"/>
@@ -30770,7 +30750,6 @@
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
     </row>
     <row r="57">
       <c r="A57" s="4"/>
@@ -30805,7 +30784,6 @@
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
     </row>
     <row r="58">
       <c r="A58" s="4"/>
@@ -30840,7 +30818,6 @@
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="4"/>
@@ -30875,7 +30852,6 @@
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
     </row>
     <row r="60">
       <c r="A60" s="4"/>
@@ -30910,7 +30886,6 @@
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
     </row>
     <row r="61">
       <c r="A61" s="4"/>
@@ -30945,7 +30920,6 @@
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4"/>
@@ -30980,7 +30954,6 @@
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4"/>
@@ -31015,7 +30988,6 @@
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
     </row>
     <row r="64">
       <c r="A64" s="4"/>
@@ -31050,7 +31022,6 @@
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
     </row>
     <row r="65">
       <c r="A65" s="4"/>
@@ -31085,7 +31056,6 @@
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4"/>
@@ -31120,7 +31090,6 @@
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
-      <c r="AG66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4"/>
@@ -31155,7 +31124,6 @@
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
-      <c r="AG67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="4"/>
@@ -31190,7 +31158,6 @@
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
-      <c r="AG68" s="4"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -31225,7 +31192,6 @@
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -31260,7 +31226,6 @@
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
-      <c r="AG70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -31295,7 +31260,6 @@
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
-      <c r="AG71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -31330,7 +31294,6 @@
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
-      <c r="AG72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -31365,7 +31328,6 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
-      <c r="AG73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -31400,7 +31362,6 @@
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
-      <c r="AG74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -31435,7 +31396,6 @@
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -31470,7 +31430,6 @@
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -31505,7 +31464,6 @@
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -31540,7 +31498,6 @@
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -31575,7 +31532,6 @@
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -31610,7 +31566,6 @@
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -31645,7 +31600,6 @@
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -31680,7 +31634,6 @@
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
-      <c r="AG82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -31715,7 +31668,6 @@
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
-      <c r="AG83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -31750,7 +31702,6 @@
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
-      <c r="AG84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -31785,7 +31736,6 @@
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
-      <c r="AG85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -31820,7 +31770,6 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -31855,7 +31804,6 @@
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -31890,7 +31838,6 @@
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
-      <c r="AG88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -31925,7 +31872,6 @@
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
-      <c r="AG89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -31960,7 +31906,6 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
-      <c r="AG90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -31995,7 +31940,6 @@
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
-      <c r="AG91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -32030,7 +31974,6 @@
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
-      <c r="AG92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -32065,7 +32008,6 @@
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
-      <c r="AG93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -32100,7 +32042,6 @@
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
-      <c r="AG94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -32135,7 +32076,6 @@
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
-      <c r="AG95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -32170,7 +32110,6 @@
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
-      <c r="AG96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -32205,7 +32144,6 @@
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
-      <c r="AG97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -32240,7 +32178,6 @@
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
-      <c r="AG98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -32275,7 +32212,6 @@
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
-      <c r="AG99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -32310,7 +32246,6 @@
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
-      <c r="AG100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -32345,7 +32280,6 @@
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -32380,7 +32314,6 @@
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -32415,7 +32348,6 @@
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
-      <c r="AG103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -32450,7 +32382,6 @@
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -32485,7 +32416,6 @@
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
-      <c r="AG105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -32520,7 +32450,6 @@
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
-      <c r="AG106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -32555,7 +32484,6 @@
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
-      <c r="AG107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -32590,7 +32518,6 @@
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
-      <c r="AG108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -32625,7 +32552,6 @@
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
-      <c r="AG109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -32660,7 +32586,6 @@
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
-      <c r="AG110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -32695,7 +32620,6 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
-      <c r="AG111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -32730,7 +32654,6 @@
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
-      <c r="AG112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -32765,7 +32688,6 @@
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
-      <c r="AG113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -32800,7 +32722,6 @@
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
-      <c r="AG114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -32835,7 +32756,6 @@
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
-      <c r="AG115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -32870,7 +32790,6 @@
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
-      <c r="AG116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -32905,7 +32824,6 @@
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -32940,7 +32858,6 @@
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
-      <c r="AG118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -32975,7 +32892,6 @@
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
-      <c r="AG119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -33010,7 +32926,6 @@
       <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
-      <c r="AG120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -33045,7 +32960,6 @@
       <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
-      <c r="AG121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -33080,7 +32994,6 @@
       <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
-      <c r="AG122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -33115,7 +33028,6 @@
       <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
-      <c r="AG123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -33150,7 +33062,6 @@
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
-      <c r="AG124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -33185,7 +33096,6 @@
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
-      <c r="AG125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -33220,7 +33130,6 @@
       <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
-      <c r="AG126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -33255,7 +33164,6 @@
       <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
-      <c r="AG127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -33290,7 +33198,6 @@
       <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
-      <c r="AG128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -33325,7 +33232,6 @@
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
-      <c r="AG129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -33360,7 +33266,6 @@
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
-      <c r="AG130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -33395,7 +33300,6 @@
       <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
-      <c r="AG131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -33430,7 +33334,6 @@
       <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
-      <c r="AG132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -33465,7 +33368,6 @@
       <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
-      <c r="AG133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -33500,7 +33402,6 @@
       <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
-      <c r="AG134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -33535,7 +33436,6 @@
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
-      <c r="AG135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -33570,7 +33470,6 @@
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
-      <c r="AG136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -33605,7 +33504,6 @@
       <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
-      <c r="AG137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -33640,7 +33538,6 @@
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
-      <c r="AG138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -33675,7 +33572,6 @@
       <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
-      <c r="AG139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -33710,7 +33606,6 @@
       <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
-      <c r="AG140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -33745,7 +33640,6 @@
       <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
-      <c r="AG141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -33780,7 +33674,6 @@
       <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
-      <c r="AG142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -33815,7 +33708,6 @@
       <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
-      <c r="AG143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -33850,7 +33742,6 @@
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
-      <c r="AG144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -33885,7 +33776,6 @@
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
-      <c r="AG145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -33920,7 +33810,6 @@
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
-      <c r="AG146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -33955,7 +33844,6 @@
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
-      <c r="AG147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -33990,7 +33878,6 @@
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
-      <c r="AG148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -34025,7 +33912,6 @@
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
-      <c r="AG149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -34060,7 +33946,6 @@
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
-      <c r="AG150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -34095,7 +33980,6 @@
       <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
-      <c r="AG151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -34130,7 +34014,6 @@
       <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
-      <c r="AG152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -34165,7 +34048,6 @@
       <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
-      <c r="AG153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -34200,7 +34082,6 @@
       <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
-      <c r="AG154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -34235,7 +34116,6 @@
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
-      <c r="AG155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -34270,7 +34150,6 @@
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
-      <c r="AG156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -34305,7 +34184,6 @@
       <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
-      <c r="AG157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -34340,7 +34218,6 @@
       <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
-      <c r="AG158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -34375,7 +34252,6 @@
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
-      <c r="AG159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -34410,7 +34286,6 @@
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
-      <c r="AG160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -34445,7 +34320,6 @@
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
-      <c r="AG161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -34480,7 +34354,6 @@
       <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
-      <c r="AG162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -34515,7 +34388,6 @@
       <c r="AD163" s="4"/>
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
-      <c r="AG163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -34550,7 +34422,6 @@
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
-      <c r="AG164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -34585,7 +34456,6 @@
       <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
-      <c r="AG165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -34620,7 +34490,6 @@
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
-      <c r="AG166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -34655,7 +34524,6 @@
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
-      <c r="AG167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -34690,7 +34558,6 @@
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
-      <c r="AG168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -34725,7 +34592,6 @@
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
-      <c r="AG169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -34760,7 +34626,6 @@
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
-      <c r="AG170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -34795,7 +34660,6 @@
       <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
-      <c r="AG171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -34830,7 +34694,6 @@
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
-      <c r="AG172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -34865,7 +34728,6 @@
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
-      <c r="AG173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -34900,7 +34762,6 @@
       <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
-      <c r="AG174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -34935,7 +34796,6 @@
       <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
-      <c r="AG175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -34970,7 +34830,6 @@
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
-      <c r="AG176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -35005,7 +34864,6 @@
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
-      <c r="AG177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -35040,7 +34898,6 @@
       <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
-      <c r="AG178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -35075,7 +34932,6 @@
       <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
-      <c r="AG179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -35110,7 +34966,6 @@
       <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
-      <c r="AG180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -35145,7 +35000,6 @@
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
-      <c r="AG181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -35180,7 +35034,6 @@
       <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
-      <c r="AG182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -35215,7 +35068,6 @@
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
-      <c r="AG183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -35250,7 +35102,6 @@
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
-      <c r="AG184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -35285,7 +35136,6 @@
       <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
-      <c r="AG185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -35320,7 +35170,6 @@
       <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
-      <c r="AG186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -35355,7 +35204,6 @@
       <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
-      <c r="AG187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -35390,7 +35238,6 @@
       <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
-      <c r="AG188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -35425,7 +35272,6 @@
       <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
-      <c r="AG189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -35460,7 +35306,6 @@
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
-      <c r="AG190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -35495,7 +35340,6 @@
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
-      <c r="AG191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -35530,7 +35374,6 @@
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
-      <c r="AG192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -35565,7 +35408,6 @@
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
-      <c r="AG193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -35600,7 +35442,6 @@
       <c r="AD194" s="4"/>
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
-      <c r="AG194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -35635,7 +35476,6 @@
       <c r="AD195" s="4"/>
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
-      <c r="AG195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -35670,7 +35510,6 @@
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
-      <c r="AG196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -35705,7 +35544,6 @@
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
-      <c r="AG197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -35740,7 +35578,6 @@
       <c r="AD198" s="4"/>
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
-      <c r="AG198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -35775,7 +35612,6 @@
       <c r="AD199" s="4"/>
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
-      <c r="AG199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -35810,7 +35646,6 @@
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
-      <c r="AG200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -35845,7 +35680,6 @@
       <c r="AD201" s="4"/>
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
-      <c r="AG201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -35880,7 +35714,6 @@
       <c r="AD202" s="4"/>
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
-      <c r="AG202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -35915,7 +35748,6 @@
       <c r="AD203" s="4"/>
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
-      <c r="AG203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -35950,7 +35782,6 @@
       <c r="AD204" s="4"/>
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
-      <c r="AG204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -35985,7 +35816,6 @@
       <c r="AD205" s="4"/>
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
-      <c r="AG205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -36020,7 +35850,6 @@
       <c r="AD206" s="4"/>
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
-      <c r="AG206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -36055,7 +35884,6 @@
       <c r="AD207" s="4"/>
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
-      <c r="AG207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -36090,7 +35918,6 @@
       <c r="AD208" s="4"/>
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
-      <c r="AG208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -36125,7 +35952,6 @@
       <c r="AD209" s="4"/>
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
-      <c r="AG209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -36160,7 +35986,6 @@
       <c r="AD210" s="4"/>
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
-      <c r="AG210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -36195,7 +36020,6 @@
       <c r="AD211" s="4"/>
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
-      <c r="AG211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -36230,7 +36054,6 @@
       <c r="AD212" s="4"/>
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
-      <c r="AG212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -36265,7 +36088,6 @@
       <c r="AD213" s="4"/>
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
-      <c r="AG213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -36300,7 +36122,6 @@
       <c r="AD214" s="4"/>
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
-      <c r="AG214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -36335,7 +36156,6 @@
       <c r="AD215" s="4"/>
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
-      <c r="AG215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -36370,7 +36190,6 @@
       <c r="AD216" s="4"/>
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
-      <c r="AG216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -36405,7 +36224,6 @@
       <c r="AD217" s="4"/>
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
-      <c r="AG217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -36440,7 +36258,6 @@
       <c r="AD218" s="4"/>
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
-      <c r="AG218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -36475,7 +36292,6 @@
       <c r="AD219" s="4"/>
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
-      <c r="AG219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -36510,7 +36326,6 @@
       <c r="AD220" s="4"/>
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
-      <c r="AG220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -36545,7 +36360,6 @@
       <c r="AD221" s="4"/>
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
-      <c r="AG221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -36580,7 +36394,6 @@
       <c r="AD222" s="4"/>
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
-      <c r="AG222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -36615,7 +36428,6 @@
       <c r="AD223" s="4"/>
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
-      <c r="AG223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -36650,7 +36462,6 @@
       <c r="AD224" s="4"/>
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
-      <c r="AG224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -36685,7 +36496,6 @@
       <c r="AD225" s="4"/>
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
-      <c r="AG225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -36720,7 +36530,6 @@
       <c r="AD226" s="4"/>
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
-      <c r="AG226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -36755,7 +36564,6 @@
       <c r="AD227" s="4"/>
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
-      <c r="AG227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -36790,7 +36598,6 @@
       <c r="AD228" s="4"/>
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
-      <c r="AG228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -36825,7 +36632,6 @@
       <c r="AD229" s="4"/>
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
-      <c r="AG229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -36860,7 +36666,6 @@
       <c r="AD230" s="4"/>
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
-      <c r="AG230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -36895,7 +36700,6 @@
       <c r="AD231" s="4"/>
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
-      <c r="AG231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -36930,7 +36734,6 @@
       <c r="AD232" s="4"/>
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
-      <c r="AG232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -36965,7 +36768,6 @@
       <c r="AD233" s="4"/>
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
-      <c r="AG233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -37000,7 +36802,6 @@
       <c r="AD234" s="4"/>
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
-      <c r="AG234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -37035,7 +36836,6 @@
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
-      <c r="AG235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -37070,7 +36870,6 @@
       <c r="AD236" s="4"/>
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
-      <c r="AG236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -37105,7 +36904,6 @@
       <c r="AD237" s="4"/>
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
-      <c r="AG237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -37140,7 +36938,6 @@
       <c r="AD238" s="4"/>
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
-      <c r="AG238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -37175,7 +36972,6 @@
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
-      <c r="AG239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -37210,7 +37006,6 @@
       <c r="AD240" s="4"/>
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
-      <c r="AG240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -37245,7 +37040,6 @@
       <c r="AD241" s="4"/>
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
-      <c r="AG241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -37280,7 +37074,6 @@
       <c r="AD242" s="4"/>
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
-      <c r="AG242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -37315,7 +37108,6 @@
       <c r="AD243" s="4"/>
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
-      <c r="AG243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -37350,7 +37142,6 @@
       <c r="AD244" s="4"/>
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
-      <c r="AG244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -37385,7 +37176,6 @@
       <c r="AD245" s="4"/>
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
-      <c r="AG245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -37420,7 +37210,6 @@
       <c r="AD246" s="4"/>
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
-      <c r="AG246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -37455,7 +37244,6 @@
       <c r="AD247" s="4"/>
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
-      <c r="AG247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -37490,7 +37278,6 @@
       <c r="AD248" s="4"/>
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
-      <c r="AG248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -37525,7 +37312,6 @@
       <c r="AD249" s="4"/>
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
-      <c r="AG249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -37560,7 +37346,6 @@
       <c r="AD250" s="4"/>
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
-      <c r="AG250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -37595,7 +37380,6 @@
       <c r="AD251" s="4"/>
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
-      <c r="AG251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -37630,7 +37414,6 @@
       <c r="AD252" s="4"/>
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
-      <c r="AG252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -37665,7 +37448,6 @@
       <c r="AD253" s="4"/>
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
-      <c r="AG253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -37700,7 +37482,6 @@
       <c r="AD254" s="4"/>
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
-      <c r="AG254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -37735,7 +37516,6 @@
       <c r="AD255" s="4"/>
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
-      <c r="AG255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -37770,7 +37550,6 @@
       <c r="AD256" s="4"/>
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
-      <c r="AG256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -37805,7 +37584,6 @@
       <c r="AD257" s="4"/>
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
-      <c r="AG257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -37840,7 +37618,6 @@
       <c r="AD258" s="4"/>
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
-      <c r="AG258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -37875,7 +37652,6 @@
       <c r="AD259" s="4"/>
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
-      <c r="AG259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -37910,7 +37686,6 @@
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
-      <c r="AG260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -37945,7 +37720,6 @@
       <c r="AD261" s="4"/>
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
-      <c r="AG261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -37980,7 +37754,6 @@
       <c r="AD262" s="4"/>
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
-      <c r="AG262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -38015,7 +37788,6 @@
       <c r="AD263" s="4"/>
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
-      <c r="AG263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -38050,7 +37822,6 @@
       <c r="AD264" s="4"/>
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
-      <c r="AG264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -38085,7 +37856,6 @@
       <c r="AD265" s="4"/>
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
-      <c r="AG265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -38120,7 +37890,6 @@
       <c r="AD266" s="4"/>
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
-      <c r="AG266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -38155,7 +37924,6 @@
       <c r="AD267" s="4"/>
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
-      <c r="AG267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -38190,7 +37958,6 @@
       <c r="AD268" s="4"/>
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
-      <c r="AG268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -38225,7 +37992,6 @@
       <c r="AD269" s="4"/>
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
-      <c r="AG269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -38260,7 +38026,6 @@
       <c r="AD270" s="4"/>
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
-      <c r="AG270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -38295,7 +38060,6 @@
       <c r="AD271" s="4"/>
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
-      <c r="AG271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -38330,7 +38094,6 @@
       <c r="AD272" s="4"/>
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
-      <c r="AG272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -38365,7 +38128,6 @@
       <c r="AD273" s="4"/>
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
-      <c r="AG273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -38400,7 +38162,6 @@
       <c r="AD274" s="4"/>
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
-      <c r="AG274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -38435,7 +38196,6 @@
       <c r="AD275" s="4"/>
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
-      <c r="AG275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -38470,7 +38230,6 @@
       <c r="AD276" s="4"/>
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
-      <c r="AG276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -38505,7 +38264,6 @@
       <c r="AD277" s="4"/>
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
-      <c r="AG277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -38540,7 +38298,6 @@
       <c r="AD278" s="4"/>
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
-      <c r="AG278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -38575,7 +38332,6 @@
       <c r="AD279" s="4"/>
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
-      <c r="AG279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -38610,7 +38366,6 @@
       <c r="AD280" s="4"/>
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
-      <c r="AG280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -38645,7 +38400,6 @@
       <c r="AD281" s="4"/>
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
-      <c r="AG281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -38680,7 +38434,6 @@
       <c r="AD282" s="4"/>
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
-      <c r="AG282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -38715,7 +38468,6 @@
       <c r="AD283" s="4"/>
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
-      <c r="AG283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -38750,7 +38502,6 @@
       <c r="AD284" s="4"/>
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
-      <c r="AG284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -38785,7 +38536,6 @@
       <c r="AD285" s="4"/>
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
-      <c r="AG285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -38820,7 +38570,6 @@
       <c r="AD286" s="4"/>
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
-      <c r="AG286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -38855,7 +38604,6 @@
       <c r="AD287" s="4"/>
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
-      <c r="AG287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -38890,7 +38638,6 @@
       <c r="AD288" s="4"/>
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
-      <c r="AG288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -38925,7 +38672,6 @@
       <c r="AD289" s="4"/>
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
-      <c r="AG289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -38960,7 +38706,6 @@
       <c r="AD290" s="4"/>
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
-      <c r="AG290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -38995,7 +38740,6 @@
       <c r="AD291" s="4"/>
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
-      <c r="AG291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -39030,7 +38774,6 @@
       <c r="AD292" s="4"/>
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
-      <c r="AG292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -39065,7 +38808,6 @@
       <c r="AD293" s="4"/>
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
-      <c r="AG293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -39100,7 +38842,6 @@
       <c r="AD294" s="4"/>
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
-      <c r="AG294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -39135,7 +38876,6 @@
       <c r="AD295" s="4"/>
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
-      <c r="AG295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -39170,7 +38910,6 @@
       <c r="AD296" s="4"/>
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
-      <c r="AG296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -39205,7 +38944,6 @@
       <c r="AD297" s="4"/>
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
-      <c r="AG297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -39240,7 +38978,6 @@
       <c r="AD298" s="4"/>
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
-      <c r="AG298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -39275,7 +39012,6 @@
       <c r="AD299" s="4"/>
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
-      <c r="AG299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -39310,7 +39046,6 @@
       <c r="AD300" s="4"/>
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
-      <c r="AG300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -39345,7 +39080,6 @@
       <c r="AD301" s="4"/>
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
-      <c r="AG301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -39380,7 +39114,6 @@
       <c r="AD302" s="4"/>
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
-      <c r="AG302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -39415,7 +39148,6 @@
       <c r="AD303" s="4"/>
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
-      <c r="AG303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -39450,7 +39182,6 @@
       <c r="AD304" s="4"/>
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
-      <c r="AG304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -39485,7 +39216,6 @@
       <c r="AD305" s="4"/>
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
-      <c r="AG305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -39520,7 +39250,6 @@
       <c r="AD306" s="4"/>
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
-      <c r="AG306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -39555,7 +39284,6 @@
       <c r="AD307" s="4"/>
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
-      <c r="AG307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -39590,7 +39318,6 @@
       <c r="AD308" s="4"/>
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
-      <c r="AG308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -39625,7 +39352,6 @@
       <c r="AD309" s="4"/>
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
-      <c r="AG309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -39660,7 +39386,6 @@
       <c r="AD310" s="4"/>
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
-      <c r="AG310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -39695,7 +39420,6 @@
       <c r="AD311" s="4"/>
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
-      <c r="AG311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -39730,7 +39454,6 @@
       <c r="AD312" s="4"/>
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
-      <c r="AG312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -39765,7 +39488,6 @@
       <c r="AD313" s="4"/>
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
-      <c r="AG313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -39800,7 +39522,6 @@
       <c r="AD314" s="4"/>
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
-      <c r="AG314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -39835,7 +39556,6 @@
       <c r="AD315" s="4"/>
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
-      <c r="AG315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -39870,7 +39590,6 @@
       <c r="AD316" s="4"/>
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
-      <c r="AG316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -39905,7 +39624,6 @@
       <c r="AD317" s="4"/>
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
-      <c r="AG317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -39940,7 +39658,6 @@
       <c r="AD318" s="4"/>
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
-      <c r="AG318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -39975,7 +39692,6 @@
       <c r="AD319" s="4"/>
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
-      <c r="AG319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -40010,7 +39726,6 @@
       <c r="AD320" s="4"/>
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
-      <c r="AG320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -40045,7 +39760,6 @@
       <c r="AD321" s="4"/>
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
-      <c r="AG321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -40080,7 +39794,6 @@
       <c r="AD322" s="4"/>
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
-      <c r="AG322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -40115,7 +39828,6 @@
       <c r="AD323" s="4"/>
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
-      <c r="AG323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -40150,7 +39862,6 @@
       <c r="AD324" s="4"/>
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
-      <c r="AG324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -40185,7 +39896,6 @@
       <c r="AD325" s="4"/>
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
-      <c r="AG325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -40220,7 +39930,6 @@
       <c r="AD326" s="4"/>
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
-      <c r="AG326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -40255,7 +39964,6 @@
       <c r="AD327" s="4"/>
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
-      <c r="AG327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -40290,7 +39998,6 @@
       <c r="AD328" s="4"/>
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
-      <c r="AG328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -40325,7 +40032,6 @@
       <c r="AD329" s="4"/>
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
-      <c r="AG329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -40360,7 +40066,6 @@
       <c r="AD330" s="4"/>
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
-      <c r="AG330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -40395,7 +40100,6 @@
       <c r="AD331" s="4"/>
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
-      <c r="AG331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -40430,7 +40134,6 @@
       <c r="AD332" s="4"/>
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
-      <c r="AG332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -40465,7 +40168,6 @@
       <c r="AD333" s="4"/>
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
-      <c r="AG333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -40500,7 +40202,6 @@
       <c r="AD334" s="4"/>
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
-      <c r="AG334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -40535,7 +40236,6 @@
       <c r="AD335" s="4"/>
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
-      <c r="AG335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -40570,7 +40270,6 @@
       <c r="AD336" s="4"/>
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
-      <c r="AG336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -40605,7 +40304,6 @@
       <c r="AD337" s="4"/>
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
-      <c r="AG337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -40640,7 +40338,6 @@
       <c r="AD338" s="4"/>
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
-      <c r="AG338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -40675,7 +40372,6 @@
       <c r="AD339" s="4"/>
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
-      <c r="AG339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -40710,7 +40406,6 @@
       <c r="AD340" s="4"/>
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
-      <c r="AG340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -40745,7 +40440,6 @@
       <c r="AD341" s="4"/>
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
-      <c r="AG341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -40780,7 +40474,6 @@
       <c r="AD342" s="4"/>
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
-      <c r="AG342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -40815,7 +40508,6 @@
       <c r="AD343" s="4"/>
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
-      <c r="AG343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -40850,7 +40542,6 @@
       <c r="AD344" s="4"/>
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
-      <c r="AG344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -40885,7 +40576,6 @@
       <c r="AD345" s="4"/>
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
-      <c r="AG345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -40920,7 +40610,6 @@
       <c r="AD346" s="4"/>
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
-      <c r="AG346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -40955,7 +40644,6 @@
       <c r="AD347" s="4"/>
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
-      <c r="AG347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -40990,7 +40678,6 @@
       <c r="AD348" s="4"/>
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
-      <c r="AG348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -41025,7 +40712,6 @@
       <c r="AD349" s="4"/>
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
-      <c r="AG349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -41060,7 +40746,6 @@
       <c r="AD350" s="4"/>
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
-      <c r="AG350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -41095,7 +40780,6 @@
       <c r="AD351" s="4"/>
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
-      <c r="AG351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -41130,7 +40814,6 @@
       <c r="AD352" s="4"/>
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
-      <c r="AG352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -41165,7 +40848,6 @@
       <c r="AD353" s="4"/>
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
-      <c r="AG353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -41200,7 +40882,6 @@
       <c r="AD354" s="4"/>
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
-      <c r="AG354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -41235,7 +40916,6 @@
       <c r="AD355" s="4"/>
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
-      <c r="AG355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -41270,7 +40950,6 @@
       <c r="AD356" s="4"/>
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
-      <c r="AG356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -41305,7 +40984,6 @@
       <c r="AD357" s="4"/>
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
-      <c r="AG357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -41340,7 +41018,6 @@
       <c r="AD358" s="4"/>
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
-      <c r="AG358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -41375,7 +41052,6 @@
       <c r="AD359" s="4"/>
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
-      <c r="AG359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -41410,7 +41086,6 @@
       <c r="AD360" s="4"/>
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
-      <c r="AG360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -41445,7 +41120,6 @@
       <c r="AD361" s="4"/>
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
-      <c r="AG361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -41480,7 +41154,6 @@
       <c r="AD362" s="4"/>
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
-      <c r="AG362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -41515,7 +41188,6 @@
       <c r="AD363" s="4"/>
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
-      <c r="AG363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -41550,7 +41222,6 @@
       <c r="AD364" s="4"/>
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
-      <c r="AG364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -41585,7 +41256,6 @@
       <c r="AD365" s="4"/>
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
-      <c r="AG365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -41620,7 +41290,6 @@
       <c r="AD366" s="4"/>
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
-      <c r="AG366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -41655,7 +41324,6 @@
       <c r="AD367" s="4"/>
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
-      <c r="AG367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -41690,7 +41358,6 @@
       <c r="AD368" s="4"/>
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
-      <c r="AG368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -41725,7 +41392,6 @@
       <c r="AD369" s="4"/>
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
-      <c r="AG369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -41760,7 +41426,6 @@
       <c r="AD370" s="4"/>
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
-      <c r="AG370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -41795,7 +41460,6 @@
       <c r="AD371" s="4"/>
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
-      <c r="AG371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -41830,7 +41494,6 @@
       <c r="AD372" s="4"/>
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
-      <c r="AG372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -41865,7 +41528,6 @@
       <c r="AD373" s="4"/>
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
-      <c r="AG373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -41900,7 +41562,6 @@
       <c r="AD374" s="4"/>
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
-      <c r="AG374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -41935,7 +41596,6 @@
       <c r="AD375" s="4"/>
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
-      <c r="AG375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -41970,7 +41630,6 @@
       <c r="AD376" s="4"/>
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
-      <c r="AG376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -42005,7 +41664,6 @@
       <c r="AD377" s="4"/>
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
-      <c r="AG377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -42040,7 +41698,6 @@
       <c r="AD378" s="4"/>
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
-      <c r="AG378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -42075,7 +41732,6 @@
       <c r="AD379" s="4"/>
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
-      <c r="AG379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -42110,7 +41766,6 @@
       <c r="AD380" s="4"/>
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
-      <c r="AG380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -42145,7 +41800,6 @@
       <c r="AD381" s="4"/>
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
-      <c r="AG381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -42180,7 +41834,6 @@
       <c r="AD382" s="4"/>
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
-      <c r="AG382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -42215,7 +41868,6 @@
       <c r="AD383" s="4"/>
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
-      <c r="AG383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -42250,7 +41902,6 @@
       <c r="AD384" s="4"/>
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
-      <c r="AG384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -42285,7 +41936,6 @@
       <c r="AD385" s="4"/>
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
-      <c r="AG385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -42320,7 +41970,6 @@
       <c r="AD386" s="4"/>
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
-      <c r="AG386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -42355,7 +42004,6 @@
       <c r="AD387" s="4"/>
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
-      <c r="AG387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -42390,7 +42038,6 @@
       <c r="AD388" s="4"/>
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
-      <c r="AG388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -42425,7 +42072,6 @@
       <c r="AD389" s="4"/>
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
-      <c r="AG389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -42460,7 +42106,6 @@
       <c r="AD390" s="4"/>
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
-      <c r="AG390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -42495,7 +42140,6 @@
       <c r="AD391" s="4"/>
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
-      <c r="AG391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -42530,7 +42174,6 @@
       <c r="AD392" s="4"/>
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
-      <c r="AG392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -42565,7 +42208,6 @@
       <c r="AD393" s="4"/>
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
-      <c r="AG393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -42600,7 +42242,6 @@
       <c r="AD394" s="4"/>
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
-      <c r="AG394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -42635,7 +42276,6 @@
       <c r="AD395" s="4"/>
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
-      <c r="AG395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -42670,7 +42310,6 @@
       <c r="AD396" s="4"/>
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
-      <c r="AG396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -42705,7 +42344,6 @@
       <c r="AD397" s="4"/>
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
-      <c r="AG397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -42740,7 +42378,6 @@
       <c r="AD398" s="4"/>
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
-      <c r="AG398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -42775,7 +42412,6 @@
       <c r="AD399" s="4"/>
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
-      <c r="AG399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -42810,7 +42446,6 @@
       <c r="AD400" s="4"/>
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
-      <c r="AG400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -42845,7 +42480,6 @@
       <c r="AD401" s="4"/>
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
-      <c r="AG401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -42880,7 +42514,6 @@
       <c r="AD402" s="4"/>
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
-      <c r="AG402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -42915,7 +42548,6 @@
       <c r="AD403" s="4"/>
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
-      <c r="AG403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -42950,7 +42582,6 @@
       <c r="AD404" s="4"/>
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
-      <c r="AG404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -42985,7 +42616,6 @@
       <c r="AD405" s="4"/>
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
-      <c r="AG405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -43020,7 +42650,6 @@
       <c r="AD406" s="4"/>
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
-      <c r="AG406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -43055,7 +42684,6 @@
       <c r="AD407" s="4"/>
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
-      <c r="AG407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -43090,7 +42718,6 @@
       <c r="AD408" s="4"/>
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
-      <c r="AG408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -43125,7 +42752,6 @@
       <c r="AD409" s="4"/>
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
-      <c r="AG409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -43160,7 +42786,6 @@
       <c r="AD410" s="4"/>
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
-      <c r="AG410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -43195,7 +42820,6 @@
       <c r="AD411" s="4"/>
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
-      <c r="AG411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -43230,7 +42854,6 @@
       <c r="AD412" s="4"/>
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
-      <c r="AG412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -43265,7 +42888,6 @@
       <c r="AD413" s="4"/>
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
-      <c r="AG413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -43300,7 +42922,6 @@
       <c r="AD414" s="4"/>
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
-      <c r="AG414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -43335,7 +42956,6 @@
       <c r="AD415" s="4"/>
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
-      <c r="AG415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -43370,7 +42990,6 @@
       <c r="AD416" s="4"/>
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
-      <c r="AG416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -43405,7 +43024,6 @@
       <c r="AD417" s="4"/>
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
-      <c r="AG417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -43440,7 +43058,6 @@
       <c r="AD418" s="4"/>
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
-      <c r="AG418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -43475,7 +43092,6 @@
       <c r="AD419" s="4"/>
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
-      <c r="AG419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -43510,7 +43126,6 @@
       <c r="AD420" s="4"/>
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
-      <c r="AG420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -43545,7 +43160,6 @@
       <c r="AD421" s="4"/>
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
-      <c r="AG421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -43580,7 +43194,6 @@
       <c r="AD422" s="4"/>
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
-      <c r="AG422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -43615,7 +43228,6 @@
       <c r="AD423" s="4"/>
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
-      <c r="AG423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -43650,7 +43262,6 @@
       <c r="AD424" s="4"/>
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
-      <c r="AG424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -43685,7 +43296,6 @@
       <c r="AD425" s="4"/>
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
-      <c r="AG425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -43720,7 +43330,6 @@
       <c r="AD426" s="4"/>
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
-      <c r="AG426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -43755,7 +43364,6 @@
       <c r="AD427" s="4"/>
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
-      <c r="AG427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -43790,7 +43398,6 @@
       <c r="AD428" s="4"/>
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
-      <c r="AG428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -43825,7 +43432,6 @@
       <c r="AD429" s="4"/>
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
-      <c r="AG429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -43860,7 +43466,6 @@
       <c r="AD430" s="4"/>
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
-      <c r="AG430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -43895,7 +43500,6 @@
       <c r="AD431" s="4"/>
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
-      <c r="AG431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -43930,7 +43534,6 @@
       <c r="AD432" s="4"/>
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
-      <c r="AG432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -43965,7 +43568,6 @@
       <c r="AD433" s="4"/>
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
-      <c r="AG433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -44000,7 +43602,6 @@
       <c r="AD434" s="4"/>
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
-      <c r="AG434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -44035,7 +43636,6 @@
       <c r="AD435" s="4"/>
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
-      <c r="AG435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -44070,7 +43670,6 @@
       <c r="AD436" s="4"/>
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
-      <c r="AG436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -44105,7 +43704,6 @@
       <c r="AD437" s="4"/>
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
-      <c r="AG437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -44140,7 +43738,6 @@
       <c r="AD438" s="4"/>
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
-      <c r="AG438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -44175,7 +43772,6 @@
       <c r="AD439" s="4"/>
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
-      <c r="AG439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -44210,7 +43806,6 @@
       <c r="AD440" s="4"/>
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
-      <c r="AG440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -44245,7 +43840,6 @@
       <c r="AD441" s="4"/>
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
-      <c r="AG441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -44280,7 +43874,6 @@
       <c r="AD442" s="4"/>
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
-      <c r="AG442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -44315,7 +43908,6 @@
       <c r="AD443" s="4"/>
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
-      <c r="AG443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -44350,7 +43942,6 @@
       <c r="AD444" s="4"/>
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
-      <c r="AG444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -44385,7 +43976,6 @@
       <c r="AD445" s="4"/>
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
-      <c r="AG445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -44420,7 +44010,6 @@
       <c r="AD446" s="4"/>
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
-      <c r="AG446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -44455,7 +44044,6 @@
       <c r="AD447" s="4"/>
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
-      <c r="AG447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -44490,7 +44078,6 @@
       <c r="AD448" s="4"/>
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
-      <c r="AG448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -44525,7 +44112,6 @@
       <c r="AD449" s="4"/>
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
-      <c r="AG449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -44560,7 +44146,6 @@
       <c r="AD450" s="4"/>
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
-      <c r="AG450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -44595,7 +44180,6 @@
       <c r="AD451" s="4"/>
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
-      <c r="AG451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -44630,7 +44214,6 @@
       <c r="AD452" s="4"/>
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
-      <c r="AG452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -44665,7 +44248,6 @@
       <c r="AD453" s="4"/>
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
-      <c r="AG453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -44700,7 +44282,6 @@
       <c r="AD454" s="4"/>
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
-      <c r="AG454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -44735,7 +44316,6 @@
       <c r="AD455" s="4"/>
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
-      <c r="AG455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -44770,7 +44350,6 @@
       <c r="AD456" s="4"/>
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
-      <c r="AG456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -44805,7 +44384,6 @@
       <c r="AD457" s="4"/>
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
-      <c r="AG457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -44840,7 +44418,6 @@
       <c r="AD458" s="4"/>
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
-      <c r="AG458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -44875,7 +44452,6 @@
       <c r="AD459" s="4"/>
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
-      <c r="AG459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -44910,7 +44486,6 @@
       <c r="AD460" s="4"/>
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
-      <c r="AG460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -44945,7 +44520,6 @@
       <c r="AD461" s="4"/>
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
-      <c r="AG461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -44980,7 +44554,6 @@
       <c r="AD462" s="4"/>
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
-      <c r="AG462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -45015,7 +44588,6 @@
       <c r="AD463" s="4"/>
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
-      <c r="AG463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -45050,7 +44622,6 @@
       <c r="AD464" s="4"/>
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
-      <c r="AG464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -45085,7 +44656,6 @@
       <c r="AD465" s="4"/>
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
-      <c r="AG465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -45120,7 +44690,6 @@
       <c r="AD466" s="4"/>
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
-      <c r="AG466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -45155,7 +44724,6 @@
       <c r="AD467" s="4"/>
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>
-      <c r="AG467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -45190,7 +44758,6 @@
       <c r="AD468" s="4"/>
       <c r="AE468" s="4"/>
       <c r="AF468" s="4"/>
-      <c r="AG468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -45225,7 +44792,6 @@
       <c r="AD469" s="4"/>
       <c r="AE469" s="4"/>
       <c r="AF469" s="4"/>
-      <c r="AG469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -45260,7 +44826,6 @@
       <c r="AD470" s="4"/>
       <c r="AE470" s="4"/>
       <c r="AF470" s="4"/>
-      <c r="AG470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -45295,7 +44860,6 @@
       <c r="AD471" s="4"/>
       <c r="AE471" s="4"/>
       <c r="AF471" s="4"/>
-      <c r="AG471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -45330,7 +44894,6 @@
       <c r="AD472" s="4"/>
       <c r="AE472" s="4"/>
       <c r="AF472" s="4"/>
-      <c r="AG472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -45365,7 +44928,6 @@
       <c r="AD473" s="4"/>
       <c r="AE473" s="4"/>
       <c r="AF473" s="4"/>
-      <c r="AG473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -45400,7 +44962,6 @@
       <c r="AD474" s="4"/>
       <c r="AE474" s="4"/>
       <c r="AF474" s="4"/>
-      <c r="AG474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -45435,7 +44996,6 @@
       <c r="AD475" s="4"/>
       <c r="AE475" s="4"/>
       <c r="AF475" s="4"/>
-      <c r="AG475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -45470,7 +45030,6 @@
       <c r="AD476" s="4"/>
       <c r="AE476" s="4"/>
       <c r="AF476" s="4"/>
-      <c r="AG476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -45505,7 +45064,6 @@
       <c r="AD477" s="4"/>
       <c r="AE477" s="4"/>
       <c r="AF477" s="4"/>
-      <c r="AG477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -45540,7 +45098,6 @@
       <c r="AD478" s="4"/>
       <c r="AE478" s="4"/>
       <c r="AF478" s="4"/>
-      <c r="AG478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -45575,7 +45132,6 @@
       <c r="AD479" s="4"/>
       <c r="AE479" s="4"/>
       <c r="AF479" s="4"/>
-      <c r="AG479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -45610,7 +45166,6 @@
       <c r="AD480" s="4"/>
       <c r="AE480" s="4"/>
       <c r="AF480" s="4"/>
-      <c r="AG480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -45645,7 +45200,6 @@
       <c r="AD481" s="4"/>
       <c r="AE481" s="4"/>
       <c r="AF481" s="4"/>
-      <c r="AG481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -45680,7 +45234,6 @@
       <c r="AD482" s="4"/>
       <c r="AE482" s="4"/>
       <c r="AF482" s="4"/>
-      <c r="AG482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -45715,7 +45268,6 @@
       <c r="AD483" s="4"/>
       <c r="AE483" s="4"/>
       <c r="AF483" s="4"/>
-      <c r="AG483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -45750,7 +45302,6 @@
       <c r="AD484" s="4"/>
       <c r="AE484" s="4"/>
       <c r="AF484" s="4"/>
-      <c r="AG484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -45785,7 +45336,6 @@
       <c r="AD485" s="4"/>
       <c r="AE485" s="4"/>
       <c r="AF485" s="4"/>
-      <c r="AG485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -45820,7 +45370,6 @@
       <c r="AD486" s="4"/>
       <c r="AE486" s="4"/>
       <c r="AF486" s="4"/>
-      <c r="AG486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -45855,7 +45404,6 @@
       <c r="AD487" s="4"/>
       <c r="AE487" s="4"/>
       <c r="AF487" s="4"/>
-      <c r="AG487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -45890,7 +45438,6 @@
       <c r="AD488" s="4"/>
       <c r="AE488" s="4"/>
       <c r="AF488" s="4"/>
-      <c r="AG488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -45925,7 +45472,6 @@
       <c r="AD489" s="4"/>
       <c r="AE489" s="4"/>
       <c r="AF489" s="4"/>
-      <c r="AG489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -45960,7 +45506,6 @@
       <c r="AD490" s="4"/>
       <c r="AE490" s="4"/>
       <c r="AF490" s="4"/>
-      <c r="AG490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -45995,7 +45540,6 @@
       <c r="AD491" s="4"/>
       <c r="AE491" s="4"/>
       <c r="AF491" s="4"/>
-      <c r="AG491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -46030,7 +45574,6 @@
       <c r="AD492" s="4"/>
       <c r="AE492" s="4"/>
       <c r="AF492" s="4"/>
-      <c r="AG492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -46065,7 +45608,6 @@
       <c r="AD493" s="4"/>
       <c r="AE493" s="4"/>
       <c r="AF493" s="4"/>
-      <c r="AG493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -46100,7 +45642,6 @@
       <c r="AD494" s="4"/>
       <c r="AE494" s="4"/>
       <c r="AF494" s="4"/>
-      <c r="AG494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -46135,7 +45676,6 @@
       <c r="AD495" s="4"/>
       <c r="AE495" s="4"/>
       <c r="AF495" s="4"/>
-      <c r="AG495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -46170,7 +45710,6 @@
       <c r="AD496" s="4"/>
       <c r="AE496" s="4"/>
       <c r="AF496" s="4"/>
-      <c r="AG496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -46205,7 +45744,6 @@
       <c r="AD497" s="4"/>
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
-      <c r="AG497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -46240,7 +45778,6 @@
       <c r="AD498" s="4"/>
       <c r="AE498" s="4"/>
       <c r="AF498" s="4"/>
-      <c r="AG498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -46275,7 +45812,6 @@
       <c r="AD499" s="4"/>
       <c r="AE499" s="4"/>
       <c r="AF499" s="4"/>
-      <c r="AG499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -46310,7 +45846,6 @@
       <c r="AD500" s="4"/>
       <c r="AE500" s="4"/>
       <c r="AF500" s="4"/>
-      <c r="AG500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -46345,7 +45880,6 @@
       <c r="AD501" s="4"/>
       <c r="AE501" s="4"/>
       <c r="AF501" s="4"/>
-      <c r="AG501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -46380,7 +45914,6 @@
       <c r="AD502" s="4"/>
       <c r="AE502" s="4"/>
       <c r="AF502" s="4"/>
-      <c r="AG502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -46415,7 +45948,6 @@
       <c r="AD503" s="4"/>
       <c r="AE503" s="4"/>
       <c r="AF503" s="4"/>
-      <c r="AG503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -46450,7 +45982,6 @@
       <c r="AD504" s="4"/>
       <c r="AE504" s="4"/>
       <c r="AF504" s="4"/>
-      <c r="AG504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -46485,7 +46016,6 @@
       <c r="AD505" s="4"/>
       <c r="AE505" s="4"/>
       <c r="AF505" s="4"/>
-      <c r="AG505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -46520,7 +46050,6 @@
       <c r="AD506" s="4"/>
       <c r="AE506" s="4"/>
       <c r="AF506" s="4"/>
-      <c r="AG506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -46555,7 +46084,6 @@
       <c r="AD507" s="4"/>
       <c r="AE507" s="4"/>
       <c r="AF507" s="4"/>
-      <c r="AG507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -46590,7 +46118,6 @@
       <c r="AD508" s="4"/>
       <c r="AE508" s="4"/>
       <c r="AF508" s="4"/>
-      <c r="AG508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -46625,7 +46152,6 @@
       <c r="AD509" s="4"/>
       <c r="AE509" s="4"/>
       <c r="AF509" s="4"/>
-      <c r="AG509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -46660,7 +46186,6 @@
       <c r="AD510" s="4"/>
       <c r="AE510" s="4"/>
       <c r="AF510" s="4"/>
-      <c r="AG510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -46695,7 +46220,6 @@
       <c r="AD511" s="4"/>
       <c r="AE511" s="4"/>
       <c r="AF511" s="4"/>
-      <c r="AG511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -46730,7 +46254,6 @@
       <c r="AD512" s="4"/>
       <c r="AE512" s="4"/>
       <c r="AF512" s="4"/>
-      <c r="AG512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -46765,7 +46288,6 @@
       <c r="AD513" s="4"/>
       <c r="AE513" s="4"/>
       <c r="AF513" s="4"/>
-      <c r="AG513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -46800,7 +46322,6 @@
       <c r="AD514" s="4"/>
       <c r="AE514" s="4"/>
       <c r="AF514" s="4"/>
-      <c r="AG514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -46835,7 +46356,6 @@
       <c r="AD515" s="4"/>
       <c r="AE515" s="4"/>
       <c r="AF515" s="4"/>
-      <c r="AG515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -46870,7 +46390,6 @@
       <c r="AD516" s="4"/>
       <c r="AE516" s="4"/>
       <c r="AF516" s="4"/>
-      <c r="AG516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -46905,7 +46424,6 @@
       <c r="AD517" s="4"/>
       <c r="AE517" s="4"/>
       <c r="AF517" s="4"/>
-      <c r="AG517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -46940,7 +46458,6 @@
       <c r="AD518" s="4"/>
       <c r="AE518" s="4"/>
       <c r="AF518" s="4"/>
-      <c r="AG518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -46975,7 +46492,6 @@
       <c r="AD519" s="4"/>
       <c r="AE519" s="4"/>
       <c r="AF519" s="4"/>
-      <c r="AG519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -47010,7 +46526,6 @@
       <c r="AD520" s="4"/>
       <c r="AE520" s="4"/>
       <c r="AF520" s="4"/>
-      <c r="AG520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -47045,7 +46560,6 @@
       <c r="AD521" s="4"/>
       <c r="AE521" s="4"/>
       <c r="AF521" s="4"/>
-      <c r="AG521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -47080,7 +46594,6 @@
       <c r="AD522" s="4"/>
       <c r="AE522" s="4"/>
       <c r="AF522" s="4"/>
-      <c r="AG522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -47115,7 +46628,6 @@
       <c r="AD523" s="4"/>
       <c r="AE523" s="4"/>
       <c r="AF523" s="4"/>
-      <c r="AG523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -47150,7 +46662,6 @@
       <c r="AD524" s="4"/>
       <c r="AE524" s="4"/>
       <c r="AF524" s="4"/>
-      <c r="AG524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -47185,7 +46696,6 @@
       <c r="AD525" s="4"/>
       <c r="AE525" s="4"/>
       <c r="AF525" s="4"/>
-      <c r="AG525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -47220,7 +46730,6 @@
       <c r="AD526" s="4"/>
       <c r="AE526" s="4"/>
       <c r="AF526" s="4"/>
-      <c r="AG526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -47255,7 +46764,6 @@
       <c r="AD527" s="4"/>
       <c r="AE527" s="4"/>
       <c r="AF527" s="4"/>
-      <c r="AG527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -47290,7 +46798,6 @@
       <c r="AD528" s="4"/>
       <c r="AE528" s="4"/>
       <c r="AF528" s="4"/>
-      <c r="AG528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -47325,7 +46832,6 @@
       <c r="AD529" s="4"/>
       <c r="AE529" s="4"/>
       <c r="AF529" s="4"/>
-      <c r="AG529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -47360,7 +46866,6 @@
       <c r="AD530" s="4"/>
       <c r="AE530" s="4"/>
       <c r="AF530" s="4"/>
-      <c r="AG530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -47395,7 +46900,6 @@
       <c r="AD531" s="4"/>
       <c r="AE531" s="4"/>
       <c r="AF531" s="4"/>
-      <c r="AG531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -47430,7 +46934,6 @@
       <c r="AD532" s="4"/>
       <c r="AE532" s="4"/>
       <c r="AF532" s="4"/>
-      <c r="AG532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -47465,7 +46968,6 @@
       <c r="AD533" s="4"/>
       <c r="AE533" s="4"/>
       <c r="AF533" s="4"/>
-      <c r="AG533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -47500,7 +47002,6 @@
       <c r="AD534" s="4"/>
       <c r="AE534" s="4"/>
       <c r="AF534" s="4"/>
-      <c r="AG534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -47535,7 +47036,6 @@
       <c r="AD535" s="4"/>
       <c r="AE535" s="4"/>
       <c r="AF535" s="4"/>
-      <c r="AG535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -47570,7 +47070,6 @@
       <c r="AD536" s="4"/>
       <c r="AE536" s="4"/>
       <c r="AF536" s="4"/>
-      <c r="AG536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -47605,7 +47104,6 @@
       <c r="AD537" s="4"/>
       <c r="AE537" s="4"/>
       <c r="AF537" s="4"/>
-      <c r="AG537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -47640,7 +47138,6 @@
       <c r="AD538" s="4"/>
       <c r="AE538" s="4"/>
       <c r="AF538" s="4"/>
-      <c r="AG538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -47675,7 +47172,6 @@
       <c r="AD539" s="4"/>
       <c r="AE539" s="4"/>
       <c r="AF539" s="4"/>
-      <c r="AG539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -47710,7 +47206,6 @@
       <c r="AD540" s="4"/>
       <c r="AE540" s="4"/>
       <c r="AF540" s="4"/>
-      <c r="AG540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -47745,7 +47240,6 @@
       <c r="AD541" s="4"/>
       <c r="AE541" s="4"/>
       <c r="AF541" s="4"/>
-      <c r="AG541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -47780,7 +47274,6 @@
       <c r="AD542" s="4"/>
       <c r="AE542" s="4"/>
       <c r="AF542" s="4"/>
-      <c r="AG542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -47815,7 +47308,6 @@
       <c r="AD543" s="4"/>
       <c r="AE543" s="4"/>
       <c r="AF543" s="4"/>
-      <c r="AG543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -47850,7 +47342,6 @@
       <c r="AD544" s="4"/>
       <c r="AE544" s="4"/>
       <c r="AF544" s="4"/>
-      <c r="AG544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -47885,7 +47376,6 @@
       <c r="AD545" s="4"/>
       <c r="AE545" s="4"/>
       <c r="AF545" s="4"/>
-      <c r="AG545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -47920,7 +47410,6 @@
       <c r="AD546" s="4"/>
       <c r="AE546" s="4"/>
       <c r="AF546" s="4"/>
-      <c r="AG546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -47955,7 +47444,6 @@
       <c r="AD547" s="4"/>
       <c r="AE547" s="4"/>
       <c r="AF547" s="4"/>
-      <c r="AG547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -47990,7 +47478,6 @@
       <c r="AD548" s="4"/>
       <c r="AE548" s="4"/>
       <c r="AF548" s="4"/>
-      <c r="AG548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -48025,7 +47512,6 @@
       <c r="AD549" s="4"/>
       <c r="AE549" s="4"/>
       <c r="AF549" s="4"/>
-      <c r="AG549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -48060,7 +47546,6 @@
       <c r="AD550" s="4"/>
       <c r="AE550" s="4"/>
       <c r="AF550" s="4"/>
-      <c r="AG550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -48095,7 +47580,6 @@
       <c r="AD551" s="4"/>
       <c r="AE551" s="4"/>
       <c r="AF551" s="4"/>
-      <c r="AG551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -48130,7 +47614,6 @@
       <c r="AD552" s="4"/>
       <c r="AE552" s="4"/>
       <c r="AF552" s="4"/>
-      <c r="AG552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -48165,7 +47648,6 @@
       <c r="AD553" s="4"/>
       <c r="AE553" s="4"/>
       <c r="AF553" s="4"/>
-      <c r="AG553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -48200,7 +47682,6 @@
       <c r="AD554" s="4"/>
       <c r="AE554" s="4"/>
       <c r="AF554" s="4"/>
-      <c r="AG554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -48235,7 +47716,6 @@
       <c r="AD555" s="4"/>
       <c r="AE555" s="4"/>
       <c r="AF555" s="4"/>
-      <c r="AG555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -48270,7 +47750,6 @@
       <c r="AD556" s="4"/>
       <c r="AE556" s="4"/>
       <c r="AF556" s="4"/>
-      <c r="AG556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -48305,7 +47784,6 @@
       <c r="AD557" s="4"/>
       <c r="AE557" s="4"/>
       <c r="AF557" s="4"/>
-      <c r="AG557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -48340,7 +47818,6 @@
       <c r="AD558" s="4"/>
       <c r="AE558" s="4"/>
       <c r="AF558" s="4"/>
-      <c r="AG558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -48375,7 +47852,6 @@
       <c r="AD559" s="4"/>
       <c r="AE559" s="4"/>
       <c r="AF559" s="4"/>
-      <c r="AG559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -48410,7 +47886,6 @@
       <c r="AD560" s="4"/>
       <c r="AE560" s="4"/>
       <c r="AF560" s="4"/>
-      <c r="AG560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -48445,7 +47920,6 @@
       <c r="AD561" s="4"/>
       <c r="AE561" s="4"/>
       <c r="AF561" s="4"/>
-      <c r="AG561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -48480,7 +47954,6 @@
       <c r="AD562" s="4"/>
       <c r="AE562" s="4"/>
       <c r="AF562" s="4"/>
-      <c r="AG562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -48515,7 +47988,6 @@
       <c r="AD563" s="4"/>
       <c r="AE563" s="4"/>
       <c r="AF563" s="4"/>
-      <c r="AG563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -48550,7 +48022,6 @@
       <c r="AD564" s="4"/>
       <c r="AE564" s="4"/>
       <c r="AF564" s="4"/>
-      <c r="AG564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -48585,7 +48056,6 @@
       <c r="AD565" s="4"/>
       <c r="AE565" s="4"/>
       <c r="AF565" s="4"/>
-      <c r="AG565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -48620,7 +48090,6 @@
       <c r="AD566" s="4"/>
       <c r="AE566" s="4"/>
       <c r="AF566" s="4"/>
-      <c r="AG566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -48655,7 +48124,6 @@
       <c r="AD567" s="4"/>
       <c r="AE567" s="4"/>
       <c r="AF567" s="4"/>
-      <c r="AG567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -48690,7 +48158,6 @@
       <c r="AD568" s="4"/>
       <c r="AE568" s="4"/>
       <c r="AF568" s="4"/>
-      <c r="AG568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -48725,7 +48192,6 @@
       <c r="AD569" s="4"/>
       <c r="AE569" s="4"/>
       <c r="AF569" s="4"/>
-      <c r="AG569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -48760,7 +48226,6 @@
       <c r="AD570" s="4"/>
       <c r="AE570" s="4"/>
       <c r="AF570" s="4"/>
-      <c r="AG570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -48795,7 +48260,6 @@
       <c r="AD571" s="4"/>
       <c r="AE571" s="4"/>
       <c r="AF571" s="4"/>
-      <c r="AG571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -48830,7 +48294,6 @@
       <c r="AD572" s="4"/>
       <c r="AE572" s="4"/>
       <c r="AF572" s="4"/>
-      <c r="AG572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -48865,7 +48328,6 @@
       <c r="AD573" s="4"/>
       <c r="AE573" s="4"/>
       <c r="AF573" s="4"/>
-      <c r="AG573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -48900,7 +48362,6 @@
       <c r="AD574" s="4"/>
       <c r="AE574" s="4"/>
       <c r="AF574" s="4"/>
-      <c r="AG574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -48935,7 +48396,6 @@
       <c r="AD575" s="4"/>
       <c r="AE575" s="4"/>
       <c r="AF575" s="4"/>
-      <c r="AG575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -48970,7 +48430,6 @@
       <c r="AD576" s="4"/>
       <c r="AE576" s="4"/>
       <c r="AF576" s="4"/>
-      <c r="AG576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -49005,7 +48464,6 @@
       <c r="AD577" s="4"/>
       <c r="AE577" s="4"/>
       <c r="AF577" s="4"/>
-      <c r="AG577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -49040,7 +48498,6 @@
       <c r="AD578" s="4"/>
       <c r="AE578" s="4"/>
       <c r="AF578" s="4"/>
-      <c r="AG578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -49075,7 +48532,6 @@
       <c r="AD579" s="4"/>
       <c r="AE579" s="4"/>
       <c r="AF579" s="4"/>
-      <c r="AG579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -49110,7 +48566,6 @@
       <c r="AD580" s="4"/>
       <c r="AE580" s="4"/>
       <c r="AF580" s="4"/>
-      <c r="AG580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -49145,7 +48600,6 @@
       <c r="AD581" s="4"/>
       <c r="AE581" s="4"/>
       <c r="AF581" s="4"/>
-      <c r="AG581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -49180,7 +48634,6 @@
       <c r="AD582" s="4"/>
       <c r="AE582" s="4"/>
       <c r="AF582" s="4"/>
-      <c r="AG582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -49215,7 +48668,6 @@
       <c r="AD583" s="4"/>
       <c r="AE583" s="4"/>
       <c r="AF583" s="4"/>
-      <c r="AG583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -49250,7 +48702,6 @@
       <c r="AD584" s="4"/>
       <c r="AE584" s="4"/>
       <c r="AF584" s="4"/>
-      <c r="AG584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -49285,7 +48736,6 @@
       <c r="AD585" s="4"/>
       <c r="AE585" s="4"/>
       <c r="AF585" s="4"/>
-      <c r="AG585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -49320,7 +48770,6 @@
       <c r="AD586" s="4"/>
       <c r="AE586" s="4"/>
       <c r="AF586" s="4"/>
-      <c r="AG586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -49355,7 +48804,6 @@
       <c r="AD587" s="4"/>
       <c r="AE587" s="4"/>
       <c r="AF587" s="4"/>
-      <c r="AG587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -49390,7 +48838,6 @@
       <c r="AD588" s="4"/>
       <c r="AE588" s="4"/>
       <c r="AF588" s="4"/>
-      <c r="AG588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -49425,7 +48872,6 @@
       <c r="AD589" s="4"/>
       <c r="AE589" s="4"/>
       <c r="AF589" s="4"/>
-      <c r="AG589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -49460,7 +48906,6 @@
       <c r="AD590" s="4"/>
       <c r="AE590" s="4"/>
       <c r="AF590" s="4"/>
-      <c r="AG590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -49495,7 +48940,6 @@
       <c r="AD591" s="4"/>
       <c r="AE591" s="4"/>
       <c r="AF591" s="4"/>
-      <c r="AG591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -49530,7 +48974,6 @@
       <c r="AD592" s="4"/>
       <c r="AE592" s="4"/>
       <c r="AF592" s="4"/>
-      <c r="AG592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -49565,7 +49008,6 @@
       <c r="AD593" s="4"/>
       <c r="AE593" s="4"/>
       <c r="AF593" s="4"/>
-      <c r="AG593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -49600,7 +49042,6 @@
       <c r="AD594" s="4"/>
       <c r="AE594" s="4"/>
       <c r="AF594" s="4"/>
-      <c r="AG594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -49635,7 +49076,6 @@
       <c r="AD595" s="4"/>
       <c r="AE595" s="4"/>
       <c r="AF595" s="4"/>
-      <c r="AG595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -49670,7 +49110,6 @@
       <c r="AD596" s="4"/>
       <c r="AE596" s="4"/>
       <c r="AF596" s="4"/>
-      <c r="AG596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -49705,7 +49144,6 @@
       <c r="AD597" s="4"/>
       <c r="AE597" s="4"/>
       <c r="AF597" s="4"/>
-      <c r="AG597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -49740,7 +49178,6 @@
       <c r="AD598" s="4"/>
       <c r="AE598" s="4"/>
       <c r="AF598" s="4"/>
-      <c r="AG598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -49775,7 +49212,6 @@
       <c r="AD599" s="4"/>
       <c r="AE599" s="4"/>
       <c r="AF599" s="4"/>
-      <c r="AG599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -49810,7 +49246,6 @@
       <c r="AD600" s="4"/>
       <c r="AE600" s="4"/>
       <c r="AF600" s="4"/>
-      <c r="AG600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -49845,7 +49280,6 @@
       <c r="AD601" s="4"/>
       <c r="AE601" s="4"/>
       <c r="AF601" s="4"/>
-      <c r="AG601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -49880,7 +49314,6 @@
       <c r="AD602" s="4"/>
       <c r="AE602" s="4"/>
       <c r="AF602" s="4"/>
-      <c r="AG602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -49915,7 +49348,6 @@
       <c r="AD603" s="4"/>
       <c r="AE603" s="4"/>
       <c r="AF603" s="4"/>
-      <c r="AG603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -49950,7 +49382,6 @@
       <c r="AD604" s="4"/>
       <c r="AE604" s="4"/>
       <c r="AF604" s="4"/>
-      <c r="AG604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -49985,7 +49416,6 @@
       <c r="AD605" s="4"/>
       <c r="AE605" s="4"/>
       <c r="AF605" s="4"/>
-      <c r="AG605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -50020,7 +49450,6 @@
       <c r="AD606" s="4"/>
       <c r="AE606" s="4"/>
       <c r="AF606" s="4"/>
-      <c r="AG606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -50055,7 +49484,6 @@
       <c r="AD607" s="4"/>
       <c r="AE607" s="4"/>
       <c r="AF607" s="4"/>
-      <c r="AG607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -50090,7 +49518,6 @@
       <c r="AD608" s="4"/>
       <c r="AE608" s="4"/>
       <c r="AF608" s="4"/>
-      <c r="AG608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -50125,7 +49552,6 @@
       <c r="AD609" s="4"/>
       <c r="AE609" s="4"/>
       <c r="AF609" s="4"/>
-      <c r="AG609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -50160,7 +49586,6 @@
       <c r="AD610" s="4"/>
       <c r="AE610" s="4"/>
       <c r="AF610" s="4"/>
-      <c r="AG610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -50195,7 +49620,6 @@
       <c r="AD611" s="4"/>
       <c r="AE611" s="4"/>
       <c r="AF611" s="4"/>
-      <c r="AG611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -50230,7 +49654,6 @@
       <c r="AD612" s="4"/>
       <c r="AE612" s="4"/>
       <c r="AF612" s="4"/>
-      <c r="AG612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -50265,7 +49688,6 @@
       <c r="AD613" s="4"/>
       <c r="AE613" s="4"/>
       <c r="AF613" s="4"/>
-      <c r="AG613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -50300,7 +49722,6 @@
       <c r="AD614" s="4"/>
       <c r="AE614" s="4"/>
       <c r="AF614" s="4"/>
-      <c r="AG614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -50335,7 +49756,6 @@
       <c r="AD615" s="4"/>
       <c r="AE615" s="4"/>
       <c r="AF615" s="4"/>
-      <c r="AG615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -50370,7 +49790,6 @@
       <c r="AD616" s="4"/>
       <c r="AE616" s="4"/>
       <c r="AF616" s="4"/>
-      <c r="AG616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -50405,7 +49824,6 @@
       <c r="AD617" s="4"/>
       <c r="AE617" s="4"/>
       <c r="AF617" s="4"/>
-      <c r="AG617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -50440,7 +49858,6 @@
       <c r="AD618" s="4"/>
       <c r="AE618" s="4"/>
       <c r="AF618" s="4"/>
-      <c r="AG618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -50475,7 +49892,6 @@
       <c r="AD619" s="4"/>
       <c r="AE619" s="4"/>
       <c r="AF619" s="4"/>
-      <c r="AG619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -50510,7 +49926,6 @@
       <c r="AD620" s="4"/>
       <c r="AE620" s="4"/>
       <c r="AF620" s="4"/>
-      <c r="AG620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -50545,7 +49960,6 @@
       <c r="AD621" s="4"/>
       <c r="AE621" s="4"/>
       <c r="AF621" s="4"/>
-      <c r="AG621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -50580,7 +49994,6 @@
       <c r="AD622" s="4"/>
       <c r="AE622" s="4"/>
       <c r="AF622" s="4"/>
-      <c r="AG622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -50615,7 +50028,6 @@
       <c r="AD623" s="4"/>
       <c r="AE623" s="4"/>
       <c r="AF623" s="4"/>
-      <c r="AG623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -50650,7 +50062,6 @@
       <c r="AD624" s="4"/>
       <c r="AE624" s="4"/>
       <c r="AF624" s="4"/>
-      <c r="AG624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -50685,7 +50096,6 @@
       <c r="AD625" s="4"/>
       <c r="AE625" s="4"/>
       <c r="AF625" s="4"/>
-      <c r="AG625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -50720,7 +50130,6 @@
       <c r="AD626" s="4"/>
       <c r="AE626" s="4"/>
       <c r="AF626" s="4"/>
-      <c r="AG626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -50755,7 +50164,6 @@
       <c r="AD627" s="4"/>
       <c r="AE627" s="4"/>
       <c r="AF627" s="4"/>
-      <c r="AG627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -50790,7 +50198,6 @@
       <c r="AD628" s="4"/>
       <c r="AE628" s="4"/>
       <c r="AF628" s="4"/>
-      <c r="AG628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -50825,7 +50232,6 @@
       <c r="AD629" s="4"/>
       <c r="AE629" s="4"/>
       <c r="AF629" s="4"/>
-      <c r="AG629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -50860,7 +50266,6 @@
       <c r="AD630" s="4"/>
       <c r="AE630" s="4"/>
       <c r="AF630" s="4"/>
-      <c r="AG630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -50895,7 +50300,6 @@
       <c r="AD631" s="4"/>
       <c r="AE631" s="4"/>
       <c r="AF631" s="4"/>
-      <c r="AG631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -50930,7 +50334,6 @@
       <c r="AD632" s="4"/>
       <c r="AE632" s="4"/>
       <c r="AF632" s="4"/>
-      <c r="AG632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -50965,7 +50368,6 @@
       <c r="AD633" s="4"/>
       <c r="AE633" s="4"/>
       <c r="AF633" s="4"/>
-      <c r="AG633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -51000,7 +50402,6 @@
       <c r="AD634" s="4"/>
       <c r="AE634" s="4"/>
       <c r="AF634" s="4"/>
-      <c r="AG634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -51035,7 +50436,6 @@
       <c r="AD635" s="4"/>
       <c r="AE635" s="4"/>
       <c r="AF635" s="4"/>
-      <c r="AG635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -51070,7 +50470,6 @@
       <c r="AD636" s="4"/>
       <c r="AE636" s="4"/>
       <c r="AF636" s="4"/>
-      <c r="AG636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -51105,7 +50504,6 @@
       <c r="AD637" s="4"/>
       <c r="AE637" s="4"/>
       <c r="AF637" s="4"/>
-      <c r="AG637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -51140,7 +50538,6 @@
       <c r="AD638" s="4"/>
       <c r="AE638" s="4"/>
       <c r="AF638" s="4"/>
-      <c r="AG638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -51175,7 +50572,6 @@
       <c r="AD639" s="4"/>
       <c r="AE639" s="4"/>
       <c r="AF639" s="4"/>
-      <c r="AG639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -51210,7 +50606,6 @@
       <c r="AD640" s="4"/>
       <c r="AE640" s="4"/>
       <c r="AF640" s="4"/>
-      <c r="AG640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -51245,7 +50640,6 @@
       <c r="AD641" s="4"/>
       <c r="AE641" s="4"/>
       <c r="AF641" s="4"/>
-      <c r="AG641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -51280,7 +50674,6 @@
       <c r="AD642" s="4"/>
       <c r="AE642" s="4"/>
       <c r="AF642" s="4"/>
-      <c r="AG642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -51315,7 +50708,6 @@
       <c r="AD643" s="4"/>
       <c r="AE643" s="4"/>
       <c r="AF643" s="4"/>
-      <c r="AG643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -51350,7 +50742,6 @@
       <c r="AD644" s="4"/>
       <c r="AE644" s="4"/>
       <c r="AF644" s="4"/>
-      <c r="AG644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -51385,7 +50776,6 @@
       <c r="AD645" s="4"/>
       <c r="AE645" s="4"/>
       <c r="AF645" s="4"/>
-      <c r="AG645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -51420,7 +50810,6 @@
       <c r="AD646" s="4"/>
       <c r="AE646" s="4"/>
       <c r="AF646" s="4"/>
-      <c r="AG646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -51455,7 +50844,6 @@
       <c r="AD647" s="4"/>
       <c r="AE647" s="4"/>
       <c r="AF647" s="4"/>
-      <c r="AG647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -51490,7 +50878,6 @@
       <c r="AD648" s="4"/>
       <c r="AE648" s="4"/>
       <c r="AF648" s="4"/>
-      <c r="AG648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -51525,7 +50912,6 @@
       <c r="AD649" s="4"/>
       <c r="AE649" s="4"/>
       <c r="AF649" s="4"/>
-      <c r="AG649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -51560,7 +50946,6 @@
       <c r="AD650" s="4"/>
       <c r="AE650" s="4"/>
       <c r="AF650" s="4"/>
-      <c r="AG650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -51595,7 +50980,6 @@
       <c r="AD651" s="4"/>
       <c r="AE651" s="4"/>
       <c r="AF651" s="4"/>
-      <c r="AG651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -51630,7 +51014,6 @@
       <c r="AD652" s="4"/>
       <c r="AE652" s="4"/>
       <c r="AF652" s="4"/>
-      <c r="AG652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -51665,7 +51048,6 @@
       <c r="AD653" s="4"/>
       <c r="AE653" s="4"/>
       <c r="AF653" s="4"/>
-      <c r="AG653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -51700,7 +51082,6 @@
       <c r="AD654" s="4"/>
       <c r="AE654" s="4"/>
       <c r="AF654" s="4"/>
-      <c r="AG654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -51735,7 +51116,6 @@
       <c r="AD655" s="4"/>
       <c r="AE655" s="4"/>
       <c r="AF655" s="4"/>
-      <c r="AG655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -51770,7 +51150,6 @@
       <c r="AD656" s="4"/>
       <c r="AE656" s="4"/>
       <c r="AF656" s="4"/>
-      <c r="AG656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -51805,7 +51184,6 @@
       <c r="AD657" s="4"/>
       <c r="AE657" s="4"/>
       <c r="AF657" s="4"/>
-      <c r="AG657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -51840,7 +51218,6 @@
       <c r="AD658" s="4"/>
       <c r="AE658" s="4"/>
       <c r="AF658" s="4"/>
-      <c r="AG658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -51875,7 +51252,6 @@
       <c r="AD659" s="4"/>
       <c r="AE659" s="4"/>
       <c r="AF659" s="4"/>
-      <c r="AG659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -51910,7 +51286,6 @@
       <c r="AD660" s="4"/>
       <c r="AE660" s="4"/>
       <c r="AF660" s="4"/>
-      <c r="AG660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -51945,7 +51320,6 @@
       <c r="AD661" s="4"/>
       <c r="AE661" s="4"/>
       <c r="AF661" s="4"/>
-      <c r="AG661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -51980,7 +51354,6 @@
       <c r="AD662" s="4"/>
       <c r="AE662" s="4"/>
       <c r="AF662" s="4"/>
-      <c r="AG662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -52015,7 +51388,6 @@
       <c r="AD663" s="4"/>
       <c r="AE663" s="4"/>
       <c r="AF663" s="4"/>
-      <c r="AG663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -52050,7 +51422,6 @@
       <c r="AD664" s="4"/>
       <c r="AE664" s="4"/>
       <c r="AF664" s="4"/>
-      <c r="AG664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -52085,7 +51456,6 @@
       <c r="AD665" s="4"/>
       <c r="AE665" s="4"/>
       <c r="AF665" s="4"/>
-      <c r="AG665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -52120,7 +51490,6 @@
       <c r="AD666" s="4"/>
       <c r="AE666" s="4"/>
       <c r="AF666" s="4"/>
-      <c r="AG666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -52155,7 +51524,6 @@
       <c r="AD667" s="4"/>
       <c r="AE667" s="4"/>
       <c r="AF667" s="4"/>
-      <c r="AG667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -52190,7 +51558,6 @@
       <c r="AD668" s="4"/>
       <c r="AE668" s="4"/>
       <c r="AF668" s="4"/>
-      <c r="AG668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -52225,7 +51592,6 @@
       <c r="AD669" s="4"/>
       <c r="AE669" s="4"/>
       <c r="AF669" s="4"/>
-      <c r="AG669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -52260,7 +51626,6 @@
       <c r="AD670" s="4"/>
       <c r="AE670" s="4"/>
       <c r="AF670" s="4"/>
-      <c r="AG670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -52295,7 +51660,6 @@
       <c r="AD671" s="4"/>
       <c r="AE671" s="4"/>
       <c r="AF671" s="4"/>
-      <c r="AG671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -52330,7 +51694,6 @@
       <c r="AD672" s="4"/>
       <c r="AE672" s="4"/>
       <c r="AF672" s="4"/>
-      <c r="AG672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -52365,7 +51728,6 @@
       <c r="AD673" s="4"/>
       <c r="AE673" s="4"/>
       <c r="AF673" s="4"/>
-      <c r="AG673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -52400,7 +51762,6 @@
       <c r="AD674" s="4"/>
       <c r="AE674" s="4"/>
       <c r="AF674" s="4"/>
-      <c r="AG674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -52435,7 +51796,6 @@
       <c r="AD675" s="4"/>
       <c r="AE675" s="4"/>
       <c r="AF675" s="4"/>
-      <c r="AG675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -52470,7 +51830,6 @@
       <c r="AD676" s="4"/>
       <c r="AE676" s="4"/>
       <c r="AF676" s="4"/>
-      <c r="AG676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -52505,7 +51864,6 @@
       <c r="AD677" s="4"/>
       <c r="AE677" s="4"/>
       <c r="AF677" s="4"/>
-      <c r="AG677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -52540,7 +51898,6 @@
       <c r="AD678" s="4"/>
       <c r="AE678" s="4"/>
       <c r="AF678" s="4"/>
-      <c r="AG678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -52575,7 +51932,6 @@
       <c r="AD679" s="4"/>
       <c r="AE679" s="4"/>
       <c r="AF679" s="4"/>
-      <c r="AG679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -52610,7 +51966,6 @@
       <c r="AD680" s="4"/>
       <c r="AE680" s="4"/>
       <c r="AF680" s="4"/>
-      <c r="AG680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -52645,7 +52000,6 @@
       <c r="AD681" s="4"/>
       <c r="AE681" s="4"/>
       <c r="AF681" s="4"/>
-      <c r="AG681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -52680,7 +52034,6 @@
       <c r="AD682" s="4"/>
       <c r="AE682" s="4"/>
       <c r="AF682" s="4"/>
-      <c r="AG682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -52715,7 +52068,6 @@
       <c r="AD683" s="4"/>
       <c r="AE683" s="4"/>
       <c r="AF683" s="4"/>
-      <c r="AG683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -52750,7 +52102,6 @@
       <c r="AD684" s="4"/>
       <c r="AE684" s="4"/>
       <c r="AF684" s="4"/>
-      <c r="AG684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -52785,7 +52136,6 @@
       <c r="AD685" s="4"/>
       <c r="AE685" s="4"/>
       <c r="AF685" s="4"/>
-      <c r="AG685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -52820,7 +52170,6 @@
       <c r="AD686" s="4"/>
       <c r="AE686" s="4"/>
       <c r="AF686" s="4"/>
-      <c r="AG686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -52855,7 +52204,6 @@
       <c r="AD687" s="4"/>
       <c r="AE687" s="4"/>
       <c r="AF687" s="4"/>
-      <c r="AG687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -52890,7 +52238,6 @@
       <c r="AD688" s="4"/>
       <c r="AE688" s="4"/>
       <c r="AF688" s="4"/>
-      <c r="AG688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -52925,7 +52272,6 @@
       <c r="AD689" s="4"/>
       <c r="AE689" s="4"/>
       <c r="AF689" s="4"/>
-      <c r="AG689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -52960,7 +52306,6 @@
       <c r="AD690" s="4"/>
       <c r="AE690" s="4"/>
       <c r="AF690" s="4"/>
-      <c r="AG690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -52995,7 +52340,6 @@
       <c r="AD691" s="4"/>
       <c r="AE691" s="4"/>
       <c r="AF691" s="4"/>
-      <c r="AG691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -53030,7 +52374,6 @@
       <c r="AD692" s="4"/>
       <c r="AE692" s="4"/>
       <c r="AF692" s="4"/>
-      <c r="AG692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -53065,7 +52408,6 @@
       <c r="AD693" s="4"/>
       <c r="AE693" s="4"/>
       <c r="AF693" s="4"/>
-      <c r="AG693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -53100,7 +52442,6 @@
       <c r="AD694" s="4"/>
       <c r="AE694" s="4"/>
       <c r="AF694" s="4"/>
-      <c r="AG694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -53135,7 +52476,6 @@
       <c r="AD695" s="4"/>
       <c r="AE695" s="4"/>
       <c r="AF695" s="4"/>
-      <c r="AG695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -53170,7 +52510,6 @@
       <c r="AD696" s="4"/>
       <c r="AE696" s="4"/>
       <c r="AF696" s="4"/>
-      <c r="AG696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -53205,7 +52544,6 @@
       <c r="AD697" s="4"/>
       <c r="AE697" s="4"/>
       <c r="AF697" s="4"/>
-      <c r="AG697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -53240,7 +52578,6 @@
       <c r="AD698" s="4"/>
       <c r="AE698" s="4"/>
       <c r="AF698" s="4"/>
-      <c r="AG698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -53275,7 +52612,6 @@
       <c r="AD699" s="4"/>
       <c r="AE699" s="4"/>
       <c r="AF699" s="4"/>
-      <c r="AG699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -53310,7 +52646,6 @@
       <c r="AD700" s="4"/>
       <c r="AE700" s="4"/>
       <c r="AF700" s="4"/>
-      <c r="AG700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -53345,7 +52680,6 @@
       <c r="AD701" s="4"/>
       <c r="AE701" s="4"/>
       <c r="AF701" s="4"/>
-      <c r="AG701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -53380,7 +52714,6 @@
       <c r="AD702" s="4"/>
       <c r="AE702" s="4"/>
       <c r="AF702" s="4"/>
-      <c r="AG702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -53415,7 +52748,6 @@
       <c r="AD703" s="4"/>
       <c r="AE703" s="4"/>
       <c r="AF703" s="4"/>
-      <c r="AG703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -53450,7 +52782,6 @@
       <c r="AD704" s="4"/>
       <c r="AE704" s="4"/>
       <c r="AF704" s="4"/>
-      <c r="AG704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -53485,7 +52816,6 @@
       <c r="AD705" s="4"/>
       <c r="AE705" s="4"/>
       <c r="AF705" s="4"/>
-      <c r="AG705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -53520,7 +52850,6 @@
       <c r="AD706" s="4"/>
       <c r="AE706" s="4"/>
       <c r="AF706" s="4"/>
-      <c r="AG706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -53555,7 +52884,6 @@
       <c r="AD707" s="4"/>
       <c r="AE707" s="4"/>
       <c r="AF707" s="4"/>
-      <c r="AG707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -53590,7 +52918,6 @@
       <c r="AD708" s="4"/>
       <c r="AE708" s="4"/>
       <c r="AF708" s="4"/>
-      <c r="AG708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -53625,7 +52952,6 @@
       <c r="AD709" s="4"/>
       <c r="AE709" s="4"/>
       <c r="AF709" s="4"/>
-      <c r="AG709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -53660,7 +52986,6 @@
       <c r="AD710" s="4"/>
       <c r="AE710" s="4"/>
       <c r="AF710" s="4"/>
-      <c r="AG710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -53695,7 +53020,6 @@
       <c r="AD711" s="4"/>
       <c r="AE711" s="4"/>
       <c r="AF711" s="4"/>
-      <c r="AG711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -53730,7 +53054,6 @@
       <c r="AD712" s="4"/>
       <c r="AE712" s="4"/>
       <c r="AF712" s="4"/>
-      <c r="AG712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -53765,7 +53088,6 @@
       <c r="AD713" s="4"/>
       <c r="AE713" s="4"/>
       <c r="AF713" s="4"/>
-      <c r="AG713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -53800,7 +53122,6 @@
       <c r="AD714" s="4"/>
       <c r="AE714" s="4"/>
       <c r="AF714" s="4"/>
-      <c r="AG714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -53835,7 +53156,6 @@
       <c r="AD715" s="4"/>
       <c r="AE715" s="4"/>
       <c r="AF715" s="4"/>
-      <c r="AG715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -53870,7 +53190,6 @@
       <c r="AD716" s="4"/>
       <c r="AE716" s="4"/>
       <c r="AF716" s="4"/>
-      <c r="AG716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -53905,7 +53224,6 @@
       <c r="AD717" s="4"/>
       <c r="AE717" s="4"/>
       <c r="AF717" s="4"/>
-      <c r="AG717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -53940,7 +53258,6 @@
       <c r="AD718" s="4"/>
       <c r="AE718" s="4"/>
       <c r="AF718" s="4"/>
-      <c r="AG718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -53975,7 +53292,6 @@
       <c r="AD719" s="4"/>
       <c r="AE719" s="4"/>
       <c r="AF719" s="4"/>
-      <c r="AG719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -54010,7 +53326,6 @@
       <c r="AD720" s="4"/>
       <c r="AE720" s="4"/>
       <c r="AF720" s="4"/>
-      <c r="AG720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -54045,7 +53360,6 @@
       <c r="AD721" s="4"/>
       <c r="AE721" s="4"/>
       <c r="AF721" s="4"/>
-      <c r="AG721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -54080,7 +53394,6 @@
       <c r="AD722" s="4"/>
       <c r="AE722" s="4"/>
       <c r="AF722" s="4"/>
-      <c r="AG722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -54115,7 +53428,6 @@
       <c r="AD723" s="4"/>
       <c r="AE723" s="4"/>
       <c r="AF723" s="4"/>
-      <c r="AG723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -54150,7 +53462,6 @@
       <c r="AD724" s="4"/>
       <c r="AE724" s="4"/>
       <c r="AF724" s="4"/>
-      <c r="AG724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -54185,7 +53496,6 @@
       <c r="AD725" s="4"/>
       <c r="AE725" s="4"/>
       <c r="AF725" s="4"/>
-      <c r="AG725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -54220,7 +53530,6 @@
       <c r="AD726" s="4"/>
       <c r="AE726" s="4"/>
       <c r="AF726" s="4"/>
-      <c r="AG726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -54255,7 +53564,6 @@
       <c r="AD727" s="4"/>
       <c r="AE727" s="4"/>
       <c r="AF727" s="4"/>
-      <c r="AG727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -54290,7 +53598,6 @@
       <c r="AD728" s="4"/>
       <c r="AE728" s="4"/>
       <c r="AF728" s="4"/>
-      <c r="AG728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -54325,7 +53632,6 @@
       <c r="AD729" s="4"/>
       <c r="AE729" s="4"/>
       <c r="AF729" s="4"/>
-      <c r="AG729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -54360,7 +53666,6 @@
       <c r="AD730" s="4"/>
       <c r="AE730" s="4"/>
       <c r="AF730" s="4"/>
-      <c r="AG730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -54395,7 +53700,6 @@
       <c r="AD731" s="4"/>
       <c r="AE731" s="4"/>
       <c r="AF731" s="4"/>
-      <c r="AG731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -54430,7 +53734,6 @@
       <c r="AD732" s="4"/>
       <c r="AE732" s="4"/>
       <c r="AF732" s="4"/>
-      <c r="AG732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -54465,7 +53768,6 @@
       <c r="AD733" s="4"/>
       <c r="AE733" s="4"/>
       <c r="AF733" s="4"/>
-      <c r="AG733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -54500,7 +53802,6 @@
       <c r="AD734" s="4"/>
       <c r="AE734" s="4"/>
       <c r="AF734" s="4"/>
-      <c r="AG734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -54535,7 +53836,6 @@
       <c r="AD735" s="4"/>
       <c r="AE735" s="4"/>
       <c r="AF735" s="4"/>
-      <c r="AG735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -54570,7 +53870,6 @@
       <c r="AD736" s="4"/>
       <c r="AE736" s="4"/>
       <c r="AF736" s="4"/>
-      <c r="AG736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -54605,7 +53904,6 @@
       <c r="AD737" s="4"/>
       <c r="AE737" s="4"/>
       <c r="AF737" s="4"/>
-      <c r="AG737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -54640,7 +53938,6 @@
       <c r="AD738" s="4"/>
       <c r="AE738" s="4"/>
       <c r="AF738" s="4"/>
-      <c r="AG738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -54675,7 +53972,6 @@
       <c r="AD739" s="4"/>
       <c r="AE739" s="4"/>
       <c r="AF739" s="4"/>
-      <c r="AG739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -54710,7 +54006,6 @@
       <c r="AD740" s="4"/>
       <c r="AE740" s="4"/>
       <c r="AF740" s="4"/>
-      <c r="AG740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -54745,7 +54040,6 @@
       <c r="AD741" s="4"/>
       <c r="AE741" s="4"/>
       <c r="AF741" s="4"/>
-      <c r="AG741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -54780,7 +54074,6 @@
       <c r="AD742" s="4"/>
       <c r="AE742" s="4"/>
       <c r="AF742" s="4"/>
-      <c r="AG742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -54815,7 +54108,6 @@
       <c r="AD743" s="4"/>
       <c r="AE743" s="4"/>
       <c r="AF743" s="4"/>
-      <c r="AG743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -54850,7 +54142,6 @@
       <c r="AD744" s="4"/>
       <c r="AE744" s="4"/>
       <c r="AF744" s="4"/>
-      <c r="AG744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -54885,7 +54176,6 @@
       <c r="AD745" s="4"/>
       <c r="AE745" s="4"/>
       <c r="AF745" s="4"/>
-      <c r="AG745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -54920,7 +54210,6 @@
       <c r="AD746" s="4"/>
       <c r="AE746" s="4"/>
       <c r="AF746" s="4"/>
-      <c r="AG746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -54955,7 +54244,6 @@
       <c r="AD747" s="4"/>
       <c r="AE747" s="4"/>
       <c r="AF747" s="4"/>
-      <c r="AG747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -54990,7 +54278,6 @@
       <c r="AD748" s="4"/>
       <c r="AE748" s="4"/>
       <c r="AF748" s="4"/>
-      <c r="AG748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -55025,7 +54312,6 @@
       <c r="AD749" s="4"/>
       <c r="AE749" s="4"/>
       <c r="AF749" s="4"/>
-      <c r="AG749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -55060,7 +54346,6 @@
       <c r="AD750" s="4"/>
       <c r="AE750" s="4"/>
       <c r="AF750" s="4"/>
-      <c r="AG750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -55095,7 +54380,6 @@
       <c r="AD751" s="4"/>
       <c r="AE751" s="4"/>
       <c r="AF751" s="4"/>
-      <c r="AG751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -55130,7 +54414,6 @@
       <c r="AD752" s="4"/>
       <c r="AE752" s="4"/>
       <c r="AF752" s="4"/>
-      <c r="AG752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -55165,7 +54448,6 @@
       <c r="AD753" s="4"/>
       <c r="AE753" s="4"/>
       <c r="AF753" s="4"/>
-      <c r="AG753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -55200,7 +54482,6 @@
       <c r="AD754" s="4"/>
       <c r="AE754" s="4"/>
       <c r="AF754" s="4"/>
-      <c r="AG754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -55235,7 +54516,6 @@
       <c r="AD755" s="4"/>
       <c r="AE755" s="4"/>
       <c r="AF755" s="4"/>
-      <c r="AG755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -55270,7 +54550,6 @@
       <c r="AD756" s="4"/>
       <c r="AE756" s="4"/>
       <c r="AF756" s="4"/>
-      <c r="AG756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -55305,7 +54584,6 @@
       <c r="AD757" s="4"/>
       <c r="AE757" s="4"/>
       <c r="AF757" s="4"/>
-      <c r="AG757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -55340,7 +54618,6 @@
       <c r="AD758" s="4"/>
       <c r="AE758" s="4"/>
       <c r="AF758" s="4"/>
-      <c r="AG758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -55375,7 +54652,6 @@
       <c r="AD759" s="4"/>
       <c r="AE759" s="4"/>
       <c r="AF759" s="4"/>
-      <c r="AG759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -55410,7 +54686,6 @@
       <c r="AD760" s="4"/>
       <c r="AE760" s="4"/>
       <c r="AF760" s="4"/>
-      <c r="AG760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -55445,7 +54720,6 @@
       <c r="AD761" s="4"/>
       <c r="AE761" s="4"/>
       <c r="AF761" s="4"/>
-      <c r="AG761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -55480,7 +54754,6 @@
       <c r="AD762" s="4"/>
       <c r="AE762" s="4"/>
       <c r="AF762" s="4"/>
-      <c r="AG762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -55515,7 +54788,6 @@
       <c r="AD763" s="4"/>
       <c r="AE763" s="4"/>
       <c r="AF763" s="4"/>
-      <c r="AG763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -55550,7 +54822,6 @@
       <c r="AD764" s="4"/>
       <c r="AE764" s="4"/>
       <c r="AF764" s="4"/>
-      <c r="AG764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -55585,7 +54856,6 @@
       <c r="AD765" s="4"/>
       <c r="AE765" s="4"/>
       <c r="AF765" s="4"/>
-      <c r="AG765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -55620,7 +54890,6 @@
       <c r="AD766" s="4"/>
       <c r="AE766" s="4"/>
       <c r="AF766" s="4"/>
-      <c r="AG766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -55655,7 +54924,6 @@
       <c r="AD767" s="4"/>
       <c r="AE767" s="4"/>
       <c r="AF767" s="4"/>
-      <c r="AG767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -55690,7 +54958,6 @@
       <c r="AD768" s="4"/>
       <c r="AE768" s="4"/>
       <c r="AF768" s="4"/>
-      <c r="AG768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -55725,7 +54992,6 @@
       <c r="AD769" s="4"/>
       <c r="AE769" s="4"/>
       <c r="AF769" s="4"/>
-      <c r="AG769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -55760,7 +55026,6 @@
       <c r="AD770" s="4"/>
       <c r="AE770" s="4"/>
       <c r="AF770" s="4"/>
-      <c r="AG770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -55795,7 +55060,6 @@
       <c r="AD771" s="4"/>
       <c r="AE771" s="4"/>
       <c r="AF771" s="4"/>
-      <c r="AG771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -55830,7 +55094,6 @@
       <c r="AD772" s="4"/>
       <c r="AE772" s="4"/>
       <c r="AF772" s="4"/>
-      <c r="AG772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -55865,7 +55128,6 @@
       <c r="AD773" s="4"/>
       <c r="AE773" s="4"/>
       <c r="AF773" s="4"/>
-      <c r="AG773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -55900,7 +55162,6 @@
       <c r="AD774" s="4"/>
       <c r="AE774" s="4"/>
       <c r="AF774" s="4"/>
-      <c r="AG774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -55935,7 +55196,6 @@
       <c r="AD775" s="4"/>
       <c r="AE775" s="4"/>
       <c r="AF775" s="4"/>
-      <c r="AG775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -55970,7 +55230,6 @@
       <c r="AD776" s="4"/>
       <c r="AE776" s="4"/>
       <c r="AF776" s="4"/>
-      <c r="AG776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -56005,7 +55264,6 @@
       <c r="AD777" s="4"/>
       <c r="AE777" s="4"/>
       <c r="AF777" s="4"/>
-      <c r="AG777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -56040,7 +55298,6 @@
       <c r="AD778" s="4"/>
       <c r="AE778" s="4"/>
       <c r="AF778" s="4"/>
-      <c r="AG778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -56075,7 +55332,6 @@
       <c r="AD779" s="4"/>
       <c r="AE779" s="4"/>
       <c r="AF779" s="4"/>
-      <c r="AG779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -56110,7 +55366,6 @@
       <c r="AD780" s="4"/>
       <c r="AE780" s="4"/>
       <c r="AF780" s="4"/>
-      <c r="AG780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -56145,7 +55400,6 @@
       <c r="AD781" s="4"/>
       <c r="AE781" s="4"/>
       <c r="AF781" s="4"/>
-      <c r="AG781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -56180,7 +55434,6 @@
       <c r="AD782" s="4"/>
       <c r="AE782" s="4"/>
       <c r="AF782" s="4"/>
-      <c r="AG782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -56215,7 +55468,6 @@
       <c r="AD783" s="4"/>
       <c r="AE783" s="4"/>
       <c r="AF783" s="4"/>
-      <c r="AG783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -56250,7 +55502,6 @@
       <c r="AD784" s="4"/>
       <c r="AE784" s="4"/>
       <c r="AF784" s="4"/>
-      <c r="AG784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -56285,7 +55536,6 @@
       <c r="AD785" s="4"/>
       <c r="AE785" s="4"/>
       <c r="AF785" s="4"/>
-      <c r="AG785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -56320,7 +55570,6 @@
       <c r="AD786" s="4"/>
       <c r="AE786" s="4"/>
       <c r="AF786" s="4"/>
-      <c r="AG786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -56355,7 +55604,6 @@
       <c r="AD787" s="4"/>
       <c r="AE787" s="4"/>
       <c r="AF787" s="4"/>
-      <c r="AG787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -56390,7 +55638,6 @@
       <c r="AD788" s="4"/>
       <c r="AE788" s="4"/>
       <c r="AF788" s="4"/>
-      <c r="AG788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -56425,7 +55672,6 @@
       <c r="AD789" s="4"/>
       <c r="AE789" s="4"/>
       <c r="AF789" s="4"/>
-      <c r="AG789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -56460,7 +55706,6 @@
       <c r="AD790" s="4"/>
       <c r="AE790" s="4"/>
       <c r="AF790" s="4"/>
-      <c r="AG790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -56495,7 +55740,6 @@
       <c r="AD791" s="4"/>
       <c r="AE791" s="4"/>
       <c r="AF791" s="4"/>
-      <c r="AG791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -56530,7 +55774,6 @@
       <c r="AD792" s="4"/>
       <c r="AE792" s="4"/>
       <c r="AF792" s="4"/>
-      <c r="AG792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -56565,7 +55808,6 @@
       <c r="AD793" s="4"/>
       <c r="AE793" s="4"/>
       <c r="AF793" s="4"/>
-      <c r="AG793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -56600,7 +55842,6 @@
       <c r="AD794" s="4"/>
       <c r="AE794" s="4"/>
       <c r="AF794" s="4"/>
-      <c r="AG794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -56635,7 +55876,6 @@
       <c r="AD795" s="4"/>
       <c r="AE795" s="4"/>
       <c r="AF795" s="4"/>
-      <c r="AG795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -56670,7 +55910,6 @@
       <c r="AD796" s="4"/>
       <c r="AE796" s="4"/>
       <c r="AF796" s="4"/>
-      <c r="AG796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -56705,7 +55944,6 @@
       <c r="AD797" s="4"/>
       <c r="AE797" s="4"/>
       <c r="AF797" s="4"/>
-      <c r="AG797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -56740,7 +55978,6 @@
       <c r="AD798" s="4"/>
       <c r="AE798" s="4"/>
       <c r="AF798" s="4"/>
-      <c r="AG798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -56775,7 +56012,6 @@
       <c r="AD799" s="4"/>
       <c r="AE799" s="4"/>
       <c r="AF799" s="4"/>
-      <c r="AG799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -56810,7 +56046,6 @@
       <c r="AD800" s="4"/>
       <c r="AE800" s="4"/>
       <c r="AF800" s="4"/>
-      <c r="AG800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -56845,7 +56080,6 @@
       <c r="AD801" s="4"/>
       <c r="AE801" s="4"/>
       <c r="AF801" s="4"/>
-      <c r="AG801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -56880,7 +56114,6 @@
       <c r="AD802" s="4"/>
       <c r="AE802" s="4"/>
       <c r="AF802" s="4"/>
-      <c r="AG802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -56915,7 +56148,6 @@
       <c r="AD803" s="4"/>
       <c r="AE803" s="4"/>
       <c r="AF803" s="4"/>
-      <c r="AG803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -56950,7 +56182,6 @@
       <c r="AD804" s="4"/>
       <c r="AE804" s="4"/>
       <c r="AF804" s="4"/>
-      <c r="AG804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -56985,7 +56216,6 @@
       <c r="AD805" s="4"/>
       <c r="AE805" s="4"/>
       <c r="AF805" s="4"/>
-      <c r="AG805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -57020,7 +56250,6 @@
       <c r="AD806" s="4"/>
       <c r="AE806" s="4"/>
       <c r="AF806" s="4"/>
-      <c r="AG806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -57055,7 +56284,6 @@
       <c r="AD807" s="4"/>
       <c r="AE807" s="4"/>
       <c r="AF807" s="4"/>
-      <c r="AG807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -57090,7 +56318,6 @@
       <c r="AD808" s="4"/>
       <c r="AE808" s="4"/>
       <c r="AF808" s="4"/>
-      <c r="AG808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -57125,7 +56352,6 @@
       <c r="AD809" s="4"/>
       <c r="AE809" s="4"/>
       <c r="AF809" s="4"/>
-      <c r="AG809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -57160,7 +56386,6 @@
       <c r="AD810" s="4"/>
       <c r="AE810" s="4"/>
       <c r="AF810" s="4"/>
-      <c r="AG810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -57195,7 +56420,6 @@
       <c r="AD811" s="4"/>
       <c r="AE811" s="4"/>
       <c r="AF811" s="4"/>
-      <c r="AG811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -57230,7 +56454,6 @@
       <c r="AD812" s="4"/>
       <c r="AE812" s="4"/>
       <c r="AF812" s="4"/>
-      <c r="AG812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -57265,7 +56488,6 @@
       <c r="AD813" s="4"/>
       <c r="AE813" s="4"/>
       <c r="AF813" s="4"/>
-      <c r="AG813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -57300,7 +56522,6 @@
       <c r="AD814" s="4"/>
       <c r="AE814" s="4"/>
       <c r="AF814" s="4"/>
-      <c r="AG814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -57335,7 +56556,6 @@
       <c r="AD815" s="4"/>
       <c r="AE815" s="4"/>
       <c r="AF815" s="4"/>
-      <c r="AG815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -57370,7 +56590,6 @@
       <c r="AD816" s="4"/>
       <c r="AE816" s="4"/>
       <c r="AF816" s="4"/>
-      <c r="AG816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -57405,7 +56624,6 @@
       <c r="AD817" s="4"/>
       <c r="AE817" s="4"/>
       <c r="AF817" s="4"/>
-      <c r="AG817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -57440,7 +56658,6 @@
       <c r="AD818" s="4"/>
       <c r="AE818" s="4"/>
       <c r="AF818" s="4"/>
-      <c r="AG818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -57475,7 +56692,6 @@
       <c r="AD819" s="4"/>
       <c r="AE819" s="4"/>
       <c r="AF819" s="4"/>
-      <c r="AG819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -57510,7 +56726,6 @@
       <c r="AD820" s="4"/>
       <c r="AE820" s="4"/>
       <c r="AF820" s="4"/>
-      <c r="AG820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -57545,7 +56760,6 @@
       <c r="AD821" s="4"/>
       <c r="AE821" s="4"/>
       <c r="AF821" s="4"/>
-      <c r="AG821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -57580,7 +56794,6 @@
       <c r="AD822" s="4"/>
       <c r="AE822" s="4"/>
       <c r="AF822" s="4"/>
-      <c r="AG822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -57615,7 +56828,6 @@
       <c r="AD823" s="4"/>
       <c r="AE823" s="4"/>
       <c r="AF823" s="4"/>
-      <c r="AG823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -57650,7 +56862,6 @@
       <c r="AD824" s="4"/>
       <c r="AE824" s="4"/>
       <c r="AF824" s="4"/>
-      <c r="AG824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -57685,7 +56896,6 @@
       <c r="AD825" s="4"/>
       <c r="AE825" s="4"/>
       <c r="AF825" s="4"/>
-      <c r="AG825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -57720,7 +56930,6 @@
       <c r="AD826" s="4"/>
       <c r="AE826" s="4"/>
       <c r="AF826" s="4"/>
-      <c r="AG826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -57755,7 +56964,6 @@
       <c r="AD827" s="4"/>
       <c r="AE827" s="4"/>
       <c r="AF827" s="4"/>
-      <c r="AG827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -57790,7 +56998,6 @@
       <c r="AD828" s="4"/>
       <c r="AE828" s="4"/>
       <c r="AF828" s="4"/>
-      <c r="AG828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -57825,7 +57032,6 @@
       <c r="AD829" s="4"/>
       <c r="AE829" s="4"/>
       <c r="AF829" s="4"/>
-      <c r="AG829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -57860,7 +57066,6 @@
       <c r="AD830" s="4"/>
       <c r="AE830" s="4"/>
       <c r="AF830" s="4"/>
-      <c r="AG830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -57895,7 +57100,6 @@
       <c r="AD831" s="4"/>
       <c r="AE831" s="4"/>
       <c r="AF831" s="4"/>
-      <c r="AG831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -57930,7 +57134,6 @@
       <c r="AD832" s="4"/>
       <c r="AE832" s="4"/>
       <c r="AF832" s="4"/>
-      <c r="AG832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -57965,7 +57168,6 @@
       <c r="AD833" s="4"/>
       <c r="AE833" s="4"/>
       <c r="AF833" s="4"/>
-      <c r="AG833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -58000,7 +57202,6 @@
       <c r="AD834" s="4"/>
       <c r="AE834" s="4"/>
       <c r="AF834" s="4"/>
-      <c r="AG834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -58035,7 +57236,6 @@
       <c r="AD835" s="4"/>
       <c r="AE835" s="4"/>
       <c r="AF835" s="4"/>
-      <c r="AG835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -58070,7 +57270,6 @@
       <c r="AD836" s="4"/>
       <c r="AE836" s="4"/>
       <c r="AF836" s="4"/>
-      <c r="AG836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -58105,7 +57304,6 @@
       <c r="AD837" s="4"/>
       <c r="AE837" s="4"/>
       <c r="AF837" s="4"/>
-      <c r="AG837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -58140,7 +57338,6 @@
       <c r="AD838" s="4"/>
       <c r="AE838" s="4"/>
       <c r="AF838" s="4"/>
-      <c r="AG838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -58175,7 +57372,6 @@
       <c r="AD839" s="4"/>
       <c r="AE839" s="4"/>
       <c r="AF839" s="4"/>
-      <c r="AG839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -58210,7 +57406,6 @@
       <c r="AD840" s="4"/>
       <c r="AE840" s="4"/>
       <c r="AF840" s="4"/>
-      <c r="AG840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -58245,7 +57440,6 @@
       <c r="AD841" s="4"/>
       <c r="AE841" s="4"/>
       <c r="AF841" s="4"/>
-      <c r="AG841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -58280,7 +57474,6 @@
       <c r="AD842" s="4"/>
       <c r="AE842" s="4"/>
       <c r="AF842" s="4"/>
-      <c r="AG842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -58315,7 +57508,6 @@
       <c r="AD843" s="4"/>
       <c r="AE843" s="4"/>
       <c r="AF843" s="4"/>
-      <c r="AG843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -58350,7 +57542,6 @@
       <c r="AD844" s="4"/>
       <c r="AE844" s="4"/>
       <c r="AF844" s="4"/>
-      <c r="AG844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -58385,7 +57576,6 @@
       <c r="AD845" s="4"/>
       <c r="AE845" s="4"/>
       <c r="AF845" s="4"/>
-      <c r="AG845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -58420,7 +57610,6 @@
       <c r="AD846" s="4"/>
       <c r="AE846" s="4"/>
       <c r="AF846" s="4"/>
-      <c r="AG846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -58455,7 +57644,6 @@
       <c r="AD847" s="4"/>
       <c r="AE847" s="4"/>
       <c r="AF847" s="4"/>
-      <c r="AG847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -58490,7 +57678,6 @@
       <c r="AD848" s="4"/>
       <c r="AE848" s="4"/>
       <c r="AF848" s="4"/>
-      <c r="AG848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -58525,7 +57712,6 @@
       <c r="AD849" s="4"/>
       <c r="AE849" s="4"/>
       <c r="AF849" s="4"/>
-      <c r="AG849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -58560,7 +57746,6 @@
       <c r="AD850" s="4"/>
       <c r="AE850" s="4"/>
       <c r="AF850" s="4"/>
-      <c r="AG850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -58595,7 +57780,6 @@
       <c r="AD851" s="4"/>
       <c r="AE851" s="4"/>
       <c r="AF851" s="4"/>
-      <c r="AG851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -58630,7 +57814,6 @@
       <c r="AD852" s="4"/>
       <c r="AE852" s="4"/>
       <c r="AF852" s="4"/>
-      <c r="AG852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -58665,7 +57848,6 @@
       <c r="AD853" s="4"/>
       <c r="AE853" s="4"/>
       <c r="AF853" s="4"/>
-      <c r="AG853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -58700,7 +57882,6 @@
       <c r="AD854" s="4"/>
       <c r="AE854" s="4"/>
       <c r="AF854" s="4"/>
-      <c r="AG854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -58735,7 +57916,6 @@
       <c r="AD855" s="4"/>
       <c r="AE855" s="4"/>
       <c r="AF855" s="4"/>
-      <c r="AG855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -58770,7 +57950,6 @@
       <c r="AD856" s="4"/>
       <c r="AE856" s="4"/>
       <c r="AF856" s="4"/>
-      <c r="AG856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -58805,7 +57984,6 @@
       <c r="AD857" s="4"/>
       <c r="AE857" s="4"/>
       <c r="AF857" s="4"/>
-      <c r="AG857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -58840,7 +58018,6 @@
       <c r="AD858" s="4"/>
       <c r="AE858" s="4"/>
       <c r="AF858" s="4"/>
-      <c r="AG858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -58875,7 +58052,6 @@
       <c r="AD859" s="4"/>
       <c r="AE859" s="4"/>
       <c r="AF859" s="4"/>
-      <c r="AG859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -58910,7 +58086,6 @@
       <c r="AD860" s="4"/>
       <c r="AE860" s="4"/>
       <c r="AF860" s="4"/>
-      <c r="AG860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -58945,7 +58120,6 @@
       <c r="AD861" s="4"/>
       <c r="AE861" s="4"/>
       <c r="AF861" s="4"/>
-      <c r="AG861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -58980,7 +58154,6 @@
       <c r="AD862" s="4"/>
       <c r="AE862" s="4"/>
       <c r="AF862" s="4"/>
-      <c r="AG862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -59015,7 +58188,6 @@
       <c r="AD863" s="4"/>
       <c r="AE863" s="4"/>
       <c r="AF863" s="4"/>
-      <c r="AG863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -59050,7 +58222,6 @@
       <c r="AD864" s="4"/>
       <c r="AE864" s="4"/>
       <c r="AF864" s="4"/>
-      <c r="AG864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -59085,7 +58256,6 @@
       <c r="AD865" s="4"/>
       <c r="AE865" s="4"/>
       <c r="AF865" s="4"/>
-      <c r="AG865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -59120,7 +58290,6 @@
       <c r="AD866" s="4"/>
       <c r="AE866" s="4"/>
       <c r="AF866" s="4"/>
-      <c r="AG866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -59155,7 +58324,6 @@
       <c r="AD867" s="4"/>
       <c r="AE867" s="4"/>
       <c r="AF867" s="4"/>
-      <c r="AG867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -59190,7 +58358,6 @@
       <c r="AD868" s="4"/>
       <c r="AE868" s="4"/>
       <c r="AF868" s="4"/>
-      <c r="AG868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -59225,7 +58392,6 @@
       <c r="AD869" s="4"/>
       <c r="AE869" s="4"/>
       <c r="AF869" s="4"/>
-      <c r="AG869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -59260,7 +58426,6 @@
       <c r="AD870" s="4"/>
       <c r="AE870" s="4"/>
       <c r="AF870" s="4"/>
-      <c r="AG870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -59295,7 +58460,6 @@
       <c r="AD871" s="4"/>
       <c r="AE871" s="4"/>
       <c r="AF871" s="4"/>
-      <c r="AG871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -59330,7 +58494,6 @@
       <c r="AD872" s="4"/>
       <c r="AE872" s="4"/>
       <c r="AF872" s="4"/>
-      <c r="AG872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -59365,7 +58528,6 @@
       <c r="AD873" s="4"/>
       <c r="AE873" s="4"/>
       <c r="AF873" s="4"/>
-      <c r="AG873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -59400,7 +58562,6 @@
       <c r="AD874" s="4"/>
       <c r="AE874" s="4"/>
       <c r="AF874" s="4"/>
-      <c r="AG874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -59435,7 +58596,6 @@
       <c r="AD875" s="4"/>
       <c r="AE875" s="4"/>
       <c r="AF875" s="4"/>
-      <c r="AG875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -59470,7 +58630,6 @@
       <c r="AD876" s="4"/>
       <c r="AE876" s="4"/>
       <c r="AF876" s="4"/>
-      <c r="AG876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -59505,7 +58664,6 @@
       <c r="AD877" s="4"/>
       <c r="AE877" s="4"/>
       <c r="AF877" s="4"/>
-      <c r="AG877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -59540,7 +58698,6 @@
       <c r="AD878" s="4"/>
       <c r="AE878" s="4"/>
       <c r="AF878" s="4"/>
-      <c r="AG878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -59575,7 +58732,6 @@
       <c r="AD879" s="4"/>
       <c r="AE879" s="4"/>
       <c r="AF879" s="4"/>
-      <c r="AG879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -59610,7 +58766,6 @@
       <c r="AD880" s="4"/>
       <c r="AE880" s="4"/>
       <c r="AF880" s="4"/>
-      <c r="AG880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -59645,7 +58800,6 @@
       <c r="AD881" s="4"/>
       <c r="AE881" s="4"/>
       <c r="AF881" s="4"/>
-      <c r="AG881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -59680,7 +58834,6 @@
       <c r="AD882" s="4"/>
       <c r="AE882" s="4"/>
       <c r="AF882" s="4"/>
-      <c r="AG882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -59715,7 +58868,6 @@
       <c r="AD883" s="4"/>
       <c r="AE883" s="4"/>
       <c r="AF883" s="4"/>
-      <c r="AG883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -59750,7 +58902,6 @@
       <c r="AD884" s="4"/>
       <c r="AE884" s="4"/>
       <c r="AF884" s="4"/>
-      <c r="AG884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -59785,7 +58936,6 @@
       <c r="AD885" s="4"/>
       <c r="AE885" s="4"/>
       <c r="AF885" s="4"/>
-      <c r="AG885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -59820,7 +58970,6 @@
       <c r="AD886" s="4"/>
       <c r="AE886" s="4"/>
       <c r="AF886" s="4"/>
-      <c r="AG886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -59855,7 +59004,6 @@
       <c r="AD887" s="4"/>
       <c r="AE887" s="4"/>
       <c r="AF887" s="4"/>
-      <c r="AG887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -59890,7 +59038,6 @@
       <c r="AD888" s="4"/>
       <c r="AE888" s="4"/>
       <c r="AF888" s="4"/>
-      <c r="AG888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -59925,7 +59072,6 @@
       <c r="AD889" s="4"/>
       <c r="AE889" s="4"/>
       <c r="AF889" s="4"/>
-      <c r="AG889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -59960,7 +59106,6 @@
       <c r="AD890" s="4"/>
       <c r="AE890" s="4"/>
       <c r="AF890" s="4"/>
-      <c r="AG890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -59995,7 +59140,6 @@
       <c r="AD891" s="4"/>
       <c r="AE891" s="4"/>
       <c r="AF891" s="4"/>
-      <c r="AG891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -60030,7 +59174,6 @@
       <c r="AD892" s="4"/>
       <c r="AE892" s="4"/>
       <c r="AF892" s="4"/>
-      <c r="AG892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -60065,7 +59208,6 @@
       <c r="AD893" s="4"/>
       <c r="AE893" s="4"/>
       <c r="AF893" s="4"/>
-      <c r="AG893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -60100,7 +59242,6 @@
       <c r="AD894" s="4"/>
       <c r="AE894" s="4"/>
       <c r="AF894" s="4"/>
-      <c r="AG894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -60135,7 +59276,6 @@
       <c r="AD895" s="4"/>
       <c r="AE895" s="4"/>
       <c r="AF895" s="4"/>
-      <c r="AG895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -60170,7 +59310,6 @@
       <c r="AD896" s="4"/>
       <c r="AE896" s="4"/>
       <c r="AF896" s="4"/>
-      <c r="AG896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -60205,7 +59344,6 @@
       <c r="AD897" s="4"/>
       <c r="AE897" s="4"/>
       <c r="AF897" s="4"/>
-      <c r="AG897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -60240,7 +59378,6 @@
       <c r="AD898" s="4"/>
       <c r="AE898" s="4"/>
       <c r="AF898" s="4"/>
-      <c r="AG898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -60275,7 +59412,6 @@
       <c r="AD899" s="4"/>
       <c r="AE899" s="4"/>
       <c r="AF899" s="4"/>
-      <c r="AG899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -60310,7 +59446,6 @@
       <c r="AD900" s="4"/>
       <c r="AE900" s="4"/>
       <c r="AF900" s="4"/>
-      <c r="AG900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -60345,7 +59480,6 @@
       <c r="AD901" s="4"/>
       <c r="AE901" s="4"/>
       <c r="AF901" s="4"/>
-      <c r="AG901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -60380,7 +59514,6 @@
       <c r="AD902" s="4"/>
       <c r="AE902" s="4"/>
       <c r="AF902" s="4"/>
-      <c r="AG902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -60415,7 +59548,6 @@
       <c r="AD903" s="4"/>
       <c r="AE903" s="4"/>
       <c r="AF903" s="4"/>
-      <c r="AG903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -60450,7 +59582,6 @@
       <c r="AD904" s="4"/>
       <c r="AE904" s="4"/>
       <c r="AF904" s="4"/>
-      <c r="AG904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -60485,7 +59616,6 @@
       <c r="AD905" s="4"/>
       <c r="AE905" s="4"/>
       <c r="AF905" s="4"/>
-      <c r="AG905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -60520,7 +59650,6 @@
       <c r="AD906" s="4"/>
       <c r="AE906" s="4"/>
       <c r="AF906" s="4"/>
-      <c r="AG906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -60555,7 +59684,6 @@
       <c r="AD907" s="4"/>
       <c r="AE907" s="4"/>
       <c r="AF907" s="4"/>
-      <c r="AG907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -60590,7 +59718,6 @@
       <c r="AD908" s="4"/>
       <c r="AE908" s="4"/>
       <c r="AF908" s="4"/>
-      <c r="AG908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -60625,7 +59752,6 @@
       <c r="AD909" s="4"/>
       <c r="AE909" s="4"/>
       <c r="AF909" s="4"/>
-      <c r="AG909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -60660,7 +59786,6 @@
       <c r="AD910" s="4"/>
       <c r="AE910" s="4"/>
       <c r="AF910" s="4"/>
-      <c r="AG910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -60695,7 +59820,6 @@
       <c r="AD911" s="4"/>
       <c r="AE911" s="4"/>
       <c r="AF911" s="4"/>
-      <c r="AG911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -60730,7 +59854,6 @@
       <c r="AD912" s="4"/>
       <c r="AE912" s="4"/>
       <c r="AF912" s="4"/>
-      <c r="AG912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -60765,7 +59888,6 @@
       <c r="AD913" s="4"/>
       <c r="AE913" s="4"/>
       <c r="AF913" s="4"/>
-      <c r="AG913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -60800,7 +59922,6 @@
       <c r="AD914" s="4"/>
       <c r="AE914" s="4"/>
       <c r="AF914" s="4"/>
-      <c r="AG914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -60835,7 +59956,6 @@
       <c r="AD915" s="4"/>
       <c r="AE915" s="4"/>
       <c r="AF915" s="4"/>
-      <c r="AG915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -60870,7 +59990,6 @@
       <c r="AD916" s="4"/>
       <c r="AE916" s="4"/>
       <c r="AF916" s="4"/>
-      <c r="AG916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -60905,7 +60024,6 @@
       <c r="AD917" s="4"/>
       <c r="AE917" s="4"/>
       <c r="AF917" s="4"/>
-      <c r="AG917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -60940,7 +60058,6 @@
       <c r="AD918" s="4"/>
       <c r="AE918" s="4"/>
       <c r="AF918" s="4"/>
-      <c r="AG918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -60975,7 +60092,6 @@
       <c r="AD919" s="4"/>
       <c r="AE919" s="4"/>
       <c r="AF919" s="4"/>
-      <c r="AG919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -61010,7 +60126,6 @@
       <c r="AD920" s="4"/>
       <c r="AE920" s="4"/>
       <c r="AF920" s="4"/>
-      <c r="AG920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -61045,7 +60160,6 @@
       <c r="AD921" s="4"/>
       <c r="AE921" s="4"/>
       <c r="AF921" s="4"/>
-      <c r="AG921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -61080,7 +60194,6 @@
       <c r="AD922" s="4"/>
       <c r="AE922" s="4"/>
       <c r="AF922" s="4"/>
-      <c r="AG922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -61115,7 +60228,6 @@
       <c r="AD923" s="4"/>
       <c r="AE923" s="4"/>
       <c r="AF923" s="4"/>
-      <c r="AG923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -61150,7 +60262,6 @@
       <c r="AD924" s="4"/>
       <c r="AE924" s="4"/>
       <c r="AF924" s="4"/>
-      <c r="AG924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -61185,7 +60296,6 @@
       <c r="AD925" s="4"/>
       <c r="AE925" s="4"/>
       <c r="AF925" s="4"/>
-      <c r="AG925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -61220,7 +60330,6 @@
       <c r="AD926" s="4"/>
       <c r="AE926" s="4"/>
       <c r="AF926" s="4"/>
-      <c r="AG926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -61255,7 +60364,6 @@
       <c r="AD927" s="4"/>
       <c r="AE927" s="4"/>
       <c r="AF927" s="4"/>
-      <c r="AG927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -61290,7 +60398,6 @@
       <c r="AD928" s="4"/>
       <c r="AE928" s="4"/>
       <c r="AF928" s="4"/>
-      <c r="AG928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -61325,7 +60432,6 @@
       <c r="AD929" s="4"/>
       <c r="AE929" s="4"/>
       <c r="AF929" s="4"/>
-      <c r="AG929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -61360,7 +60466,6 @@
       <c r="AD930" s="4"/>
       <c r="AE930" s="4"/>
       <c r="AF930" s="4"/>
-      <c r="AG930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -61395,7 +60500,6 @@
       <c r="AD931" s="4"/>
       <c r="AE931" s="4"/>
       <c r="AF931" s="4"/>
-      <c r="AG931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -61430,7 +60534,6 @@
       <c r="AD932" s="4"/>
       <c r="AE932" s="4"/>
       <c r="AF932" s="4"/>
-      <c r="AG932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -61465,7 +60568,6 @@
       <c r="AD933" s="4"/>
       <c r="AE933" s="4"/>
       <c r="AF933" s="4"/>
-      <c r="AG933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -61500,7 +60602,6 @@
       <c r="AD934" s="4"/>
       <c r="AE934" s="4"/>
       <c r="AF934" s="4"/>
-      <c r="AG934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -61535,7 +60636,6 @@
       <c r="AD935" s="4"/>
       <c r="AE935" s="4"/>
       <c r="AF935" s="4"/>
-      <c r="AG935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -61570,7 +60670,6 @@
       <c r="AD936" s="4"/>
       <c r="AE936" s="4"/>
       <c r="AF936" s="4"/>
-      <c r="AG936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -61605,7 +60704,6 @@
       <c r="AD937" s="4"/>
       <c r="AE937" s="4"/>
       <c r="AF937" s="4"/>
-      <c r="AG937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -61640,7 +60738,6 @@
       <c r="AD938" s="4"/>
       <c r="AE938" s="4"/>
       <c r="AF938" s="4"/>
-      <c r="AG938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -61675,7 +60772,6 @@
       <c r="AD939" s="4"/>
       <c r="AE939" s="4"/>
       <c r="AF939" s="4"/>
-      <c r="AG939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -61710,7 +60806,6 @@
       <c r="AD940" s="4"/>
       <c r="AE940" s="4"/>
       <c r="AF940" s="4"/>
-      <c r="AG940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -61745,7 +60840,6 @@
       <c r="AD941" s="4"/>
       <c r="AE941" s="4"/>
       <c r="AF941" s="4"/>
-      <c r="AG941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -61780,7 +60874,6 @@
       <c r="AD942" s="4"/>
       <c r="AE942" s="4"/>
       <c r="AF942" s="4"/>
-      <c r="AG942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -61815,7 +60908,6 @@
       <c r="AD943" s="4"/>
       <c r="AE943" s="4"/>
       <c r="AF943" s="4"/>
-      <c r="AG943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -61850,7 +60942,6 @@
       <c r="AD944" s="4"/>
       <c r="AE944" s="4"/>
       <c r="AF944" s="4"/>
-      <c r="AG944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -61885,7 +60976,6 @@
       <c r="AD945" s="4"/>
       <c r="AE945" s="4"/>
       <c r="AF945" s="4"/>
-      <c r="AG945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -61920,7 +61010,6 @@
       <c r="AD946" s="4"/>
       <c r="AE946" s="4"/>
       <c r="AF946" s="4"/>
-      <c r="AG946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -61955,7 +61044,6 @@
       <c r="AD947" s="4"/>
       <c r="AE947" s="4"/>
       <c r="AF947" s="4"/>
-      <c r="AG947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -61990,7 +61078,6 @@
       <c r="AD948" s="4"/>
       <c r="AE948" s="4"/>
       <c r="AF948" s="4"/>
-      <c r="AG948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -62025,7 +61112,6 @@
       <c r="AD949" s="4"/>
       <c r="AE949" s="4"/>
       <c r="AF949" s="4"/>
-      <c r="AG949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -62060,7 +61146,6 @@
       <c r="AD950" s="4"/>
       <c r="AE950" s="4"/>
       <c r="AF950" s="4"/>
-      <c r="AG950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -62095,7 +61180,6 @@
       <c r="AD951" s="4"/>
       <c r="AE951" s="4"/>
       <c r="AF951" s="4"/>
-      <c r="AG951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -62130,7 +61214,6 @@
       <c r="AD952" s="4"/>
       <c r="AE952" s="4"/>
       <c r="AF952" s="4"/>
-      <c r="AG952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -62165,7 +61248,6 @@
       <c r="AD953" s="4"/>
       <c r="AE953" s="4"/>
       <c r="AF953" s="4"/>
-      <c r="AG953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -62200,7 +61282,6 @@
       <c r="AD954" s="4"/>
       <c r="AE954" s="4"/>
       <c r="AF954" s="4"/>
-      <c r="AG954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -62235,7 +61316,6 @@
       <c r="AD955" s="4"/>
       <c r="AE955" s="4"/>
       <c r="AF955" s="4"/>
-      <c r="AG955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -62270,7 +61350,6 @@
       <c r="AD956" s="4"/>
       <c r="AE956" s="4"/>
       <c r="AF956" s="4"/>
-      <c r="AG956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -62305,7 +61384,6 @@
       <c r="AD957" s="4"/>
       <c r="AE957" s="4"/>
       <c r="AF957" s="4"/>
-      <c r="AG957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -62340,7 +61418,6 @@
       <c r="AD958" s="4"/>
       <c r="AE958" s="4"/>
       <c r="AF958" s="4"/>
-      <c r="AG958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -62375,7 +61452,6 @@
       <c r="AD959" s="4"/>
       <c r="AE959" s="4"/>
       <c r="AF959" s="4"/>
-      <c r="AG959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -62410,7 +61486,6 @@
       <c r="AD960" s="4"/>
       <c r="AE960" s="4"/>
       <c r="AF960" s="4"/>
-      <c r="AG960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -62445,7 +61520,6 @@
       <c r="AD961" s="4"/>
       <c r="AE961" s="4"/>
       <c r="AF961" s="4"/>
-      <c r="AG961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -62480,7 +61554,6 @@
       <c r="AD962" s="4"/>
       <c r="AE962" s="4"/>
       <c r="AF962" s="4"/>
-      <c r="AG962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -62515,7 +61588,6 @@
       <c r="AD963" s="4"/>
       <c r="AE963" s="4"/>
       <c r="AF963" s="4"/>
-      <c r="AG963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -62550,7 +61622,6 @@
       <c r="AD964" s="4"/>
       <c r="AE964" s="4"/>
       <c r="AF964" s="4"/>
-      <c r="AG964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -62585,7 +61656,6 @@
       <c r="AD965" s="4"/>
       <c r="AE965" s="4"/>
       <c r="AF965" s="4"/>
-      <c r="AG965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -62620,7 +61690,6 @@
       <c r="AD966" s="4"/>
       <c r="AE966" s="4"/>
       <c r="AF966" s="4"/>
-      <c r="AG966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -62655,7 +61724,6 @@
       <c r="AD967" s="4"/>
       <c r="AE967" s="4"/>
       <c r="AF967" s="4"/>
-      <c r="AG967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -62690,7 +61758,6 @@
       <c r="AD968" s="4"/>
       <c r="AE968" s="4"/>
       <c r="AF968" s="4"/>
-      <c r="AG968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -62725,7 +61792,6 @@
       <c r="AD969" s="4"/>
       <c r="AE969" s="4"/>
       <c r="AF969" s="4"/>
-      <c r="AG969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -62760,7 +61826,6 @@
       <c r="AD970" s="4"/>
       <c r="AE970" s="4"/>
       <c r="AF970" s="4"/>
-      <c r="AG970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="4"/>
@@ -62795,7 +61860,6 @@
       <c r="AD971" s="4"/>
       <c r="AE971" s="4"/>
       <c r="AF971" s="4"/>
-      <c r="AG971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="4"/>
@@ -62830,7 +61894,6 @@
       <c r="AD972" s="4"/>
       <c r="AE972" s="4"/>
       <c r="AF972" s="4"/>
-      <c r="AG972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="4"/>
@@ -62865,7 +61928,6 @@
       <c r="AD973" s="4"/>
       <c r="AE973" s="4"/>
       <c r="AF973" s="4"/>
-      <c r="AG973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="4"/>
@@ -62900,7 +61962,6 @@
       <c r="AD974" s="4"/>
       <c r="AE974" s="4"/>
       <c r="AF974" s="4"/>
-      <c r="AG974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="4"/>
@@ -62935,7 +61996,6 @@
       <c r="AD975" s="4"/>
       <c r="AE975" s="4"/>
       <c r="AF975" s="4"/>
-      <c r="AG975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="4"/>
@@ -62970,7 +62030,6 @@
       <c r="AD976" s="4"/>
       <c r="AE976" s="4"/>
       <c r="AF976" s="4"/>
-      <c r="AG976" s="4"/>
     </row>
     <row r="977">
       <c r="A977" s="4"/>
@@ -63005,7 +62064,6 @@
       <c r="AD977" s="4"/>
       <c r="AE977" s="4"/>
       <c r="AF977" s="4"/>
-      <c r="AG977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="4"/>
@@ -63040,7 +62098,6 @@
       <c r="AD978" s="4"/>
       <c r="AE978" s="4"/>
       <c r="AF978" s="4"/>
-      <c r="AG978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="4"/>
@@ -63075,7 +62132,6 @@
       <c r="AD979" s="4"/>
       <c r="AE979" s="4"/>
       <c r="AF979" s="4"/>
-      <c r="AG979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="4"/>
@@ -63110,7 +62166,6 @@
       <c r="AD980" s="4"/>
       <c r="AE980" s="4"/>
       <c r="AF980" s="4"/>
-      <c r="AG980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="4"/>
@@ -63145,7 +62200,6 @@
       <c r="AD981" s="4"/>
       <c r="AE981" s="4"/>
       <c r="AF981" s="4"/>
-      <c r="AG981" s="4"/>
     </row>
     <row r="982">
       <c r="A982" s="4"/>
@@ -63180,7 +62234,6 @@
       <c r="AD982" s="4"/>
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
-      <c r="AG982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="4"/>
@@ -63215,7 +62268,6 @@
       <c r="AD983" s="4"/>
       <c r="AE983" s="4"/>
       <c r="AF983" s="4"/>
-      <c r="AG983" s="4"/>
     </row>
     <row r="984">
       <c r="A984" s="4"/>
@@ -63250,7 +62302,6 @@
       <c r="AD984" s="4"/>
       <c r="AE984" s="4"/>
       <c r="AF984" s="4"/>
-      <c r="AG984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="4"/>
@@ -63285,7 +62336,6 @@
       <c r="AD985" s="4"/>
       <c r="AE985" s="4"/>
       <c r="AF985" s="4"/>
-      <c r="AG985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="4"/>
@@ -63320,7 +62370,6 @@
       <c r="AD986" s="4"/>
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
-      <c r="AG986" s="4"/>
     </row>
     <row r="987">
       <c r="A987" s="4"/>
@@ -63355,7 +62404,6 @@
       <c r="AD987" s="4"/>
       <c r="AE987" s="4"/>
       <c r="AF987" s="4"/>
-      <c r="AG987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="4"/>
@@ -63390,7 +62438,6 @@
       <c r="AD988" s="4"/>
       <c r="AE988" s="4"/>
       <c r="AF988" s="4"/>
-      <c r="AG988" s="4"/>
     </row>
     <row r="989">
       <c r="A989" s="4"/>
@@ -63425,7 +62472,6 @@
       <c r="AD989" s="4"/>
       <c r="AE989" s="4"/>
       <c r="AF989" s="4"/>
-      <c r="AG989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="4"/>
@@ -63460,7 +62506,6 @@
       <c r="AD990" s="4"/>
       <c r="AE990" s="4"/>
       <c r="AF990" s="4"/>
-      <c r="AG990" s="4"/>
     </row>
     <row r="991">
       <c r="A991" s="4"/>
@@ -63495,7 +62540,6 @@
       <c r="AD991" s="4"/>
       <c r="AE991" s="4"/>
       <c r="AF991" s="4"/>
-      <c r="AG991" s="4"/>
     </row>
     <row r="992">
       <c r="A992" s="4"/>
@@ -63530,7 +62574,6 @@
       <c r="AD992" s="4"/>
       <c r="AE992" s="4"/>
       <c r="AF992" s="4"/>
-      <c r="AG992" s="4"/>
     </row>
     <row r="993">
       <c r="A993" s="4"/>
@@ -63565,7 +62608,6 @@
       <c r="AD993" s="4"/>
       <c r="AE993" s="4"/>
       <c r="AF993" s="4"/>
-      <c r="AG993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="4"/>
@@ -63600,7 +62642,6 @@
       <c r="AD994" s="4"/>
       <c r="AE994" s="4"/>
       <c r="AF994" s="4"/>
-      <c r="AG994" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
